--- a/TFP_APS_Questions_QCU_Reel_2025.xlsx
+++ b/TFP_APS_Questions_QCU_Reel_2025.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2104474\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/Questions_TFP_APS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE45960-1A4E-43D5-BBC8-32E3E1478149}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste_Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="Liste_UV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="270">
   <si>
     <t>UV</t>
   </si>
@@ -753,13 +754,103 @@
   </si>
   <si>
     <t>CNAPS via le Fonds de Modernisation Sociale</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>UV1</t>
+  </si>
+  <si>
+    <t>Module secourisme</t>
+  </si>
+  <si>
+    <t>Module environnement juridique</t>
+  </si>
+  <si>
+    <t>UV3</t>
+  </si>
+  <si>
+    <t>Module gestion des conflits</t>
+  </si>
+  <si>
+    <t>UV4</t>
+  </si>
+  <si>
+    <t>Module stratégique</t>
+  </si>
+  <si>
+    <t>UV5</t>
+  </si>
+  <si>
+    <t>Module prévention des risques d’incendie</t>
+  </si>
+  <si>
+    <t>UV6</t>
+  </si>
+  <si>
+    <t>Module d’appréhension au cours de l’exercice du métier</t>
+  </si>
+  <si>
+    <t>UV7</t>
+  </si>
+  <si>
+    <t>Module sensibilisation aux risques terroristes, réagir face à une attaque, secourir</t>
+  </si>
+  <si>
+    <t>UV8</t>
+  </si>
+  <si>
+    <t>Module professionnel</t>
+  </si>
+  <si>
+    <t>UV9</t>
+  </si>
+  <si>
+    <t>Module palpation de sécurité et inspection des bagages</t>
+  </si>
+  <si>
+    <t>UV10</t>
+  </si>
+  <si>
+    <t>Module surveillance par moyens électroniques de sécurité</t>
+  </si>
+  <si>
+    <t>UV11</t>
+  </si>
+  <si>
+    <t>Module gestion des risques</t>
+  </si>
+  <si>
+    <t>UV12</t>
+  </si>
+  <si>
+    <t>Module événementiel spécifique</t>
+  </si>
+  <si>
+    <t>UV13</t>
+  </si>
+  <si>
+    <t>Module gestion des situations conflictuelles</t>
+  </si>
+  <si>
+    <t>UV14</t>
+  </si>
+  <si>
+    <t>Module industriel spécifique</t>
+  </si>
+  <si>
+    <t>UV15</t>
+  </si>
+  <si>
+    <t>Mise en situation pratique sur un contexte professionnel tiré au sort par le candidat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,13 +863,35 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF5B6673"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -805,10 +918,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -820,9 +934,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{739EAF5D-6DEC-4933-BEAA-58326FF9FE6A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2353,4 +2471,1134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D364EFAA-EF75-46AB-9449-DE504B7E1DE0}">
+  <sheetPr>
+    <tabColor rgb="FF999999"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
+    <col min="2" max="6" width="14.42578125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TFP_APS_Questions_QCU_Reel_2025.xlsx
+++ b/TFP_APS_Questions_QCU_Reel_2025.xlsx
@@ -8,14 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/Questions_TFP_APS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE45960-1A4E-43D5-BBC8-32E3E1478149}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6BB368B-4990-4FF6-8216-1C185FC29382}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste_Questions" sheetId="1" r:id="rId1"/>
     <sheet name="Liste_UV" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_1x11d5k5io24" localSheetId="2">Feuil1!$A$26</definedName>
+    <definedName name="_2k99lr79hl9i" localSheetId="2">Feuil1!$A$5</definedName>
+    <definedName name="_2utln1nfnqsx" localSheetId="2">Feuil1!$A$2</definedName>
+    <definedName name="_62p8mewzupdh" localSheetId="2">Feuil1!$A$9</definedName>
+    <definedName name="_6sxpqe84lwy" localSheetId="2">Feuil1!$A$27</definedName>
+    <definedName name="_847vco2er5vx" localSheetId="2">Feuil1!#REF!</definedName>
+    <definedName name="_8vd2wc5v9auo" localSheetId="2">Feuil1!$A$12</definedName>
+    <definedName name="_atn6jtpgu1zu" localSheetId="2">Feuil1!$A$6</definedName>
+    <definedName name="_be1fc6ea00hk" localSheetId="2">Feuil1!$A$24</definedName>
+    <definedName name="_e8p5frs5ytai" localSheetId="2">Feuil1!$A$3</definedName>
+    <definedName name="_g70xgby2qf4" localSheetId="2">Feuil1!$A$4</definedName>
+    <definedName name="_g9qmie434sne" localSheetId="2">Feuil1!$A$10</definedName>
+    <definedName name="_i84ik2pub0j3" localSheetId="2">Feuil1!$A$23</definedName>
+    <definedName name="_nyqwx0jkl5qi" localSheetId="2">Feuil1!$A$33</definedName>
+    <definedName name="_tt764b9auzq8" localSheetId="2">Feuil1!$A$8</definedName>
+    <definedName name="_u9haniwxsi9j" localSheetId="2">Feuil1!$A$16</definedName>
+    <definedName name="_wpn81467iw0b" localSheetId="2">Feuil1!$A$7</definedName>
+    <definedName name="_xgrsy6hezdp9" localSheetId="2">Feuil1!$A$25</definedName>
+    <definedName name="_yj4hh6ff2wx9" localSheetId="2">Feuil1!$A$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,8 +55,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="492">
   <si>
     <t>UV</t>
   </si>
@@ -844,13 +888,842 @@
   </si>
   <si>
     <t>Mise en situation pratique sur un contexte professionnel tiré au sort par le candidat</t>
+  </si>
+  <si>
+    <t>1 - Quels sont les 4 comportements pouvant être adoptés théoriquement lors d’un conflit ?|Fuite - Assertivité - Contrainte - Manipulation|Assertivité - Arrogance - Manipulation - Agressivité|Agressivité - Assertivité - Fuite - Manipulation|Agressivité - Fuite - Manipulation - Monologue|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>2 - Quelles sont les précautions à prendre lorsqu’on aborde une personne susceptible de générer un conflit ?|Rester à une dizaine de mètres pour ne pas s’exposer|Garder une distance raisonnable de sécurité|Se munir d’un moyen de défense|S’approcher au plus près pour rassurer la personne|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>3 - Quelles sont les méthodes de réaction aux attaques verbales, menaces et intimidation ?|Répondre sur le même ton - faire du Karaté|Ignorer la personne - Continuer de faire son travail|Répondre sur le même ton - Appeler la police|Garder son calme - Pratiquer le judo verbal pour retourner la situation|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>4 - Quel type de personne peut être plus générateur de conflit ?|Une personne insatisfaite|Une personne timide|Une personne bavarde|Une personne ne parlant pas le français|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>5 - A l’entrée d’un centre commercial, un client vient se plaindre auprès de vous d’un article acheté, qu’il juge défectueux. Que faites-vous ?|Vous lui proposez de faire l’échange vous-même|Vous prenez le temps d’écouter et le dirigez vers le service après-vente|Vous refusez de le renseigner|Vous lui proposez vos services, après votre vacation, car vous connaissez bien les défauts de cet article|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>6 - Je viens de fermer la porte d’entrée au supermarché avant sa fermeture totale. Un client veut rentrer malgré tout et frappe violemment sur la porte vitrée. Que faites-vous ?|Je lui explique que le magasin et les caisses sont fermés|J’ouvre les portes et le laisse rentrer exceptionnellement|Je lui ordonne de quitter les lieux immédiatement et le menace d’appeler les forces de l’ordre|Je l’ignore et continue ma ronde de fermeture|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>7 - Lorsque l’agent observe des personnes en conflit dans son périmètre d’action, il doit ?|Uniquement observer ce qui se passe|Partir le plus vite possible|Se poser en médiateur|Prendre position avant de connaître l’origine du conflit|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>8 - Dans la communication non verbale, que peut signifier le fait de pointer quelqu’un du doigt ?|Une attitude menaçante ou arrogante|Une attitude de séduction|Une attitude apaisante|Une attitude conciliante|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>9 - Durant sa ronde un agent découvre une personne qui fume dans le local des archives, comment procède-t-il pour intervenir sans générer de conflit ?|Lui confisquer ses cigarettes|Retourner au PCS pour renseigner l’incident sur la main courante|Laisser la personne terminer sa cigarette et lui demander de ne pas recommencer|Se présenter, et rappeler la réglementation au contrevenant|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>10 - Que doit faire le chef de poste lorsque vous êtes en conflit avec l’un de vos collègues APS ?|Attendre la dégradation de la situation pour offrir son aide|Contacter immédiatement la hiérarchie et demander des sanctions|Ne pas intervenir pour laisser la dispute s’estomper|Réunir les agents concernés pour résoudre le problème|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>Quels sont les 4 comportements pouvant être adoptés théoriquement lors d’un conflit ?</t>
+  </si>
+  <si>
+    <t>Fuite - Assertivité - Contrainte - Manipulation</t>
+  </si>
+  <si>
+    <t>Assertivité - Arrogance - Manipulation - Agressivité</t>
+  </si>
+  <si>
+    <t>Agressivité - Assertivité - Fuite - Manipulation</t>
+  </si>
+  <si>
+    <t>Agressivité - Fuite - Manipulation - Monologue</t>
+  </si>
+  <si>
+    <t>Quelles sont les précautions à prendre lorsqu’on aborde une personne susceptible de générer un conflit ?</t>
+  </si>
+  <si>
+    <t>Rester à une dizaine de mètres pour ne pas s’exposer</t>
+  </si>
+  <si>
+    <t>Garder une distance raisonnable de sécurité</t>
+  </si>
+  <si>
+    <t>Se munir d’un moyen de défense</t>
+  </si>
+  <si>
+    <t>S’approcher au plus près pour rassurer la personne</t>
+  </si>
+  <si>
+    <t>Quelles sont les méthodes de réaction aux attaques verbales, menaces et intimidation ?</t>
+  </si>
+  <si>
+    <t>Répondre sur le même ton - faire du Karaté</t>
+  </si>
+  <si>
+    <t>Ignorer la personne - Continuer de faire son travail</t>
+  </si>
+  <si>
+    <t>Répondre sur le même ton - Appeler la police</t>
+  </si>
+  <si>
+    <t>Garder son calme - Pratiquer le judo verbal pour retourner la situation</t>
+  </si>
+  <si>
+    <t>Quel type de personne peut être plus générateur de conflit ?</t>
+  </si>
+  <si>
+    <t>Une personne insatisfaite</t>
+  </si>
+  <si>
+    <t>Une personne timide</t>
+  </si>
+  <si>
+    <t>Une personne bavarde</t>
+  </si>
+  <si>
+    <t>Une personne ne parlant pas le français</t>
+  </si>
+  <si>
+    <t>A l’entrée d’un centre commercial, un client vient se plaindre auprès de vous d’un article acheté, qu’il juge défectueux. Que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Vous lui proposez de faire l’échange vous-même</t>
+  </si>
+  <si>
+    <t>Vous prenez le temps d’écouter et le dirigez vers le service après-vente</t>
+  </si>
+  <si>
+    <t>Vous refusez de le renseigner</t>
+  </si>
+  <si>
+    <t>Vous lui proposez vos services, après votre vacation, car vous connaissez bien les défauts de cet article</t>
+  </si>
+  <si>
+    <t>Je viens de fermer la porte d’entrée au supermarché avant sa fermeture totale. Un client veut rentrer malgré tout et frappe violemment sur la porte vitrée. Que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Je lui explique que le magasin et les caisses sont fermés</t>
+  </si>
+  <si>
+    <t>J’ouvre les portes et le laisse rentrer exceptionnellement</t>
+  </si>
+  <si>
+    <t>Je lui ordonne de quitter les lieux immédiatement et le menace d’appeler les forces de l’ordre</t>
+  </si>
+  <si>
+    <t>Je l’ignore et continue ma ronde de fermeture</t>
+  </si>
+  <si>
+    <t>Lorsque l’agent observe des personnes en conflit dans son périmètre d’action, il doit ?</t>
+  </si>
+  <si>
+    <t>Uniquement observer ce qui se passe</t>
+  </si>
+  <si>
+    <t>Partir le plus vite possible</t>
+  </si>
+  <si>
+    <t>Se poser en médiateur</t>
+  </si>
+  <si>
+    <t>Prendre position avant de connaître l’origine du conflit</t>
+  </si>
+  <si>
+    <t>Dans la communication non verbale, que peut signifier le fait de pointer quelqu’un du doigt ?</t>
+  </si>
+  <si>
+    <t>Une attitude menaçante ou arrogante</t>
+  </si>
+  <si>
+    <t>Une attitude de séduction</t>
+  </si>
+  <si>
+    <t>Une attitude apaisante</t>
+  </si>
+  <si>
+    <t>Une attitude conciliante</t>
+  </si>
+  <si>
+    <t>Durant sa ronde un agent découvre une personne qui fume dans le local des archives, comment procède-t-il pour intervenir sans générer de conflit ?</t>
+  </si>
+  <si>
+    <t>Lui confisquer ses cigarettes</t>
+  </si>
+  <si>
+    <t>Retourner au PCS pour renseigner l’incident sur la main courante</t>
+  </si>
+  <si>
+    <t>Laisser la personne terminer sa cigarette et lui demander de ne pas recommencer</t>
+  </si>
+  <si>
+    <t>Se présenter, et rappeler la réglementation au contrevenant</t>
+  </si>
+  <si>
+    <t>Que doit faire le chef de poste lorsque vous êtes en conflit avec l’un de vos collègues APS ?</t>
+  </si>
+  <si>
+    <t>Attendre la dégradation de la situation pour offrir son aide</t>
+  </si>
+  <si>
+    <t>Contacter immédiatement la hiérarchie et demander des sanctions</t>
+  </si>
+  <si>
+    <t>Ne pas intervenir pour laisser la dispute s’estomper</t>
+  </si>
+  <si>
+    <t>Réunir les agents concernés pour résoudre le problème</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Une consigne qui vous explique la procédure pour pénétrer dans un local où des matières toxiques sont entreposées en permanence est :|Une consigne générale|Une consigne particulière|Une consigne ponctuelle|Une consigne spéciale</t>
+    </r>
+  </si>
+  <si>
+    <t>E - Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>2 - Une consigne Client, qui vous prévient que demain un VIP viendra visiter l’établissement est :|Une consigne générale|Une consigne permanente|Une consigne ponctuelle|Un consigne spéciale|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>3 - La consigne affichée à proximité des sorties concernant l’évacuation est :|Une consigne permanente|Une consigne particulière|Une consigne ponctuelle|Un consigne spéciale|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>4 - Quelle est la meilleure façon d’écrire une date sur la main courante papier ?|Le 17-10-30|Le 30/10/17|Le 30/10/2017|L’an 2017-10-30|Lundi 30 octobre 2017</t>
+  </si>
+  <si>
+    <t>5 - Le compte rendu oral ou écrit est un moyen de communication :|Simple et direct avec sa hiérarchie|Qui reste interne à votre entreprise sans conséquence pénale|Il est effectué uniquement à l’aide d’un émetteur/récepteur|Il évite dans tous les cas de rédiger un rapport complet qui serait trop contraignant|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>6 - De quelle couleur est-il préférable d’écrire les interventions liées à l’incendie sur une main courante ?|En noir|En bleu|En rouge|En vert|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>7 - Une main courante doit-elle être ?|Chronologique|Datée|Factuelle|Informatisée ou manuscrite|Toutes les réponses précédentes sont exactes</t>
+  </si>
+  <si>
+    <t>8 - La mise en place et l’utilisation d’une main courante est-elle soumise à une réglementation ?|Oui, c’est la loi du 12 juillet 1983 qui l’impose|Oui, c’est le CSI qui l’impose|Oui, c’est la convention collective qui l’impose|Non, mais elle permet de se protéger en cas de saisie par les autorités|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>9 - Les consignes spéciales de votre société de sécurité doivent-elles avoir un numéro séquentiel de version ?|Oui, pour pouvoir les ranger dans les archives|Oui, pour savoir si c’est la bonne version en vigueur|Non, puisqu’elles sont permanentes|Non, cela ne sert à rien|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>10 - Une main courante informatisée peut-elle être consultable à distance ?|Non, pour éviter tout piratage|Non, les informations doivent rester sur le site|Oui, le responsable pourra voir au fur et à mesure les événements|Oui, lorsque l’on veut la modifier en fin de journée|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>11 - Vous disposez d’une main courante informatisée, devez-vous quand même disposer d’une main courante papier ?|Oui, et on doit remplir les deux|Oui, dans l’éventualité où la main courante informatisée soit hors service|Non, puisqu’on peut tout imprimer plus tard|Non, cela ne sert à rien|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>12 - Une main courante a comme objectif :|De noter uniquement les interventions de la vacation|De noter uniquement les problèmes techniques|De transmettre uniquement des consignes|De relater tous les événements liés à la sécurité lors de la vacation|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>13 - Le compte rendu écrit est un moyen :|Qui constitue une preuve irréfutable|De signaler un fait circonstancié urgent et important|De noter sur un document brouillon avant de le rédiger au propre|De contrôle du travail effectué par les agents|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <t>14 - Concernant les rondes, que doit-on notifier sur la main courante ?|Le nom de l’agent effectuant la ronde|L’heure de retour de ronde|Les anomalies constatées|Les mesures prises en cas d’anomalie|Toutes les réponses sont bonnes</t>
+  </si>
+  <si>
+    <t>15 - Un rapport circonstancié doit :|Indiquer l’ensemble des informations de l’incident|Uniquement indiquer les conséquences de l’incident|Uniquement indiquer les circonstances de l’incident|Proposer les solutions afin d’éviter que l’incident ne se reproduise|Aucune des autres réponses</t>
+  </si>
+  <si>
+    <r>
+      <t>16 - De quelle couleur est-il préférable d’écrire les événements quotidiens sur une main courante ?|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>En noir|En jaune|En rouge|En vert|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <t>Une consigne qui vous explique la procédure pour pénétrer dans un local où des matières toxiques sont entreposées en permanence est :</t>
+  </si>
+  <si>
+    <t>Une consigne générale</t>
+  </si>
+  <si>
+    <t>Une consigne particulière</t>
+  </si>
+  <si>
+    <t>Une consigne ponctuelle</t>
+  </si>
+  <si>
+    <t>Une consigne spéciale</t>
+  </si>
+  <si>
+    <t>Une consigne Client, qui vous prévient que demain un VIP viendra visiter l’établissement est :</t>
+  </si>
+  <si>
+    <t>Une consigne permanente</t>
+  </si>
+  <si>
+    <t>Un consigne spéciale</t>
+  </si>
+  <si>
+    <t>La consigne affichée à proximité des sorties concernant l’évacuation est :</t>
+  </si>
+  <si>
+    <t>Quelle est la meilleure façon d’écrire une date sur la main courante papier ?</t>
+  </si>
+  <si>
+    <t>Le 17-10-30</t>
+  </si>
+  <si>
+    <t>Le 30/10/17</t>
+  </si>
+  <si>
+    <t>Le 30/10/2017</t>
+  </si>
+  <si>
+    <t>L’an 2017-10-30</t>
+  </si>
+  <si>
+    <t>Lundi 30 octobre 2017</t>
+  </si>
+  <si>
+    <t>Le compte rendu oral ou écrit est un moyen de communication :</t>
+  </si>
+  <si>
+    <t>Simple et direct avec sa hiérarchie</t>
+  </si>
+  <si>
+    <t>Qui reste interne à votre entreprise sans conséquence pénale</t>
+  </si>
+  <si>
+    <t>Il est effectué uniquement à l’aide d’un émetteur/récepteur</t>
+  </si>
+  <si>
+    <t>Il évite dans tous les cas de rédiger un rapport complet qui serait trop contraignant</t>
+  </si>
+  <si>
+    <t>De quelle couleur est-il préférable d’écrire les interventions liées à l’incendie sur une main courante ?</t>
+  </si>
+  <si>
+    <t>En noir</t>
+  </si>
+  <si>
+    <t>En bleu</t>
+  </si>
+  <si>
+    <t>En rouge</t>
+  </si>
+  <si>
+    <t>En vert</t>
+  </si>
+  <si>
+    <t>Une main courante doit-elle être ?</t>
+  </si>
+  <si>
+    <t>Chronologique</t>
+  </si>
+  <si>
+    <t>Datée</t>
+  </si>
+  <si>
+    <t>Factuelle</t>
+  </si>
+  <si>
+    <t>Informatisée ou manuscrite</t>
+  </si>
+  <si>
+    <t>Toutes les réponses précédentes sont exactes</t>
+  </si>
+  <si>
+    <t>La mise en place et l’utilisation d’une main courante est-elle soumise à une réglementation ?</t>
+  </si>
+  <si>
+    <t>Oui, c’est la loi du 12 juillet 1983 qui l’impose</t>
+  </si>
+  <si>
+    <t>Oui, c’est le CSI qui l’impose</t>
+  </si>
+  <si>
+    <t>Oui, c’est la convention collective qui l’impose</t>
+  </si>
+  <si>
+    <t>Non, mais elle permet de se protéger en cas de saisie par les autorités</t>
+  </si>
+  <si>
+    <t>Les consignes spéciales de votre société de sécurité doivent-elles avoir un numéro séquentiel de version ?</t>
+  </si>
+  <si>
+    <t>Oui, pour pouvoir les ranger dans les archives</t>
+  </si>
+  <si>
+    <t>Oui, pour savoir si c’est la bonne version en vigueur</t>
+  </si>
+  <si>
+    <t>Non, puisqu’elles sont permanentes</t>
+  </si>
+  <si>
+    <t>Non, cela ne sert à rien</t>
+  </si>
+  <si>
+    <t>Une main courante informatisée peut-elle être consultable à distance ?</t>
+  </si>
+  <si>
+    <t>Non, pour éviter tout piratage</t>
+  </si>
+  <si>
+    <t>Non, les informations doivent rester sur le site</t>
+  </si>
+  <si>
+    <t>Oui, le responsable pourra voir au fur et à mesure les événements</t>
+  </si>
+  <si>
+    <t>Oui, lorsque l’on veut la modifier en fin de journée</t>
+  </si>
+  <si>
+    <t>Vous disposez d’une main courante informatisée, devez-vous quand même disposer d’une main courante papier ?</t>
+  </si>
+  <si>
+    <t>Oui, et on doit remplir les deux</t>
+  </si>
+  <si>
+    <t>Oui, dans l’éventualité où la main courante informatisée soit hors service</t>
+  </si>
+  <si>
+    <t>Non, puisqu’on peut tout imprimer plus tard</t>
+  </si>
+  <si>
+    <t>Une main courante a comme objectif :</t>
+  </si>
+  <si>
+    <t>De noter uniquement les interventions de la vacation</t>
+  </si>
+  <si>
+    <t>De noter uniquement les problèmes techniques</t>
+  </si>
+  <si>
+    <t>De transmettre uniquement des consignes</t>
+  </si>
+  <si>
+    <t>De relater tous les événements liés à la sécurité lors de la vacation</t>
+  </si>
+  <si>
+    <t>Le compte rendu écrit est un moyen :</t>
+  </si>
+  <si>
+    <t>Qui constitue une preuve irréfutable</t>
+  </si>
+  <si>
+    <t>De signaler un fait circonstancié urgent et important</t>
+  </si>
+  <si>
+    <t>De noter sur un document brouillon avant de le rédiger au propre</t>
+  </si>
+  <si>
+    <t>De contrôle du travail effectué par les agents</t>
+  </si>
+  <si>
+    <t>Concernant les rondes, que doit-on notifier sur la main courante ?</t>
+  </si>
+  <si>
+    <t>Le nom de l’agent effectuant la ronde</t>
+  </si>
+  <si>
+    <t>L’heure de retour de ronde</t>
+  </si>
+  <si>
+    <t>Les anomalies constatées</t>
+  </si>
+  <si>
+    <t>Les mesures prises en cas d’anomalie</t>
+  </si>
+  <si>
+    <t>Toutes les réponses sont bonnes</t>
+  </si>
+  <si>
+    <t>Un rapport circonstancié doit :</t>
+  </si>
+  <si>
+    <t>Indiquer l’ensemble des informations de l’incident</t>
+  </si>
+  <si>
+    <t>Uniquement indiquer les conséquences de l’incident</t>
+  </si>
+  <si>
+    <t>Uniquement indiquer les circonstances de l’incident</t>
+  </si>
+  <si>
+    <t>Proposer les solutions afin d’éviter que l’incident ne se reproduise</t>
+  </si>
+  <si>
+    <t>De quelle couleur est-il préférable d’écrire les événements quotidiens sur une main courante ?</t>
+  </si>
+  <si>
+    <t>En jaune</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 - D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>’après vous, une bonne présentation est-elle nécessaire durant votre service ?|Oui|Non|Cela dépend du poste occupé|Uniquement au contact du public|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 - Une zone de protection volumétrique concerne :|Un objet précis|Une vitrine|Un local|Une clôture|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 - Dans quelle condition un APS peut-il être amené à appréhender un individu ?|L’individu paraît suspect en ressortant du site sans dire “au revoir”|L’individu comment un délit ou un crime sur le site|L’individu refuse d’ouvrir son bagage à l’entrée de l’établissement|L’individu est sur le site pendant les heures d’ouverture et ne respecte pas le règlement intérieur|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4 - Vous êtes agent pré-vol, vous constatez qu’un de vos amis dissimule une bouteille de rhum dans son blouson et quitte le magasin par la sortie sans achats. Quelle est votre réaction ?|Vous ne faites rien car c’est un ami|VOus lui demandez de remettre la bouteille en place discrètement|Vous ne réagissez pas mais en parlerez avec lui après votre travail|Vous prévenez vos collègues pour une appréhension en sortie sans achats|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 - Les acteurs de la sécurité privée doivent en priorité :|Comptabiliser les vols en magasin|Ne pas intervenir sur les accidents et les incendies|Aider la justice et les services de police|Favoriser les délits et les crimes|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6 - Au cours d’une appréhension n arrière-caisse, un individu vous porte un violent coup de poing au visage, vous cassant le nez :|Il n’y a rien à faire, ce sont les risques du métier, vous ferez plus attention la prochaine fois|Vous allez vous faire examiner par un médecin qui vous délivrera un arrêt de travail|Vous lui rendez la pareille étant en état de légitime défense|Vous ne pouvez pas déposer plainte contre la personne, c’est du ressort du magasin pour lequel vous travaillez|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7 - Indiquez une mission entrant dans le cadre d’une ronde de fermeture :|Distribuer le courrier|Contrôler la fermeture des fenêtres|Mettre en action les extincteurs|Arroser les plantes de l’accueil|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8 - Indiquez ce que l’on doit inscrire sur la main courante ?|Les alarmes techniques|Mes impressions en fin de journée|Les noms des agents de sécurité de repos|Les messages personnels|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9 - En ce qui concerne la ronde, un point dit sensible est :|Un point qui en cas d’atteinte pourrait handicaper le bon fonctionnement de l’entreprise|Un point qui a fait l’objet d’une non-conformité relevée lors d’un contrôle du CNAPS|Un point comportant un danger permanent|Un point convoité par les voleurs|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 - Vous êtes agent en arrière caisse dans un magasin, pouvez-vous procéder à l’inspection visuelle des sacs d’achat de personnes déjà passées en caisse ?|Seulement en présence des forces de l’ordre|Oui, si vos consignes le précisent|Oui, comme bon vous semble|Uniquement si le plan Vigipirate est déclenché|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11 - Quels sont les différents moyens de communication mis à disposition d’un agent de sécurité ?|Les moyens de liaison|Les moyens d'alarme|Les moyens de protection|Les moyens télépathiques|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12 - Face à une réquisition légale ?|On peut refuser de l’exécuter s’il n’y a pas la présence d’un sceau du service de police ou de gendarmerie|On peut refuser de l’exécuter si on n’est pas en fonction d’agent de sécurité|On peut refuser de l’exécuter sans motif légitime|On ne peut sans motif légitime refuser de l’exécuter sous peine d’être poursuivi|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <t>D’après vous, une bonne présentation est-elle nécessaire durant votre service ?</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Cela dépend du poste occupé</t>
+  </si>
+  <si>
+    <t>Uniquement au contact du public</t>
+  </si>
+  <si>
+    <t>Une zone de protection volumétrique concerne :</t>
+  </si>
+  <si>
+    <t>Un objet précis</t>
+  </si>
+  <si>
+    <t>Une vitrine</t>
+  </si>
+  <si>
+    <t>Un local</t>
+  </si>
+  <si>
+    <t>Une clôture</t>
+  </si>
+  <si>
+    <t>Dans quelle condition un APS peut-il être amené à appréhender un individu ?</t>
+  </si>
+  <si>
+    <t>L’individu paraît suspect en ressortant du site sans dire “au revoir”</t>
+  </si>
+  <si>
+    <t>L’individu comment un délit ou un crime sur le site</t>
+  </si>
+  <si>
+    <t>L’individu refuse d’ouvrir son bagage à l’entrée de l’établissement</t>
+  </si>
+  <si>
+    <t>L’individu est sur le site pendant les heures d’ouverture et ne respecte pas le règlement intérieur</t>
+  </si>
+  <si>
+    <t>Vous êtes agent pré-vol, vous constatez qu’un de vos amis dissimule une bouteille de rhum dans son blouson et quitte le magasin par la sortie sans achats. Quelle est votre réaction ?</t>
+  </si>
+  <si>
+    <t>Vous ne faites rien car c’est un ami</t>
+  </si>
+  <si>
+    <t>VOus lui demandez de remettre la bouteille en place discrètement</t>
+  </si>
+  <si>
+    <t>Vous ne réagissez pas mais en parlerez avec lui après votre travail</t>
+  </si>
+  <si>
+    <t>Vous prévenez vos collègues pour une appréhension en sortie sans achats</t>
+  </si>
+  <si>
+    <t>Les acteurs de la sécurité privée doivent en priorité :</t>
+  </si>
+  <si>
+    <t>Comptabiliser les vols en magasin</t>
+  </si>
+  <si>
+    <t>Ne pas intervenir sur les accidents et les incendies</t>
+  </si>
+  <si>
+    <t>Aider la justice et les services de police</t>
+  </si>
+  <si>
+    <t>Favoriser les délits et les crimes</t>
+  </si>
+  <si>
+    <t>Au cours d’une appréhension n arrière-caisse, un individu vous porte un violent coup de poing au visage, vous cassant le nez :</t>
+  </si>
+  <si>
+    <t>Il n’y a rien à faire, ce sont les risques du métier, vous ferez plus attention la prochaine fois</t>
+  </si>
+  <si>
+    <t>Vous allez vous faire examiner par un médecin qui vous délivrera un arrêt de travail</t>
+  </si>
+  <si>
+    <t>Vous lui rendez la pareille étant en état de légitime défense</t>
+  </si>
+  <si>
+    <t>Vous ne pouvez pas déposer plainte contre la personne, c’est du ressort du magasin pour lequel vous travaillez</t>
+  </si>
+  <si>
+    <t>Indiquez une mission entrant dans le cadre d’une ronde de fermeture :</t>
+  </si>
+  <si>
+    <t>Distribuer le courrier</t>
+  </si>
+  <si>
+    <t>Contrôler la fermeture des fenêtres</t>
+  </si>
+  <si>
+    <t>Mettre en action les extincteurs</t>
+  </si>
+  <si>
+    <t>Arroser les plantes de l’accueil</t>
+  </si>
+  <si>
+    <t>Indiquez ce que l’on doit inscrire sur la main courante ?</t>
+  </si>
+  <si>
+    <t>Les alarmes techniques</t>
+  </si>
+  <si>
+    <t>Mes impressions en fin de journée</t>
+  </si>
+  <si>
+    <t>Les noms des agents de sécurité de repos</t>
+  </si>
+  <si>
+    <t>Les messages personnels</t>
+  </si>
+  <si>
+    <t>En ce qui concerne la ronde, un point dit sensible est :</t>
+  </si>
+  <si>
+    <t>Un point qui en cas d’atteinte pourrait handicaper le bon fonctionnement de l’entreprise</t>
+  </si>
+  <si>
+    <t>Un point qui a fait l’objet d’une non-conformité relevée lors d’un contrôle du CNAPS</t>
+  </si>
+  <si>
+    <t>Un point comportant un danger permanent</t>
+  </si>
+  <si>
+    <t>Un point convoité par les voleurs</t>
+  </si>
+  <si>
+    <t>Vous êtes agent en arrière caisse dans un magasin, pouvez-vous procéder à l’inspection visuelle des sacs d’achat de personnes déjà passées en caisse ?</t>
+  </si>
+  <si>
+    <t>Seulement en présence des forces de l’ordre</t>
+  </si>
+  <si>
+    <t>Oui, si vos consignes le précisent</t>
+  </si>
+  <si>
+    <t>Oui, comme bon vous semble</t>
+  </si>
+  <si>
+    <t>Uniquement si le plan Vigipirate est déclenché</t>
+  </si>
+  <si>
+    <t>Quels sont les différents moyens de communication mis à disposition d’un agent de sécurité ?</t>
+  </si>
+  <si>
+    <t>Les moyens de liaison</t>
+  </si>
+  <si>
+    <t>Les moyens d'alarme</t>
+  </si>
+  <si>
+    <t>Les moyens de protection</t>
+  </si>
+  <si>
+    <t>Les moyens télépathiques</t>
+  </si>
+  <si>
+    <t>Face à une réquisition légale ?</t>
+  </si>
+  <si>
+    <t>On peut refuser de l’exécuter s’il n’y a pas la présence d’un sceau du service de police ou de gendarmerie</t>
+  </si>
+  <si>
+    <t>On peut refuser de l’exécuter si on n’est pas en fonction d’agent de sécurité</t>
+  </si>
+  <si>
+    <t>On peut refuser de l’exécuter sans motif légitime</t>
+  </si>
+  <si>
+    <t>On ne peut sans motif légitime refuser de l’exécuter sous peine d’être poursuivi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,8 +1752,38 @@
       <color rgb="FF5B6673"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -891,6 +1794,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -922,21 +1837,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,6 +1888,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>48376</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F00D2B-4036-E83E-B4CA-09C9210D2B3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15992475" y="9944100"/>
+          <a:ext cx="5382376" cy="276264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285289</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7D30C5-D40D-772C-9070-BF9FBF67ABAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16097250" y="7981950"/>
+          <a:ext cx="3685714" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>543481</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>85769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0634273F-B9AF-2D23-8CD4-5E346CEFB8CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16059150" y="13106400"/>
+          <a:ext cx="3982006" cy="314369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1240,23 +2312,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="4" customWidth="1"/>
-    <col min="4" max="8" width="32.140625" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="8" width="32.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="10"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1280,1196 +2356,2300 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="10" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2485,136 +4665,136 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
-    <col min="2" max="6" width="14.42578125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="6"/>
+    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
+    <col min="2" max="6" width="14.42578125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3601,4 +5781,1281 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18582157-25E0-434E-AB6B-01FE38A60B37}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1">
+        <f>FIND(" - ",A1)</f>
+        <v>2</v>
+      </c>
+      <c r="C1" t="str">
+        <f>RIGHT(A1, LEN(A1)-(B1+2))</f>
+        <v>Quels sont les 4 comportements pouvant être adoptés théoriquement lors d’un conflit ?|Fuite - Assertivité - Contrainte - Manipulation|Assertivité - Arrogance - Manipulation - Agressivité|Agressivité - Assertivité - Fuite - Manipulation|Agressivité - Fuite - Manipulation - Monologue|Aucune des autres réponses</v>
+      </c>
+      <c r="D1" t="str" cm="1">
+        <f t="array" ref="D1:I1">_xlfn.TEXTSPLIT(C1,"|")</f>
+        <v>Quels sont les 4 comportements pouvant être adoptés théoriquement lors d’un conflit ?</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Fuite - Assertivité - Contrainte - Manipulation</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Assertivité - Arrogance - Manipulation - Agressivité</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Agressivité - Assertivité - Fuite - Manipulation</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Agressivité - Fuite - Manipulation - Monologue</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2">
+        <f>FIND(" - ",A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(A2, LEN(A2)-(B2+2))</f>
+        <v>Quelles sont les précautions à prendre lorsqu’on aborde une personne susceptible de générer un conflit ?|Rester à une dizaine de mètres pour ne pas s’exposer|Garder une distance raisonnable de sécurité|Se munir d’un moyen de défense|S’approcher au plus près pour rassurer la personne|Aucune des autres réponses</v>
+      </c>
+      <c r="D2" t="str" cm="1">
+        <f t="array" ref="D2:I2">_xlfn.TEXTSPLIT(C2,"|")</f>
+        <v>Quelles sont les précautions à prendre lorsqu’on aborde une personne susceptible de générer un conflit ?</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Rester à une dizaine de mètres pour ne pas s’exposer</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Garder une distance raisonnable de sécurité</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Se munir d’un moyen de défense</v>
+      </c>
+      <c r="H2" t="str">
+        <v>S’approcher au plus près pour rassurer la personne</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3">
+        <f>FIND(" - ",A3)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f>RIGHT(A3, LEN(A3)-(B3+2))</f>
+        <v>Quelles sont les méthodes de réaction aux attaques verbales, menaces et intimidation ?|Répondre sur le même ton - faire du Karaté|Ignorer la personne - Continuer de faire son travail|Répondre sur le même ton - Appeler la police|Garder son calme - Pratiquer le judo verbal pour retourner la situation|Aucune des autres réponses</v>
+      </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3:I3">_xlfn.TEXTSPLIT(C3,"|")</f>
+        <v>Quelles sont les méthodes de réaction aux attaques verbales, menaces et intimidation ?</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Répondre sur le même ton - faire du Karaté</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Ignorer la personne - Continuer de faire son travail</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Répondre sur le même ton - Appeler la police</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Garder son calme - Pratiquer le judo verbal pour retourner la situation</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4">
+        <f>FIND(" - ",A4)</f>
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f>RIGHT(A4, LEN(A4)-(B4+2))</f>
+        <v>Quel type de personne peut être plus générateur de conflit ?|Une personne insatisfaite|Une personne timide|Une personne bavarde|Une personne ne parlant pas le français|Aucune des autres réponses</v>
+      </c>
+      <c r="D4" t="str" cm="1">
+        <f t="array" ref="D4:I4">_xlfn.TEXTSPLIT(C4,"|")</f>
+        <v>Quel type de personne peut être plus générateur de conflit ?</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Une personne insatisfaite</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Une personne timide</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Une personne bavarde</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Une personne ne parlant pas le français</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5">
+        <f>FIND(" - ",A5)</f>
+        <v>2</v>
+      </c>
+      <c r="C5" t="str">
+        <f>RIGHT(A5, LEN(A5)-(B5+2))</f>
+        <v>A l’entrée d’un centre commercial, un client vient se plaindre auprès de vous d’un article acheté, qu’il juge défectueux. Que faites-vous ?|Vous lui proposez de faire l’échange vous-même|Vous prenez le temps d’écouter et le dirigez vers le service après-vente|Vous refusez de le renseigner|Vous lui proposez vos services, après votre vacation, car vous connaissez bien les défauts de cet article|Aucune des autres réponses</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" ref="D5:I5">_xlfn.TEXTSPLIT(C5,"|")</f>
+        <v>A l’entrée d’un centre commercial, un client vient se plaindre auprès de vous d’un article acheté, qu’il juge défectueux. Que faites-vous ?</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Vous lui proposez de faire l’échange vous-même</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Vous prenez le temps d’écouter et le dirigez vers le service après-vente</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Vous refusez de le renseigner</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Vous lui proposez vos services, après votre vacation, car vous connaissez bien les défauts de cet article</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6">
+        <f>FIND(" - ",A6)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <f>RIGHT(A6, LEN(A6)-(B6+2))</f>
+        <v>Je viens de fermer la porte d’entrée au supermarché avant sa fermeture totale. Un client veut rentrer malgré tout et frappe violemment sur la porte vitrée. Que faites-vous ?|Je lui explique que le magasin et les caisses sont fermés|J’ouvre les portes et le laisse rentrer exceptionnellement|Je lui ordonne de quitter les lieux immédiatement et le menace d’appeler les forces de l’ordre|Je l’ignore et continue ma ronde de fermeture|Aucune des autres réponses</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" ref="D6:I6">_xlfn.TEXTSPLIT(C6,"|")</f>
+        <v>Je viens de fermer la porte d’entrée au supermarché avant sa fermeture totale. Un client veut rentrer malgré tout et frappe violemment sur la porte vitrée. Que faites-vous ?</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Je lui explique que le magasin et les caisses sont fermés</v>
+      </c>
+      <c r="F6" t="str">
+        <v>J’ouvre les portes et le laisse rentrer exceptionnellement</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Je lui ordonne de quitter les lieux immédiatement et le menace d’appeler les forces de l’ordre</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Je l’ignore et continue ma ronde de fermeture</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7">
+        <f>FIND(" - ",A7)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <f>RIGHT(A7, LEN(A7)-(B7+2))</f>
+        <v>Lorsque l’agent observe des personnes en conflit dans son périmètre d’action, il doit ?|Uniquement observer ce qui se passe|Partir le plus vite possible|Se poser en médiateur|Prendre position avant de connaître l’origine du conflit|Aucune des autres réponses</v>
+      </c>
+      <c r="D7" t="str" cm="1">
+        <f t="array" ref="D7:I7">_xlfn.TEXTSPLIT(C7,"|")</f>
+        <v>Lorsque l’agent observe des personnes en conflit dans son périmètre d’action, il doit ?</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Uniquement observer ce qui se passe</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Partir le plus vite possible</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Se poser en médiateur</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Prendre position avant de connaître l’origine du conflit</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8">
+        <f>FIND(" - ",A8)</f>
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <f>RIGHT(A8, LEN(A8)-(B8+2))</f>
+        <v>Dans la communication non verbale, que peut signifier le fait de pointer quelqu’un du doigt ?|Une attitude menaçante ou arrogante|Une attitude de séduction|Une attitude apaisante|Une attitude conciliante|Aucune des autres réponses</v>
+      </c>
+      <c r="D8" t="str" cm="1">
+        <f t="array" ref="D8:I8">_xlfn.TEXTSPLIT(C8,"|")</f>
+        <v>Dans la communication non verbale, que peut signifier le fait de pointer quelqu’un du doigt ?</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Une attitude menaçante ou arrogante</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Une attitude de séduction</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Une attitude apaisante</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Une attitude conciliante</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9">
+        <f>FIND(" - ",A9)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <f>RIGHT(A9, LEN(A9)-(B9+2))</f>
+        <v>Durant sa ronde un agent découvre une personne qui fume dans le local des archives, comment procède-t-il pour intervenir sans générer de conflit ?|Lui confisquer ses cigarettes|Retourner au PCS pour renseigner l’incident sur la main courante|Laisser la personne terminer sa cigarette et lui demander de ne pas recommencer|Se présenter, et rappeler la réglementation au contrevenant|Aucune des autres réponses</v>
+      </c>
+      <c r="D9" t="str" cm="1">
+        <f t="array" ref="D9:I9">_xlfn.TEXTSPLIT(C9,"|")</f>
+        <v>Durant sa ronde un agent découvre une personne qui fume dans le local des archives, comment procède-t-il pour intervenir sans générer de conflit ?</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Lui confisquer ses cigarettes</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Retourner au PCS pour renseigner l’incident sur la main courante</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Laisser la personne terminer sa cigarette et lui demander de ne pas recommencer</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Se présenter, et rappeler la réglementation au contrevenant</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10">
+        <f>FIND(" - ",A10)</f>
+        <v>3</v>
+      </c>
+      <c r="C10" t="str">
+        <f>RIGHT(A10, LEN(A10)-(B10+2))</f>
+        <v>Que doit faire le chef de poste lorsque vous êtes en conflit avec l’un de vos collègues APS ?|Attendre la dégradation de la situation pour offrir son aide|Contacter immédiatement la hiérarchie et demander des sanctions|Ne pas intervenir pour laisser la dispute s’estomper|Réunir les agents concernés pour résoudre le problème|Aucune des autres réponses</v>
+      </c>
+      <c r="D10" t="str" cm="1">
+        <f t="array" ref="D10:I10">_xlfn.TEXTSPLIT(C10,"|")</f>
+        <v>Que doit faire le chef de poste lorsque vous êtes en conflit avec l’un de vos collègues APS ?</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Attendre la dégradation de la situation pour offrir son aide</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Contacter immédiatement la hiérarchie et demander des sanctions</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Ne pas intervenir pour laisser la dispute s’estomper</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Réunir les agents concernés pour résoudre le problème</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="e">
+        <f t="shared" ref="B11:B41" si="0">FIND(" - ",A11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" ref="C11:C28" si="1">RIGHT(A11, LEN(A11)-(B11+2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" t="e" cm="1">
+        <f t="array" ref="D11">_xlfn.TEXTSPLIT(C11,"|")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>Une consigne qui vous explique la procédure pour pénétrer dans un local où des matières toxiques sont entreposées en permanence est :|Une consigne générale|Une consigne particulière|Une consigne ponctuelle|Une consigne spéciale</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" ref="D12:H12">_xlfn.TEXTSPLIT(C12,"|")</f>
+        <v>Une consigne qui vous explique la procédure pour pénétrer dans un local où des matières toxiques sont entreposées en permanence est :</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Une consigne générale</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Une consigne particulière</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Une consigne ponctuelle</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Une consigne spéciale</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>Aucune des autres réponses</v>
+      </c>
+      <c r="D13" t="str" cm="1">
+        <f t="array" ref="D13">_xlfn.TEXTSPLIT(C13,"|")</f>
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>Une consigne Client, qui vous prévient que demain un VIP viendra visiter l’établissement est :|Une consigne générale|Une consigne permanente|Une consigne ponctuelle|Un consigne spéciale|Aucune des autres réponses</v>
+      </c>
+      <c r="D14" t="str" cm="1">
+        <f t="array" ref="D14:I14">_xlfn.TEXTSPLIT(C14,"|")</f>
+        <v>Une consigne Client, qui vous prévient que demain un VIP viendra visiter l’établissement est :</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Une consigne générale</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Une consigne permanente</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Une consigne ponctuelle</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Un consigne spéciale</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>La consigne affichée à proximité des sorties concernant l’évacuation est :|Une consigne permanente|Une consigne particulière|Une consigne ponctuelle|Un consigne spéciale|Aucune des autres réponses</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" ref="D15:I15">_xlfn.TEXTSPLIT(C15,"|")</f>
+        <v>La consigne affichée à proximité des sorties concernant l’évacuation est :</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Une consigne permanente</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Une consigne particulière</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Une consigne ponctuelle</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Un consigne spéciale</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>Quelle est la meilleure façon d’écrire une date sur la main courante papier ?|Le 17-10-30|Le 30/10/17|Le 30/10/2017|L’an 2017-10-30|Lundi 30 octobre 2017</v>
+      </c>
+      <c r="D16" t="str" cm="1">
+        <f t="array" ref="D16:I16">_xlfn.TEXTSPLIT(C16,"|")</f>
+        <v>Quelle est la meilleure façon d’écrire une date sur la main courante papier ?</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Le 17-10-30</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Le 30/10/17</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Le 30/10/2017</v>
+      </c>
+      <c r="H16" t="str">
+        <v>L’an 2017-10-30</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Lundi 30 octobre 2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>Le compte rendu oral ou écrit est un moyen de communication :|Simple et direct avec sa hiérarchie|Qui reste interne à votre entreprise sans conséquence pénale|Il est effectué uniquement à l’aide d’un émetteur/récepteur|Il évite dans tous les cas de rédiger un rapport complet qui serait trop contraignant|Aucune des autres réponses</v>
+      </c>
+      <c r="D17" t="str" cm="1">
+        <f t="array" ref="D17:I17">_xlfn.TEXTSPLIT(C17,"|")</f>
+        <v>Le compte rendu oral ou écrit est un moyen de communication :</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Simple et direct avec sa hiérarchie</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Qui reste interne à votre entreprise sans conséquence pénale</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Il est effectué uniquement à l’aide d’un émetteur/récepteur</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Il évite dans tous les cas de rédiger un rapport complet qui serait trop contraignant</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>De quelle couleur est-il préférable d’écrire les interventions liées à l’incendie sur une main courante ?|En noir|En bleu|En rouge|En vert|Aucune des autres réponses</v>
+      </c>
+      <c r="D18" t="str" cm="1">
+        <f t="array" ref="D18:I18">_xlfn.TEXTSPLIT(C18,"|")</f>
+        <v>De quelle couleur est-il préférable d’écrire les interventions liées à l’incendie sur une main courante ?</v>
+      </c>
+      <c r="E18" t="str">
+        <v>En noir</v>
+      </c>
+      <c r="F18" t="str">
+        <v>En bleu</v>
+      </c>
+      <c r="G18" t="str">
+        <v>En rouge</v>
+      </c>
+      <c r="H18" t="str">
+        <v>En vert</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>Une main courante doit-elle être ?|Chronologique|Datée|Factuelle|Informatisée ou manuscrite|Toutes les réponses précédentes sont exactes</v>
+      </c>
+      <c r="D19" t="str" cm="1">
+        <f t="array" ref="D19:I19">_xlfn.TEXTSPLIT(C19,"|")</f>
+        <v>Une main courante doit-elle être ?</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Chronologique</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Datée</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Factuelle</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Informatisée ou manuscrite</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Toutes les réponses précédentes sont exactes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>La mise en place et l’utilisation d’une main courante est-elle soumise à une réglementation ?|Oui, c’est la loi du 12 juillet 1983 qui l’impose|Oui, c’est le CSI qui l’impose|Oui, c’est la convention collective qui l’impose|Non, mais elle permet de se protéger en cas de saisie par les autorités|Aucune des autres réponses</v>
+      </c>
+      <c r="D20" t="str" cm="1">
+        <f t="array" ref="D20:I20">_xlfn.TEXTSPLIT(C20,"|")</f>
+        <v>La mise en place et l’utilisation d’une main courante est-elle soumise à une réglementation ?</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Oui, c’est la loi du 12 juillet 1983 qui l’impose</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Oui, c’est le CSI qui l’impose</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Oui, c’est la convention collective qui l’impose</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Non, mais elle permet de se protéger en cas de saisie par les autorités</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>Les consignes spéciales de votre société de sécurité doivent-elles avoir un numéro séquentiel de version ?|Oui, pour pouvoir les ranger dans les archives|Oui, pour savoir si c’est la bonne version en vigueur|Non, puisqu’elles sont permanentes|Non, cela ne sert à rien|Aucune des autres réponses</v>
+      </c>
+      <c r="D21" t="str" cm="1">
+        <f t="array" ref="D21:I21">_xlfn.TEXTSPLIT(C21,"|")</f>
+        <v>Les consignes spéciales de votre société de sécurité doivent-elles avoir un numéro séquentiel de version ?</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Oui, pour pouvoir les ranger dans les archives</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Oui, pour savoir si c’est la bonne version en vigueur</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Non, puisqu’elles sont permanentes</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Non, cela ne sert à rien</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>Une main courante informatisée peut-elle être consultable à distance ?|Non, pour éviter tout piratage|Non, les informations doivent rester sur le site|Oui, le responsable pourra voir au fur et à mesure les événements|Oui, lorsque l’on veut la modifier en fin de journée|Aucune des autres réponses</v>
+      </c>
+      <c r="D22" t="str" cm="1">
+        <f t="array" ref="D22:I22">_xlfn.TEXTSPLIT(C22,"|")</f>
+        <v>Une main courante informatisée peut-elle être consultable à distance ?</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Non, pour éviter tout piratage</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Non, les informations doivent rester sur le site</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Oui, le responsable pourra voir au fur et à mesure les événements</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Oui, lorsque l’on veut la modifier en fin de journée</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>Vous disposez d’une main courante informatisée, devez-vous quand même disposer d’une main courante papier ?|Oui, et on doit remplir les deux|Oui, dans l’éventualité où la main courante informatisée soit hors service|Non, puisqu’on peut tout imprimer plus tard|Non, cela ne sert à rien|Aucune des autres réponses</v>
+      </c>
+      <c r="D23" t="str" cm="1">
+        <f t="array" ref="D23:I23">_xlfn.TEXTSPLIT(C23,"|")</f>
+        <v>Vous disposez d’une main courante informatisée, devez-vous quand même disposer d’une main courante papier ?</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Oui, et on doit remplir les deux</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Oui, dans l’éventualité où la main courante informatisée soit hors service</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Non, puisqu’on peut tout imprimer plus tard</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Non, cela ne sert à rien</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>Une main courante a comme objectif :|De noter uniquement les interventions de la vacation|De noter uniquement les problèmes techniques|De transmettre uniquement des consignes|De relater tous les événements liés à la sécurité lors de la vacation|Aucune des autres réponses</v>
+      </c>
+      <c r="D24" t="str" cm="1">
+        <f t="array" ref="D24:I24">_xlfn.TEXTSPLIT(C24,"|")</f>
+        <v>Une main courante a comme objectif :</v>
+      </c>
+      <c r="E24" t="str">
+        <v>De noter uniquement les interventions de la vacation</v>
+      </c>
+      <c r="F24" t="str">
+        <v>De noter uniquement les problèmes techniques</v>
+      </c>
+      <c r="G24" t="str">
+        <v>De transmettre uniquement des consignes</v>
+      </c>
+      <c r="H24" t="str">
+        <v>De relater tous les événements liés à la sécurité lors de la vacation</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>Le compte rendu écrit est un moyen :|Qui constitue une preuve irréfutable|De signaler un fait circonstancié urgent et important|De noter sur un document brouillon avant de le rédiger au propre|De contrôle du travail effectué par les agents|Aucune des autres réponses</v>
+      </c>
+      <c r="D25" t="str" cm="1">
+        <f t="array" ref="D25:I25">_xlfn.TEXTSPLIT(C25,"|")</f>
+        <v>Le compte rendu écrit est un moyen :</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Qui constitue une preuve irréfutable</v>
+      </c>
+      <c r="F25" t="str">
+        <v>De signaler un fait circonstancié urgent et important</v>
+      </c>
+      <c r="G25" t="str">
+        <v>De noter sur un document brouillon avant de le rédiger au propre</v>
+      </c>
+      <c r="H25" t="str">
+        <v>De contrôle du travail effectué par les agents</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>Concernant les rondes, que doit-on notifier sur la main courante ?|Le nom de l’agent effectuant la ronde|L’heure de retour de ronde|Les anomalies constatées|Les mesures prises en cas d’anomalie|Toutes les réponses sont bonnes</v>
+      </c>
+      <c r="D26" t="str" cm="1">
+        <f t="array" ref="D26:I26">_xlfn.TEXTSPLIT(C26,"|")</f>
+        <v>Concernant les rondes, que doit-on notifier sur la main courante ?</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Le nom de l’agent effectuant la ronde</v>
+      </c>
+      <c r="F26" t="str">
+        <v>L’heure de retour de ronde</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Les anomalies constatées</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Les mesures prises en cas d’anomalie</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Toutes les réponses sont bonnes</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>Un rapport circonstancié doit :|Indiquer l’ensemble des informations de l’incident|Uniquement indiquer les conséquences de l’incident|Uniquement indiquer les circonstances de l’incident|Proposer les solutions afin d’éviter que l’incident ne se reproduise|Aucune des autres réponses</v>
+      </c>
+      <c r="D27" t="str" cm="1">
+        <f t="array" ref="D27:I27">_xlfn.TEXTSPLIT(C27,"|")</f>
+        <v>Un rapport circonstancié doit :</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Indiquer l’ensemble des informations de l’incident</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Uniquement indiquer les conséquences de l’incident</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Uniquement indiquer les circonstances de l’incident</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Proposer les solutions afin d’éviter que l’incident ne se reproduise</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>De quelle couleur est-il préférable d’écrire les événements quotidiens sur une main courante ?|En noir|En jaune|En rouge|En vert|Aucune des autres réponses</v>
+      </c>
+      <c r="D28" t="str" cm="1">
+        <f t="array" ref="D28:I28">_xlfn.TEXTSPLIT(C28,"|")</f>
+        <v>De quelle couleur est-il préférable d’écrire les événements quotidiens sur une main courante ?</v>
+      </c>
+      <c r="E28" t="str">
+        <v>En noir</v>
+      </c>
+      <c r="F28" t="str">
+        <v>En jaune</v>
+      </c>
+      <c r="G28" t="str">
+        <v>En rouge</v>
+      </c>
+      <c r="H28" t="str">
+        <v>En vert</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" ref="C29:C41" si="2">RIGHT(A29, LEN(A29)-(B29+2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" t="e" cm="1">
+        <f t="array" ref="D29">_xlfn.TEXTSPLIT(C29,"|")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="2"/>
+        <v>D’après vous, une bonne présentation est-elle nécessaire durant votre service ?|Oui|Non|Cela dépend du poste occupé|Uniquement au contact du public|Aucune des autres réponses</v>
+      </c>
+      <c r="D30" t="str" cm="1">
+        <f t="array" ref="D30:I30">_xlfn.TEXTSPLIT(C30,"|")</f>
+        <v>D’après vous, une bonne présentation est-elle nécessaire durant votre service ?</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Oui</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Non</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Cela dépend du poste occupé</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Uniquement au contact du public</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="2"/>
+        <v>Une zone de protection volumétrique concerne :|Un objet précis|Une vitrine|Un local|Une clôture|Aucune des autres réponses</v>
+      </c>
+      <c r="D31" t="str" cm="1">
+        <f t="array" ref="D31:I31">_xlfn.TEXTSPLIT(C31,"|")</f>
+        <v>Une zone de protection volumétrique concerne :</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Un objet précis</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Une vitrine</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Un local</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Une clôture</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="2"/>
+        <v>Dans quelle condition un APS peut-il être amené à appréhender un individu ?|L’individu paraît suspect en ressortant du site sans dire “au revoir”|L’individu comment un délit ou un crime sur le site|L’individu refuse d’ouvrir son bagage à l’entrée de l’établissement|L’individu est sur le site pendant les heures d’ouverture et ne respecte pas le règlement intérieur|Aucune des autres réponses</v>
+      </c>
+      <c r="D32" t="str" cm="1">
+        <f t="array" ref="D32:I32">_xlfn.TEXTSPLIT(C32,"|")</f>
+        <v>Dans quelle condition un APS peut-il être amené à appréhender un individu ?</v>
+      </c>
+      <c r="E32" t="str">
+        <v>L’individu paraît suspect en ressortant du site sans dire “au revoir”</v>
+      </c>
+      <c r="F32" t="str">
+        <v>L’individu comment un délit ou un crime sur le site</v>
+      </c>
+      <c r="G32" t="str">
+        <v>L’individu refuse d’ouvrir son bagage à l’entrée de l’établissement</v>
+      </c>
+      <c r="H32" t="str">
+        <v>L’individu est sur le site pendant les heures d’ouverture et ne respecte pas le règlement intérieur</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="2"/>
+        <v>Vous êtes agent pré-vol, vous constatez qu’un de vos amis dissimule une bouteille de rhum dans son blouson et quitte le magasin par la sortie sans achats. Quelle est votre réaction ?|Vous ne faites rien car c’est un ami|VOus lui demandez de remettre la bouteille en place discrètement|Vous ne réagissez pas mais en parlerez avec lui après votre travail|Vous prévenez vos collègues pour une appréhension en sortie sans achats|Aucune des autres réponses</v>
+      </c>
+      <c r="D33" t="str" cm="1">
+        <f t="array" ref="D33:I33">_xlfn.TEXTSPLIT(C33,"|")</f>
+        <v>Vous êtes agent pré-vol, vous constatez qu’un de vos amis dissimule une bouteille de rhum dans son blouson et quitte le magasin par la sortie sans achats. Quelle est votre réaction ?</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Vous ne faites rien car c’est un ami</v>
+      </c>
+      <c r="F33" t="str">
+        <v>VOus lui demandez de remettre la bouteille en place discrètement</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Vous ne réagissez pas mais en parlerez avec lui après votre travail</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Vous prévenez vos collègues pour une appréhension en sortie sans achats</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="2"/>
+        <v>Les acteurs de la sécurité privée doivent en priorité :|Comptabiliser les vols en magasin|Ne pas intervenir sur les accidents et les incendies|Aider la justice et les services de police|Favoriser les délits et les crimes|Aucune des autres réponses</v>
+      </c>
+      <c r="D34" t="str" cm="1">
+        <f t="array" ref="D34:I34">_xlfn.TEXTSPLIT(C34,"|")</f>
+        <v>Les acteurs de la sécurité privée doivent en priorité :</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Comptabiliser les vols en magasin</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Ne pas intervenir sur les accidents et les incendies</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Aider la justice et les services de police</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Favoriser les délits et les crimes</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="2"/>
+        <v>Au cours d’une appréhension n arrière-caisse, un individu vous porte un violent coup de poing au visage, vous cassant le nez :|Il n’y a rien à faire, ce sont les risques du métier, vous ferez plus attention la prochaine fois|Vous allez vous faire examiner par un médecin qui vous délivrera un arrêt de travail|Vous lui rendez la pareille étant en état de légitime défense|Vous ne pouvez pas déposer plainte contre la personne, c’est du ressort du magasin pour lequel vous travaillez|Aucune des autres réponses</v>
+      </c>
+      <c r="D35" t="str" cm="1">
+        <f t="array" ref="D35:I35">_xlfn.TEXTSPLIT(C35,"|")</f>
+        <v>Au cours d’une appréhension n arrière-caisse, un individu vous porte un violent coup de poing au visage, vous cassant le nez :</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Il n’y a rien à faire, ce sont les risques du métier, vous ferez plus attention la prochaine fois</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Vous allez vous faire examiner par un médecin qui vous délivrera un arrêt de travail</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Vous lui rendez la pareille étant en état de légitime défense</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Vous ne pouvez pas déposer plainte contre la personne, c’est du ressort du magasin pour lequel vous travaillez</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="2"/>
+        <v>Indiquez une mission entrant dans le cadre d’une ronde de fermeture :|Distribuer le courrier|Contrôler la fermeture des fenêtres|Mettre en action les extincteurs|Arroser les plantes de l’accueil|Aucune des autres réponses</v>
+      </c>
+      <c r="D36" t="str" cm="1">
+        <f t="array" ref="D36:I36">_xlfn.TEXTSPLIT(C36,"|")</f>
+        <v>Indiquez une mission entrant dans le cadre d’une ronde de fermeture :</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Distribuer le courrier</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Contrôler la fermeture des fenêtres</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Mettre en action les extincteurs</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Arroser les plantes de l’accueil</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="2"/>
+        <v>Indiquez ce que l’on doit inscrire sur la main courante ?|Les alarmes techniques|Mes impressions en fin de journée|Les noms des agents de sécurité de repos|Les messages personnels|Aucune des autres réponses</v>
+      </c>
+      <c r="D37" t="str" cm="1">
+        <f t="array" ref="D37:I37">_xlfn.TEXTSPLIT(C37,"|")</f>
+        <v>Indiquez ce que l’on doit inscrire sur la main courante ?</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Les alarmes techniques</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Mes impressions en fin de journée</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Les noms des agents de sécurité de repos</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Les messages personnels</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="2"/>
+        <v>En ce qui concerne la ronde, un point dit sensible est :|Un point qui en cas d’atteinte pourrait handicaper le bon fonctionnement de l’entreprise|Un point qui a fait l’objet d’une non-conformité relevée lors d’un contrôle du CNAPS|Un point comportant un danger permanent|Un point convoité par les voleurs|Aucune des autres réponses</v>
+      </c>
+      <c r="D38" t="str" cm="1">
+        <f t="array" ref="D38:I38">_xlfn.TEXTSPLIT(C38,"|")</f>
+        <v>En ce qui concerne la ronde, un point dit sensible est :</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Un point qui en cas d’atteinte pourrait handicaper le bon fonctionnement de l’entreprise</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Un point qui a fait l’objet d’une non-conformité relevée lors d’un contrôle du CNAPS</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Un point comportant un danger permanent</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Un point convoité par les voleurs</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="2"/>
+        <v>Vous êtes agent en arrière caisse dans un magasin, pouvez-vous procéder à l’inspection visuelle des sacs d’achat de personnes déjà passées en caisse ?|Seulement en présence des forces de l’ordre|Oui, si vos consignes le précisent|Oui, comme bon vous semble|Uniquement si le plan Vigipirate est déclenché|Aucune des autres réponses</v>
+      </c>
+      <c r="D39" t="str" cm="1">
+        <f t="array" ref="D39:I39">_xlfn.TEXTSPLIT(C39,"|")</f>
+        <v>Vous êtes agent en arrière caisse dans un magasin, pouvez-vous procéder à l’inspection visuelle des sacs d’achat de personnes déjà passées en caisse ?</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Seulement en présence des forces de l’ordre</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Oui, si vos consignes le précisent</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Oui, comme bon vous semble</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Uniquement si le plan Vigipirate est déclenché</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="2"/>
+        <v>Quels sont les différents moyens de communication mis à disposition d’un agent de sécurité ?|Les moyens de liaison|Les moyens d'alarme|Les moyens de protection|Les moyens télépathiques|Aucune des autres réponses</v>
+      </c>
+      <c r="D40" t="str" cm="1">
+        <f t="array" ref="D40:I40">_xlfn.TEXTSPLIT(C40,"|")</f>
+        <v>Quels sont les différents moyens de communication mis à disposition d’un agent de sécurité ?</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Les moyens de liaison</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Les moyens d'alarme</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Les moyens de protection</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Les moyens télépathiques</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="2"/>
+        <v>Face à une réquisition légale ?|On peut refuser de l’exécuter s’il n’y a pas la présence d’un sceau du service de police ou de gendarmerie|On peut refuser de l’exécuter si on n’est pas en fonction d’agent de sécurité|On peut refuser de l’exécuter sans motif légitime|On ne peut sans motif légitime refuser de l’exécuter sous peine d’être poursuivi|Aucune des autres réponses</v>
+      </c>
+      <c r="D41" t="str" cm="1">
+        <f t="array" ref="D41:I41">_xlfn.TEXTSPLIT(C41,"|")</f>
+        <v>Face à une réquisition légale ?</v>
+      </c>
+      <c r="E41" t="str">
+        <v>On peut refuser de l’exécuter s’il n’y a pas la présence d’un sceau du service de police ou de gendarmerie</v>
+      </c>
+      <c r="F41" t="str">
+        <v>On peut refuser de l’exécuter si on n’est pas en fonction d’agent de sécurité</v>
+      </c>
+      <c r="G41" t="str">
+        <v>On peut refuser de l’exécuter sans motif légitime</v>
+      </c>
+      <c r="H41" t="str">
+        <v>On ne peut sans motif légitime refuser de l’exécuter sous peine d’être poursuivi</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TFP_APS_Questions_QCU_Reel_2025.xlsx
+++ b/TFP_APS_Questions_QCU_Reel_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/Questions_TFP_APS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6BB368B-4990-4FF6-8216-1C185FC29382}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E37D5177-6591-4A6E-B740-5D115A18AA15}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <definedName name="_atn6jtpgu1zu" localSheetId="2">Feuil1!$A$6</definedName>
     <definedName name="_be1fc6ea00hk" localSheetId="2">Feuil1!$A$24</definedName>
     <definedName name="_e8p5frs5ytai" localSheetId="2">Feuil1!$A$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Liste_Questions!$A$1:$J$76</definedName>
     <definedName name="_g70xgby2qf4" localSheetId="2">Feuil1!$A$4</definedName>
     <definedName name="_g9qmie434sne" localSheetId="2">Feuil1!$A$10</definedName>
     <definedName name="_i84ik2pub0j3" localSheetId="2">Feuil1!$A$23</definedName>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="716">
   <si>
     <t>UV</t>
   </si>
@@ -1718,12 +1719,1143 @@
   <si>
     <t>On ne peut sans motif légitime refuser de l’exécuter sous peine d’être poursuivi</t>
   </si>
+  <si>
+    <r>
+      <t>1 – Le triangle du feu regroupe trois paramètres :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Le carburant, le combustible, l’inhibition|Le comburant, le combustible, l’énergie d’activation|Le refroidissement, le comburant, le carburant|Aucune des réponses n’est correcte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 – Quel est le danger des fumées ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Leur forte teneur en oxygène|Leur opacité, leur toxicité et la chaleur|Leur couleur|Aucune des réponses précédentes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 – Quelle est la meilleure façon d’éteindre un feu sur une fuite de gaz ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Fermer la vanne de barrage|Utiliser un linge humide|Utiliser un RIA|Utiliser un extincteur|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4 – Lors d’un incendie, quel effet est le plus dangereux pour l’homme ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|La pénétration de fumée par les vêtements|La pénétration de fumée par la conduction|La pénétration de fumée par la peau|La pénétration de fumée par les voies respiratoires|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5 – Vous intervenez sur un feu d’armoire électrique, quelle précaution est utile ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Vérifier que l’extincteur utilisé est à jet plein|Contacter préalablement le fournisseur d’électricité|Couper ou veiller à ce que l’électricité soit coupée|Mettre un appareil respiratoire isolant|Aucune des réponses précédentes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6 – Quelle est la distance d’attaque préconisée d’un extincteur à poudre ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Environ 1 mètre|De 2 à 3 mètres|De 3 à 4 mètres|De 6 à 7 mètres|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7 – Vous êtes en poste dans un laboratoire. Vous constatez un déclenchement d’incendie. Dans le local se trouvent un extincteur rouge et un extincteur vert, lequel allez-vous utiliser pour éteindre le feu ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Rouge|Vert|Le rouge ou le vert, les 2 sont adaptés|Aucun des deux|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8 – Vous êtes en poste, les pompiers arrivent sur le site sinistré. Vous êtes informé que la voie d’accès principale est bloquée par un camion stationné. Que faites-vous en priorité ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|J’appelle les personnels de l’usine, au point de rassemblement, pour déplacer le véhicule|J’appelle la fourrière|Je propose aux pompiers d’emprunter un autre accès qui est libre|J’autorise les pompiers à pousser le camion, ils en ont l’obligation|Aucune des réponses précédentes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9 – Dans quel cas doit-on redouter un permis de feu ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Lors de l’utilisation d’un véhicule muni d’un moteur|À l’occasion de travaux par points chauds|À la mise en place d’une zone fumeur|Lors de la mise en fonctionnement du groupe électrogène|Aucune des réponses précédentes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10 – Sur votre centrale incendie, un voyant rouge allumé signifie :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Un dérangement ou une anomalie|Que la centrale incendie est bien sous tension|Une alarme incendie|Que tout va bien dans l’établissement|Aucune des réponses précédentes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11 – Comment agit un extincteur à eau sur le feu ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Par étouffement|Par soufflement|Par refroidissement|Par inhibition|Aucune des réponses précédentes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12 – Vous intervenez sur un feu d’armoire électrique. Quel extincteur utilisez-vous de préférence ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Un extincteur à poudre|Un extincteur au CO₂|Un extincteur à eau|Une douche portative|Aucune des réponses précédentes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13 – Une des causes de départ de feu peut être ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Les causes surnaturelles|Les causes humaines|Les causes législatives|Les causes perdues|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14 – Quelle est la fonction de l’E.C.S. ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|De collecter les informations provenant des détecteurs volumétriques|De mettre en sécurité le bâtiment|De collecter les informations provenant des DAI et des DM|De fournir de l’Eau Conditionnée Suffisante|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15 – Le feu d’origine électrique est un feu de classe :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|A|B|C|Aucune des autres réponses|E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16 – À quoi sert l’alarme générale sélective ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|À prévenir une catégorie de personnel|À informer le PC pour effectuer une levée de doute|À informer le directeur|À informer les pompiers|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>17 – Qu’est-ce qui caractérise un extincteur à CO₂ ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Son manomètre|Sa couleur|Son tromblon|Sa forme ronde|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18 – Un extincteur au CO₂ est-il un extincteur à pression permanente ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Oui|Oui s’il est muni d’un densimètre|Non|Non il est rechargeable|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19 – Vous êtes en poste au PC sécurité et une Alarme Incendie retentit :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Vous arrêtez immédiatement le signal sonore et réarmez la zone. Ce n’est sûrement rien, comme d’habitude|Vous fixez ce que vous faisiez. Vous agissez toujours le temps d’envoyer le rondier à son retour de ronde|Vous contactez sur le champ votre collègue pour qu’il effectue immédiatement une levée de doute sur zone|Vous appuyez sur l’évacuation générale pour être sûr que tout le monde évacue|Aucune des réponses précédentes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20 – Quelle est la première action d’un APS lors d’un déclenchement d’une alarme incendie ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Faire une levée de doute|Appeler les pompiers|Arrêter le signal sonore|Réarmer le SSI|Aucune des réponses précédentes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>21 – Combien de types de pressions différentes trouve-t-on sur un extincteur ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Aucun|Une|Deux|Quatre|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>22 – En cas de départ de feu, quelle doit être l’attitude de l’agent de sécurité ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Tenter l’extinction du départ de feu|Ouvrir les portes et les fenêtres avant d’évacuer|Récupérer toutes mes affaires avant d’évacuer|Attendre l’arrivée des pompiers pour évacuer|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>23 – Quel cas utilise-t-on de préférence un extincteur à eau pulvérisé ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Feu d’origine électrique|Feu de poubelles|Feu d’essence|Feu de métaux|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24 – Que désigne un E.R.P. ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Établissement Recevant le Président|Établissement Recevant du Personnel|Établissement Recevant du Public|Établissement Recevant le Plus grand nombre|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>25 – Un extincteur au CO₂ est-il un extincteur à pression auxiliaire ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Oui|Oui s’il est muni d’un anémomètre|Non |Non s’il est rechargeable|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>26 – Qu’est-ce qu’un I.G.H. ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Immeuble de Groupement Habilité|Installation de Grande Hauteur|Installation Grandement Habilitée|Immeuble de Grande Hauteur|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>27 – Un DAI à clé sollicité, comment se nomme l’alarme qui sonne au PCS ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Alarme intrusion|Alarme restreinte|Alarme générale sélective|Alarme générale|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>28 – Quel élément fait partie du triangle du feu ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Le refroidissement|La combustion|La conduction|Le comburant|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>29 – Combien y a-t-il de classes de feu ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Une|Deux|Cinq|Six|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30 – Quelle est la distance d’attaque préconisée d’un extincteur à eau ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Environ 1 mètre|De 2 à 3 mètres|De 3 à 4 mètres|De 6 à 7 mètres|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>31 – Vous effectuez une ronde, un ouvrier d’une société extérieure réalise des travaux par points chauds. À priori, vous n’avez ni consignes, ni permis feu. Que faites-vous ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Je contacte le PC sécurité pour demander la conduite à tenir|Je passe mon chemin pour laisser l’ouvrier faire son travail|Je contacte le PCS pour vérification et selon consigne je fais cesser les travaux|Je verbalise l’ouvrier contrevenant|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>32 – Lors de la mise en place d’un permis feu, quelles consignes sont importantes à confier à l’exécutant ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Aveugler les ouvertures, interstices, fissures, …|Dégager largement la zone de travail de tout matériel combustible ou inflammable|Prendre toute disposition pour éviter le déclenchement du système de détection incendie|Surveiller les projections incandescentes et les points de chute pendant le travail|Toutes ces consignes sont à prendre en compte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>33 – Est-il possible qu’un feu s’éteigne en supprimant un des éléments du triangle du feu ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Oui|Oui si les conditions météorologiques sont favorables|Non |Non, sans le savoir-faire d’un expert métier|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>34 – En cas de départ de feu, quelle doit être l’attitude des occupants ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> |Fermer les portes et les fenêtres en évacuant|Ouvrir les portes et les fenêtres avant d’évacuer|Récupérer toutes mes affaires avant d’évacuer|Attendre l’arrivée des pompiers pour évacuer|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>35 – Quels sont les éléments indispensables à la combustion ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Une propagation, un carburant, un combustible|Du liquide, du vent, du carburant|Un combustible, un comburant, une énergie d’activation|Un vent, une étincelle, une matière inflammable|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>36 – Que signifie le terme R.I.A. ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Robinet d’intervention alimenté|Robinet d’incident arrimé|Robinet d’incident armé|Robinet d’incendie armé|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>37 – L’air est composé environ à 21% :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|D’azote|D’oxygène|De dioxyde de carbone|De gaz rares|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>38 – La classe de feu F concerne :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Les feux de forêts|Les feux de dépôt graisseux servant d’auxiliaires de cuisson|Les feux de liquides incombustibles|Rien car cette classe n’existe pas|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>39 – Vous effectuez une ronde, un ouvrier d’une société extérieure réalise des travaux par points chauds. Vous n’avez ni consigne, ni permis feu. Que faites-vous ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Je contacte le PC sécurité pour demander la conduite à tenir|Je passe mon chemin pour laisser l’ouvrier faire son travail|Je fais cesser immédiatement les travaux avant de prendre des renseignements auprès du PC sécurité|Je verbalise l’ouvrier contrevenant|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40 – Les travaux par points chauds ont lieu dans votre établissement. Le service de sécurité quitte l’établissement qui n’est donc plus sous sa surveillance à partir de 21h. À quelle heure maximum les travaux doivent-ils cesser ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|17h|18h|19h|20h|21h</t>
+    </r>
+  </si>
+  <si>
+    <t>Le triangle du feu regroupe trois paramètres :</t>
+  </si>
+  <si>
+    <t>Le carburant, le combustible, l’inhibition</t>
+  </si>
+  <si>
+    <t>Le comburant, le combustible, l’énergie d’activation</t>
+  </si>
+  <si>
+    <t>Le refroidissement, le comburant, le carburant</t>
+  </si>
+  <si>
+    <t>Aucune des réponses n’est correcte</t>
+  </si>
+  <si>
+    <t>Quel est le danger des fumées ?</t>
+  </si>
+  <si>
+    <t>Leur forte teneur en oxygène</t>
+  </si>
+  <si>
+    <t>Leur opacité, leur toxicité et la chaleur</t>
+  </si>
+  <si>
+    <t>Leur couleur</t>
+  </si>
+  <si>
+    <t>Aucune des réponses précédentes</t>
+  </si>
+  <si>
+    <t>Quelle est la meilleure façon d’éteindre un feu sur une fuite de gaz ?</t>
+  </si>
+  <si>
+    <t>Fermer la vanne de barrage</t>
+  </si>
+  <si>
+    <t>Utiliser un linge humide</t>
+  </si>
+  <si>
+    <t>Utiliser un RIA</t>
+  </si>
+  <si>
+    <t>Utiliser un extincteur</t>
+  </si>
+  <si>
+    <t>Lors d’un incendie, quel effet est le plus dangereux pour l’homme ?</t>
+  </si>
+  <si>
+    <t>La pénétration de fumée par les vêtements</t>
+  </si>
+  <si>
+    <t>La pénétration de fumée par la conduction</t>
+  </si>
+  <si>
+    <t>La pénétration de fumée par la peau</t>
+  </si>
+  <si>
+    <t>La pénétration de fumée par les voies respiratoires</t>
+  </si>
+  <si>
+    <t>Vous intervenez sur un feu d’armoire électrique, quelle précaution est utile ?</t>
+  </si>
+  <si>
+    <t>Vérifier que l’extincteur utilisé est à jet plein</t>
+  </si>
+  <si>
+    <t>Contacter préalablement le fournisseur d’électricité</t>
+  </si>
+  <si>
+    <t>Couper ou veiller à ce que l’électricité soit coupée</t>
+  </si>
+  <si>
+    <t>Mettre un appareil respiratoire isolant</t>
+  </si>
+  <si>
+    <t>Quelle est la distance d’attaque préconisée d’un extincteur à poudre ?</t>
+  </si>
+  <si>
+    <t>Environ 1 mètre</t>
+  </si>
+  <si>
+    <t>De 2 à 3 mètres</t>
+  </si>
+  <si>
+    <t>De 3 à 4 mètres</t>
+  </si>
+  <si>
+    <t>De 6 à 7 mètres</t>
+  </si>
+  <si>
+    <t>Vous êtes en poste dans un laboratoire. Vous constatez un déclenchement d’incendie. Dans le local se trouvent un extincteur rouge et un extincteur vert, lequel allez-vous utiliser pour éteindre le feu ?</t>
+  </si>
+  <si>
+    <t>Rouge</t>
+  </si>
+  <si>
+    <t>Vert</t>
+  </si>
+  <si>
+    <t>Le rouge ou le vert, les 2 sont adaptés</t>
+  </si>
+  <si>
+    <t>Aucun des deux</t>
+  </si>
+  <si>
+    <t>Vous êtes en poste, les pompiers arrivent sur le site sinistré. Vous êtes informé que la voie d’accès principale est bloquée par un camion stationné. Que faites-vous en priorité ?</t>
+  </si>
+  <si>
+    <t>J’appelle les personnels de l’usine, au point de rassemblement, pour déplacer le véhicule</t>
+  </si>
+  <si>
+    <t>J’appelle la fourrière</t>
+  </si>
+  <si>
+    <t>Je propose aux pompiers d’emprunter un autre accès qui est libre</t>
+  </si>
+  <si>
+    <t>J’autorise les pompiers à pousser le camion, ils en ont l’obligation</t>
+  </si>
+  <si>
+    <t>Dans quel cas doit-on redouter un permis de feu ?</t>
+  </si>
+  <si>
+    <t>Lors de l’utilisation d’un véhicule muni d’un moteur</t>
+  </si>
+  <si>
+    <t>À l’occasion de travaux par points chauds</t>
+  </si>
+  <si>
+    <t>À la mise en place d’une zone fumeur</t>
+  </si>
+  <si>
+    <t>Lors de la mise en fonctionnement du groupe électrogène</t>
+  </si>
+  <si>
+    <t>Sur votre centrale incendie, un voyant rouge allumé signifie :</t>
+  </si>
+  <si>
+    <t>Un dérangement ou une anomalie</t>
+  </si>
+  <si>
+    <t>Que la centrale incendie est bien sous tension</t>
+  </si>
+  <si>
+    <t>Une alarme incendie</t>
+  </si>
+  <si>
+    <t>Que tout va bien dans l’établissement</t>
+  </si>
+  <si>
+    <t>Comment agit un extincteur à eau sur le feu ?</t>
+  </si>
+  <si>
+    <t>Par étouffement</t>
+  </si>
+  <si>
+    <t>Par soufflement</t>
+  </si>
+  <si>
+    <t>Par refroidissement</t>
+  </si>
+  <si>
+    <t>Par inhibition</t>
+  </si>
+  <si>
+    <t>Vous intervenez sur un feu d’armoire électrique. Quel extincteur utilisez-vous de préférence ?</t>
+  </si>
+  <si>
+    <t>Un extincteur à poudre</t>
+  </si>
+  <si>
+    <t>Un extincteur au CO₂</t>
+  </si>
+  <si>
+    <t>Un extincteur à eau</t>
+  </si>
+  <si>
+    <t>Une douche portative</t>
+  </si>
+  <si>
+    <t>Une des causes de départ de feu peut être ?</t>
+  </si>
+  <si>
+    <t>Les causes surnaturelles</t>
+  </si>
+  <si>
+    <t>Les causes humaines</t>
+  </si>
+  <si>
+    <t>Les causes législatives</t>
+  </si>
+  <si>
+    <t>Les causes perdues</t>
+  </si>
+  <si>
+    <t>Quelle est la fonction de l’E.C.S. ?</t>
+  </si>
+  <si>
+    <t>De collecter les informations provenant des détecteurs volumétriques</t>
+  </si>
+  <si>
+    <t>De mettre en sécurité le bâtiment</t>
+  </si>
+  <si>
+    <t>De collecter les informations provenant des DAI et des DM</t>
+  </si>
+  <si>
+    <t>De fournir de l’Eau Conditionnée Suffisante</t>
+  </si>
+  <si>
+    <t>Le feu d’origine électrique est un feu de classe :</t>
+  </si>
+  <si>
+    <t>À quoi sert l’alarme générale sélective ?</t>
+  </si>
+  <si>
+    <t>À prévenir une catégorie de personnel</t>
+  </si>
+  <si>
+    <t>À informer le PC pour effectuer une levée de doute</t>
+  </si>
+  <si>
+    <t>À informer le directeur</t>
+  </si>
+  <si>
+    <t>À informer les pompiers</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qui caractérise un extincteur à CO₂ ?</t>
+  </si>
+  <si>
+    <t>Son manomètre</t>
+  </si>
+  <si>
+    <t>Sa couleur</t>
+  </si>
+  <si>
+    <t>Son tromblon</t>
+  </si>
+  <si>
+    <t>Sa forme ronde</t>
+  </si>
+  <si>
+    <t>Un extincteur au CO₂ est-il un extincteur à pression permanente ?</t>
+  </si>
+  <si>
+    <t>Oui s’il est muni d’un densimètre</t>
+  </si>
+  <si>
+    <t>Non il est rechargeable</t>
+  </si>
+  <si>
+    <t>Vous êtes en poste au PC sécurité et une Alarme Incendie retentit :</t>
+  </si>
+  <si>
+    <t>Vous arrêtez immédiatement le signal sonore et réarmez la zone. Ce n’est sûrement rien, comme d’habitude</t>
+  </si>
+  <si>
+    <t>Vous fixez ce que vous faisiez. Vous agissez toujours le temps d’envoyer le rondier à son retour de ronde</t>
+  </si>
+  <si>
+    <t>Vous contactez sur le champ votre collègue pour qu’il effectue immédiatement une levée de doute sur zone</t>
+  </si>
+  <si>
+    <t>Vous appuyez sur l’évacuation générale pour être sûr que tout le monde évacue</t>
+  </si>
+  <si>
+    <t>Quelle est la première action d’un APS lors d’un déclenchement d’une alarme incendie ?</t>
+  </si>
+  <si>
+    <t>Faire une levée de doute</t>
+  </si>
+  <si>
+    <t>Appeler les pompiers</t>
+  </si>
+  <si>
+    <t>Arrêter le signal sonore</t>
+  </si>
+  <si>
+    <t>Réarmer le SSI</t>
+  </si>
+  <si>
+    <t>Combien de types de pressions différentes trouve-t-on sur un extincteur ?</t>
+  </si>
+  <si>
+    <t>Aucun</t>
+  </si>
+  <si>
+    <t>Une</t>
+  </si>
+  <si>
+    <t>Deux</t>
+  </si>
+  <si>
+    <t>Quatre</t>
+  </si>
+  <si>
+    <t>En cas de départ de feu, quelle doit être l’attitude de l’agent de sécurité ?</t>
+  </si>
+  <si>
+    <t>Tenter l’extinction du départ de feu</t>
+  </si>
+  <si>
+    <t>Ouvrir les portes et les fenêtres avant d’évacuer</t>
+  </si>
+  <si>
+    <t>Récupérer toutes mes affaires avant d’évacuer</t>
+  </si>
+  <si>
+    <t>Attendre l’arrivée des pompiers pour évacuer</t>
+  </si>
+  <si>
+    <t>Quel cas utilise-t-on de préférence un extincteur à eau pulvérisé ?</t>
+  </si>
+  <si>
+    <t>Feu d’origine électrique</t>
+  </si>
+  <si>
+    <t>Feu de poubelles</t>
+  </si>
+  <si>
+    <t>Feu d’essence</t>
+  </si>
+  <si>
+    <t>Feu de métaux</t>
+  </si>
+  <si>
+    <t>Que désigne un E.R.P. ?</t>
+  </si>
+  <si>
+    <t>Établissement Recevant le Président</t>
+  </si>
+  <si>
+    <t>Établissement Recevant du Personnel</t>
+  </si>
+  <si>
+    <t>Établissement Recevant du Public</t>
+  </si>
+  <si>
+    <t>Établissement Recevant le Plus grand nombre</t>
+  </si>
+  <si>
+    <t>Un extincteur au CO₂ est-il un extincteur à pression auxiliaire ?</t>
+  </si>
+  <si>
+    <t>Oui s’il est muni d’un anémomètre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non </t>
+  </si>
+  <si>
+    <t>Non s’il est rechargeable</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’un I.G.H. ?</t>
+  </si>
+  <si>
+    <t>Immeuble de Groupement Habilité</t>
+  </si>
+  <si>
+    <t>Installation de Grande Hauteur</t>
+  </si>
+  <si>
+    <t>Installation Grandement Habilitée</t>
+  </si>
+  <si>
+    <t>Immeuble de Grande Hauteur</t>
+  </si>
+  <si>
+    <t>Un DAI à clé sollicité, comment se nomme l’alarme qui sonne au PCS ?</t>
+  </si>
+  <si>
+    <t>Alarme intrusion</t>
+  </si>
+  <si>
+    <t>Alarme restreinte</t>
+  </si>
+  <si>
+    <t>Alarme générale sélective</t>
+  </si>
+  <si>
+    <t>Alarme générale</t>
+  </si>
+  <si>
+    <t>Quel élément fait partie du triangle du feu ?</t>
+  </si>
+  <si>
+    <t>Le refroidissement</t>
+  </si>
+  <si>
+    <t>La combustion</t>
+  </si>
+  <si>
+    <t>La conduction</t>
+  </si>
+  <si>
+    <t>Le comburant</t>
+  </si>
+  <si>
+    <t>Combien y a-t-il de classes de feu ?</t>
+  </si>
+  <si>
+    <t>Cinq</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>Quelle est la distance d’attaque préconisée d’un extincteur à eau ?</t>
+  </si>
+  <si>
+    <t>Vous effectuez une ronde, un ouvrier d’une société extérieure réalise des travaux par points chauds. À priori, vous n’avez ni consignes, ni permis feu. Que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Je contacte le PC sécurité pour demander la conduite à tenir</t>
+  </si>
+  <si>
+    <t>Je passe mon chemin pour laisser l’ouvrier faire son travail</t>
+  </si>
+  <si>
+    <t>Je contacte le PCS pour vérification et selon consigne je fais cesser les travaux</t>
+  </si>
+  <si>
+    <t>Je verbalise l’ouvrier contrevenant</t>
+  </si>
+  <si>
+    <t>Lors de la mise en place d’un permis feu, quelles consignes sont importantes à confier à l’exécutant ?</t>
+  </si>
+  <si>
+    <t>Aveugler les ouvertures, interstices, fissures, …</t>
+  </si>
+  <si>
+    <t>Dégager largement la zone de travail de tout matériel combustible ou inflammable</t>
+  </si>
+  <si>
+    <t>Prendre toute disposition pour éviter le déclenchement du système de détection incendie</t>
+  </si>
+  <si>
+    <t>Surveiller les projections incandescentes et les points de chute pendant le travail</t>
+  </si>
+  <si>
+    <t>Est-il possible qu’un feu s’éteigne en supprimant un des éléments du triangle du feu ?</t>
+  </si>
+  <si>
+    <t>Oui si les conditions météorologiques sont favorables</t>
+  </si>
+  <si>
+    <t>Non, sans le savoir-faire d’un expert métier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En cas de départ de feu, quelle doit être l’attitude des occupants ? </t>
+  </si>
+  <si>
+    <t>Fermer les portes et les fenêtres en évacuant</t>
+  </si>
+  <si>
+    <t>Quels sont les éléments indispensables à la combustion ?</t>
+  </si>
+  <si>
+    <t>Une propagation, un carburant, un combustible</t>
+  </si>
+  <si>
+    <t>Du liquide, du vent, du carburant</t>
+  </si>
+  <si>
+    <t>Un combustible, un comburant, une énergie d’activation</t>
+  </si>
+  <si>
+    <t>Un vent, une étincelle, une matière inflammable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que signifie le terme R.I.A. ? </t>
+  </si>
+  <si>
+    <t>Robinet d’intervention alimenté</t>
+  </si>
+  <si>
+    <t>Robinet d’incident arrimé</t>
+  </si>
+  <si>
+    <t>Robinet d’incident armé</t>
+  </si>
+  <si>
+    <t>Robinet d’incendie armé</t>
+  </si>
+  <si>
+    <t>L’air est composé environ à 21% :</t>
+  </si>
+  <si>
+    <t>D’azote</t>
+  </si>
+  <si>
+    <t>D’oxygène</t>
+  </si>
+  <si>
+    <t>De dioxyde de carbone</t>
+  </si>
+  <si>
+    <t>De gaz rares</t>
+  </si>
+  <si>
+    <t>La classe de feu F concerne :</t>
+  </si>
+  <si>
+    <t>Les feux de forêts</t>
+  </si>
+  <si>
+    <t>Les feux de dépôt graisseux servant d’auxiliaires de cuisson</t>
+  </si>
+  <si>
+    <t>Les feux de liquides incombustibles</t>
+  </si>
+  <si>
+    <t>Rien car cette classe n’existe pas</t>
+  </si>
+  <si>
+    <t>Vous effectuez une ronde, un ouvrier d’une société extérieure réalise des travaux par points chauds. Vous n’avez ni consigne, ni permis feu. Que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Je fais cesser immédiatement les travaux avant de prendre des renseignements auprès du PC sécurité</t>
+  </si>
+  <si>
+    <t>Les travaux par points chauds ont lieu dans votre établissement. Le service de sécurité quitte l’établissement qui n’est donc plus sous sa surveillance à partir de 21h. À quelle heure maximum les travaux doivent-ils cesser ?</t>
+  </si>
+  <si>
+    <t>17h</t>
+  </si>
+  <si>
+    <t>18h</t>
+  </si>
+  <si>
+    <t>19h</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>Toutes ces consignes sont à prendre en compte</t>
+  </si>
+  <si>
+    <t>21h</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1782,6 +2914,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1837,7 +2982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1870,6 +3015,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2016,6 +3167,182 @@
         <a:xfrm>
           <a:off x="16059150" y="13106400"/>
           <a:ext cx="3982006" cy="314369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190948</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>104814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8404E67-425A-E936-8C95-3BE3668DA9EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15868650" y="14497050"/>
+          <a:ext cx="3210373" cy="276264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>191030</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF522C1-ECEE-A3B9-120B-0E04D4905D4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15887700" y="16411575"/>
+          <a:ext cx="3801005" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171976</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>95285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD079912-DBD6-0B4F-A737-44D8A8877997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15897225" y="18326100"/>
+          <a:ext cx="3772426" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>267234</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>171491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B52C5D2-5E8B-4C72-7503-D8E87828D4DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15935325" y="20259675"/>
+          <a:ext cx="3829584" cy="295316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2312,10 +3639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A116" sqref="A77:XFD116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4646,7 +5973,1162 @@
         <v>12</v>
       </c>
     </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J114" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -5785,16 +8267,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18582157-25E0-434E-AB6B-01FE38A60B37}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:I41"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5802,11 +8284,11 @@
         <v>270</v>
       </c>
       <c r="B1">
-        <f>FIND(" - ",A1)</f>
+        <f t="shared" ref="B1:B10" si="0">FIND(" - ",A1)</f>
         <v>2</v>
       </c>
       <c r="C1" t="str">
-        <f>RIGHT(A1, LEN(A1)-(B1+2))</f>
+        <f t="shared" ref="C1:C10" si="1">RIGHT(A1, LEN(A1)-(B1+2))</f>
         <v>Quels sont les 4 comportements pouvant être adoptés théoriquement lors d’un conflit ?|Fuite - Assertivité - Contrainte - Manipulation|Assertivité - Arrogance - Manipulation - Agressivité|Agressivité - Assertivité - Fuite - Manipulation|Agressivité - Fuite - Manipulation - Monologue|Aucune des autres réponses</v>
       </c>
       <c r="D1" t="str" cm="1">
@@ -5834,11 +8316,11 @@
         <v>271</v>
       </c>
       <c r="B2">
-        <f>FIND(" - ",A2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>RIGHT(A2, LEN(A2)-(B2+2))</f>
+        <f t="shared" si="1"/>
         <v>Quelles sont les précautions à prendre lorsqu’on aborde une personne susceptible de générer un conflit ?|Rester à une dizaine de mètres pour ne pas s’exposer|Garder une distance raisonnable de sécurité|Se munir d’un moyen de défense|S’approcher au plus près pour rassurer la personne|Aucune des autres réponses</v>
       </c>
       <c r="D2" t="str" cm="1">
@@ -5866,11 +8348,11 @@
         <v>272</v>
       </c>
       <c r="B3">
-        <f>FIND(" - ",A3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C3" t="str">
-        <f>RIGHT(A3, LEN(A3)-(B3+2))</f>
+        <f t="shared" si="1"/>
         <v>Quelles sont les méthodes de réaction aux attaques verbales, menaces et intimidation ?|Répondre sur le même ton - faire du Karaté|Ignorer la personne - Continuer de faire son travail|Répondre sur le même ton - Appeler la police|Garder son calme - Pratiquer le judo verbal pour retourner la situation|Aucune des autres réponses</v>
       </c>
       <c r="D3" t="str" cm="1">
@@ -5898,11 +8380,11 @@
         <v>273</v>
       </c>
       <c r="B4">
-        <f>FIND(" - ",A4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" t="str">
-        <f>RIGHT(A4, LEN(A4)-(B4+2))</f>
+        <f t="shared" si="1"/>
         <v>Quel type de personne peut être plus générateur de conflit ?|Une personne insatisfaite|Une personne timide|Une personne bavarde|Une personne ne parlant pas le français|Aucune des autres réponses</v>
       </c>
       <c r="D4" t="str" cm="1">
@@ -5930,11 +8412,11 @@
         <v>274</v>
       </c>
       <c r="B5">
-        <f>FIND(" - ",A5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C5" t="str">
-        <f>RIGHT(A5, LEN(A5)-(B5+2))</f>
+        <f t="shared" si="1"/>
         <v>A l’entrée d’un centre commercial, un client vient se plaindre auprès de vous d’un article acheté, qu’il juge défectueux. Que faites-vous ?|Vous lui proposez de faire l’échange vous-même|Vous prenez le temps d’écouter et le dirigez vers le service après-vente|Vous refusez de le renseigner|Vous lui proposez vos services, après votre vacation, car vous connaissez bien les défauts de cet article|Aucune des autres réponses</v>
       </c>
       <c r="D5" t="str" cm="1">
@@ -5962,11 +8444,11 @@
         <v>275</v>
       </c>
       <c r="B6">
-        <f>FIND(" - ",A6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" t="str">
-        <f>RIGHT(A6, LEN(A6)-(B6+2))</f>
+        <f t="shared" si="1"/>
         <v>Je viens de fermer la porte d’entrée au supermarché avant sa fermeture totale. Un client veut rentrer malgré tout et frappe violemment sur la porte vitrée. Que faites-vous ?|Je lui explique que le magasin et les caisses sont fermés|J’ouvre les portes et le laisse rentrer exceptionnellement|Je lui ordonne de quitter les lieux immédiatement et le menace d’appeler les forces de l’ordre|Je l’ignore et continue ma ronde de fermeture|Aucune des autres réponses</v>
       </c>
       <c r="D6" t="str" cm="1">
@@ -5994,11 +8476,11 @@
         <v>276</v>
       </c>
       <c r="B7">
-        <f>FIND(" - ",A7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C7" t="str">
-        <f>RIGHT(A7, LEN(A7)-(B7+2))</f>
+        <f t="shared" si="1"/>
         <v>Lorsque l’agent observe des personnes en conflit dans son périmètre d’action, il doit ?|Uniquement observer ce qui se passe|Partir le plus vite possible|Se poser en médiateur|Prendre position avant de connaître l’origine du conflit|Aucune des autres réponses</v>
       </c>
       <c r="D7" t="str" cm="1">
@@ -6026,11 +8508,11 @@
         <v>277</v>
       </c>
       <c r="B8">
-        <f>FIND(" - ",A8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" t="str">
-        <f>RIGHT(A8, LEN(A8)-(B8+2))</f>
+        <f t="shared" si="1"/>
         <v>Dans la communication non verbale, que peut signifier le fait de pointer quelqu’un du doigt ?|Une attitude menaçante ou arrogante|Une attitude de séduction|Une attitude apaisante|Une attitude conciliante|Aucune des autres réponses</v>
       </c>
       <c r="D8" t="str" cm="1">
@@ -6058,11 +8540,11 @@
         <v>278</v>
       </c>
       <c r="B9">
-        <f>FIND(" - ",A9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C9" t="str">
-        <f>RIGHT(A9, LEN(A9)-(B9+2))</f>
+        <f t="shared" si="1"/>
         <v>Durant sa ronde un agent découvre une personne qui fume dans le local des archives, comment procède-t-il pour intervenir sans générer de conflit ?|Lui confisquer ses cigarettes|Retourner au PCS pour renseigner l’incident sur la main courante|Laisser la personne terminer sa cigarette et lui demander de ne pas recommencer|Se présenter, et rappeler la réglementation au contrevenant|Aucune des autres réponses</v>
       </c>
       <c r="D9" t="str" cm="1">
@@ -6090,11 +8572,11 @@
         <v>279</v>
       </c>
       <c r="B10">
-        <f>FIND(" - ",A10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" t="str">
-        <f>RIGHT(A10, LEN(A10)-(B10+2))</f>
+        <f t="shared" si="1"/>
         <v>Que doit faire le chef de poste lorsque vous êtes en conflit avec l’un de vos collègues APS ?|Attendre la dégradation de la situation pour offrir son aide|Contacter immédiatement la hiérarchie et demander des sanctions|Ne pas intervenir pour laisser la dispute s’estomper|Réunir les agents concernés pour résoudre le problème|Aucune des autres réponses</v>
       </c>
       <c r="D10" t="str" cm="1">
@@ -6119,11 +8601,11 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="e">
-        <f t="shared" ref="B11:B41" si="0">FIND(" - ",A11)</f>
+        <f t="shared" ref="B11:B41" si="2">FIND(" - ",A11)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C11" t="e">
-        <f t="shared" ref="C11:C28" si="1">RIGHT(A11, LEN(A11)-(B11+2))</f>
+        <f t="shared" ref="C11:C28" si="3">RIGHT(A11, LEN(A11)-(B11+2))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D11" t="e" cm="1">
@@ -6136,11 +8618,11 @@
         <v>330</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Une consigne qui vous explique la procédure pour pénétrer dans un local où des matières toxiques sont entreposées en permanence est :|Une consigne générale|Une consigne particulière|Une consigne ponctuelle|Une consigne spéciale</v>
       </c>
       <c r="D12" t="str" cm="1">
@@ -6165,11 +8647,11 @@
         <v>331</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Aucune des autres réponses</v>
       </c>
       <c r="D13" t="str" cm="1">
@@ -6182,11 +8664,11 @@
         <v>332</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Une consigne Client, qui vous prévient que demain un VIP viendra visiter l’établissement est :|Une consigne générale|Une consigne permanente|Une consigne ponctuelle|Un consigne spéciale|Aucune des autres réponses</v>
       </c>
       <c r="D14" t="str" cm="1">
@@ -6214,11 +8696,11 @@
         <v>333</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>La consigne affichée à proximité des sorties concernant l’évacuation est :|Une consigne permanente|Une consigne particulière|Une consigne ponctuelle|Un consigne spéciale|Aucune des autres réponses</v>
       </c>
       <c r="D15" t="str" cm="1">
@@ -6246,11 +8728,11 @@
         <v>334</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Quelle est la meilleure façon d’écrire une date sur la main courante papier ?|Le 17-10-30|Le 30/10/17|Le 30/10/2017|L’an 2017-10-30|Lundi 30 octobre 2017</v>
       </c>
       <c r="D16" t="str" cm="1">
@@ -6278,11 +8760,11 @@
         <v>335</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Le compte rendu oral ou écrit est un moyen de communication :|Simple et direct avec sa hiérarchie|Qui reste interne à votre entreprise sans conséquence pénale|Il est effectué uniquement à l’aide d’un émetteur/récepteur|Il évite dans tous les cas de rédiger un rapport complet qui serait trop contraignant|Aucune des autres réponses</v>
       </c>
       <c r="D17" t="str" cm="1">
@@ -6310,11 +8792,11 @@
         <v>336</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>De quelle couleur est-il préférable d’écrire les interventions liées à l’incendie sur une main courante ?|En noir|En bleu|En rouge|En vert|Aucune des autres réponses</v>
       </c>
       <c r="D18" t="str" cm="1">
@@ -6342,11 +8824,11 @@
         <v>337</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Une main courante doit-elle être ?|Chronologique|Datée|Factuelle|Informatisée ou manuscrite|Toutes les réponses précédentes sont exactes</v>
       </c>
       <c r="D19" t="str" cm="1">
@@ -6374,11 +8856,11 @@
         <v>338</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>La mise en place et l’utilisation d’une main courante est-elle soumise à une réglementation ?|Oui, c’est la loi du 12 juillet 1983 qui l’impose|Oui, c’est le CSI qui l’impose|Oui, c’est la convention collective qui l’impose|Non, mais elle permet de se protéger en cas de saisie par les autorités|Aucune des autres réponses</v>
       </c>
       <c r="D20" t="str" cm="1">
@@ -6406,11 +8888,11 @@
         <v>339</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Les consignes spéciales de votre société de sécurité doivent-elles avoir un numéro séquentiel de version ?|Oui, pour pouvoir les ranger dans les archives|Oui, pour savoir si c’est la bonne version en vigueur|Non, puisqu’elles sont permanentes|Non, cela ne sert à rien|Aucune des autres réponses</v>
       </c>
       <c r="D21" t="str" cm="1">
@@ -6438,11 +8920,11 @@
         <v>340</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Une main courante informatisée peut-elle être consultable à distance ?|Non, pour éviter tout piratage|Non, les informations doivent rester sur le site|Oui, le responsable pourra voir au fur et à mesure les événements|Oui, lorsque l’on veut la modifier en fin de journée|Aucune des autres réponses</v>
       </c>
       <c r="D22" t="str" cm="1">
@@ -6470,11 +8952,11 @@
         <v>341</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Vous disposez d’une main courante informatisée, devez-vous quand même disposer d’une main courante papier ?|Oui, et on doit remplir les deux|Oui, dans l’éventualité où la main courante informatisée soit hors service|Non, puisqu’on peut tout imprimer plus tard|Non, cela ne sert à rien|Aucune des autres réponses</v>
       </c>
       <c r="D23" t="str" cm="1">
@@ -6502,11 +8984,11 @@
         <v>342</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Une main courante a comme objectif :|De noter uniquement les interventions de la vacation|De noter uniquement les problèmes techniques|De transmettre uniquement des consignes|De relater tous les événements liés à la sécurité lors de la vacation|Aucune des autres réponses</v>
       </c>
       <c r="D24" t="str" cm="1">
@@ -6534,11 +9016,11 @@
         <v>343</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Le compte rendu écrit est un moyen :|Qui constitue une preuve irréfutable|De signaler un fait circonstancié urgent et important|De noter sur un document brouillon avant de le rédiger au propre|De contrôle du travail effectué par les agents|Aucune des autres réponses</v>
       </c>
       <c r="D25" t="str" cm="1">
@@ -6566,11 +9048,11 @@
         <v>344</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Concernant les rondes, que doit-on notifier sur la main courante ?|Le nom de l’agent effectuant la ronde|L’heure de retour de ronde|Les anomalies constatées|Les mesures prises en cas d’anomalie|Toutes les réponses sont bonnes</v>
       </c>
       <c r="D26" t="str" cm="1">
@@ -6598,11 +9080,11 @@
         <v>345</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Un rapport circonstancié doit :|Indiquer l’ensemble des informations de l’incident|Uniquement indiquer les conséquences de l’incident|Uniquement indiquer les circonstances de l’incident|Proposer les solutions afin d’éviter que l’incident ne se reproduise|Aucune des autres réponses</v>
       </c>
       <c r="D27" t="str" cm="1">
@@ -6630,11 +9112,11 @@
         <v>346</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>De quelle couleur est-il préférable d’écrire les événements quotidiens sur une main courante ?|En noir|En jaune|En rouge|En vert|Aucune des autres réponses</v>
       </c>
       <c r="D28" t="str" cm="1">
@@ -6659,11 +9141,11 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="C29" t="e">
-        <f t="shared" ref="C29:C41" si="2">RIGHT(A29, LEN(A29)-(B29+2))</f>
+        <f t="shared" ref="C29:C41" si="4">RIGHT(A29, LEN(A29)-(B29+2))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D29" t="e" cm="1">
@@ -6676,11 +9158,11 @@
         <v>420</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>D’après vous, une bonne présentation est-elle nécessaire durant votre service ?|Oui|Non|Cela dépend du poste occupé|Uniquement au contact du public|Aucune des autres réponses</v>
       </c>
       <c r="D30" t="str" cm="1">
@@ -6708,11 +9190,11 @@
         <v>421</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Une zone de protection volumétrique concerne :|Un objet précis|Une vitrine|Un local|Une clôture|Aucune des autres réponses</v>
       </c>
       <c r="D31" t="str" cm="1">
@@ -6740,11 +9222,11 @@
         <v>422</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dans quelle condition un APS peut-il être amené à appréhender un individu ?|L’individu paraît suspect en ressortant du site sans dire “au revoir”|L’individu comment un délit ou un crime sur le site|L’individu refuse d’ouvrir son bagage à l’entrée de l’établissement|L’individu est sur le site pendant les heures d’ouverture et ne respecte pas le règlement intérieur|Aucune des autres réponses</v>
       </c>
       <c r="D32" t="str" cm="1">
@@ -6772,11 +9254,11 @@
         <v>423</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Vous êtes agent pré-vol, vous constatez qu’un de vos amis dissimule une bouteille de rhum dans son blouson et quitte le magasin par la sortie sans achats. Quelle est votre réaction ?|Vous ne faites rien car c’est un ami|VOus lui demandez de remettre la bouteille en place discrètement|Vous ne réagissez pas mais en parlerez avec lui après votre travail|Vous prévenez vos collègues pour une appréhension en sortie sans achats|Aucune des autres réponses</v>
       </c>
       <c r="D33" t="str" cm="1">
@@ -6804,11 +9286,11 @@
         <v>424</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Les acteurs de la sécurité privée doivent en priorité :|Comptabiliser les vols en magasin|Ne pas intervenir sur les accidents et les incendies|Aider la justice et les services de police|Favoriser les délits et les crimes|Aucune des autres réponses</v>
       </c>
       <c r="D34" t="str" cm="1">
@@ -6836,11 +9318,11 @@
         <v>425</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Au cours d’une appréhension n arrière-caisse, un individu vous porte un violent coup de poing au visage, vous cassant le nez :|Il n’y a rien à faire, ce sont les risques du métier, vous ferez plus attention la prochaine fois|Vous allez vous faire examiner par un médecin qui vous délivrera un arrêt de travail|Vous lui rendez la pareille étant en état de légitime défense|Vous ne pouvez pas déposer plainte contre la personne, c’est du ressort du magasin pour lequel vous travaillez|Aucune des autres réponses</v>
       </c>
       <c r="D35" t="str" cm="1">
@@ -6868,11 +9350,11 @@
         <v>426</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Indiquez une mission entrant dans le cadre d’une ronde de fermeture :|Distribuer le courrier|Contrôler la fermeture des fenêtres|Mettre en action les extincteurs|Arroser les plantes de l’accueil|Aucune des autres réponses</v>
       </c>
       <c r="D36" t="str" cm="1">
@@ -6900,11 +9382,11 @@
         <v>427</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Indiquez ce que l’on doit inscrire sur la main courante ?|Les alarmes techniques|Mes impressions en fin de journée|Les noms des agents de sécurité de repos|Les messages personnels|Aucune des autres réponses</v>
       </c>
       <c r="D37" t="str" cm="1">
@@ -6932,11 +9414,11 @@
         <v>428</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>En ce qui concerne la ronde, un point dit sensible est :|Un point qui en cas d’atteinte pourrait handicaper le bon fonctionnement de l’entreprise|Un point qui a fait l’objet d’une non-conformité relevée lors d’un contrôle du CNAPS|Un point comportant un danger permanent|Un point convoité par les voleurs|Aucune des autres réponses</v>
       </c>
       <c r="D38" t="str" cm="1">
@@ -6964,11 +9446,11 @@
         <v>429</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Vous êtes agent en arrière caisse dans un magasin, pouvez-vous procéder à l’inspection visuelle des sacs d’achat de personnes déjà passées en caisse ?|Seulement en présence des forces de l’ordre|Oui, si vos consignes le précisent|Oui, comme bon vous semble|Uniquement si le plan Vigipirate est déclenché|Aucune des autres réponses</v>
       </c>
       <c r="D39" t="str" cm="1">
@@ -6996,11 +9478,11 @@
         <v>430</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Quels sont les différents moyens de communication mis à disposition d’un agent de sécurité ?|Les moyens de liaison|Les moyens d'alarme|Les moyens de protection|Les moyens télépathiques|Aucune des autres réponses</v>
       </c>
       <c r="D40" t="str" cm="1">
@@ -7028,11 +9510,11 @@
         <v>431</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Face à une réquisition légale ?|On peut refuser de l’exécuter s’il n’y a pas la présence d’un sceau du service de police ou de gendarmerie|On peut refuser de l’exécuter si on n’est pas en fonction d’agent de sécurité|On peut refuser de l’exécuter sans motif légitime|On ne peut sans motif légitime refuser de l’exécuter sous peine d’être poursuivi|Aucune des autres réponses</v>
       </c>
       <c r="D41" t="str" cm="1">
@@ -7054,6 +9536,1300 @@
       <c r="I41" t="str">
         <v>Aucune des autres réponses</v>
       </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="e">
+        <f t="shared" ref="B42:B82" si="5">FIND(" - ",A42)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" t="e">
+        <f t="shared" ref="C42:C82" si="6">RIGHT(A42, LEN(A42)-(B42+2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" t="e" cm="1">
+        <f t="array" ref="D42">_xlfn.TEXTSPLIT(C42,"|")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B43">
+        <f>FIND(" – ",A43)</f>
+        <v>2</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="6"/>
+        <v>Le triangle du feu regroupe trois paramètres :|Le carburant, le combustible, l’inhibition|Le comburant, le combustible, l’énergie d’activation|Le refroidissement, le comburant, le carburant|Aucune des réponses n’est correcte</v>
+      </c>
+      <c r="D43" t="str" cm="1">
+        <f t="array" ref="D43:H43">_xlfn.TEXTSPLIT(C43,"|")</f>
+        <v>Le triangle du feu regroupe trois paramètres :</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Le carburant, le combustible, l’inhibition</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Le comburant, le combustible, l’énergie d’activation</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Le refroidissement, le comburant, le carburant</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Aucune des réponses n’est correcte</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44:B82" si="7">FIND(" – ",A44)</f>
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="6"/>
+        <v>Quel est le danger des fumées ?|Leur forte teneur en oxygène|Leur opacité, leur toxicité et la chaleur|Leur couleur|Aucune des réponses précédentes</v>
+      </c>
+      <c r="D44" t="str" cm="1">
+        <f t="array" ref="D44:H44">_xlfn.TEXTSPLIT(C44,"|")</f>
+        <v>Quel est le danger des fumées ?</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Leur forte teneur en oxygène</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Leur opacité, leur toxicité et la chaleur</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Leur couleur</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Aucune des réponses précédentes</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="6"/>
+        <v>Quelle est la meilleure façon d’éteindre un feu sur une fuite de gaz ?|Fermer la vanne de barrage|Utiliser un linge humide|Utiliser un RIA|Utiliser un extincteur|Aucune des autres réponses</v>
+      </c>
+      <c r="D45" t="str" cm="1">
+        <f t="array" ref="D45:I45">_xlfn.TEXTSPLIT(C45,"|")</f>
+        <v>Quelle est la meilleure façon d’éteindre un feu sur une fuite de gaz ?</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Fermer la vanne de barrage</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Utiliser un linge humide</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Utiliser un RIA</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Utiliser un extincteur</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="6"/>
+        <v>Lors d’un incendie, quel effet est le plus dangereux pour l’homme ?|La pénétration de fumée par les vêtements|La pénétration de fumée par la conduction|La pénétration de fumée par la peau|La pénétration de fumée par les voies respiratoires|Aucune des autres réponses</v>
+      </c>
+      <c r="D46" t="str" cm="1">
+        <f t="array" ref="D46:I46">_xlfn.TEXTSPLIT(C46,"|")</f>
+        <v>Lors d’un incendie, quel effet est le plus dangereux pour l’homme ?</v>
+      </c>
+      <c r="E46" t="str">
+        <v>La pénétration de fumée par les vêtements</v>
+      </c>
+      <c r="F46" t="str">
+        <v>La pénétration de fumée par la conduction</v>
+      </c>
+      <c r="G46" t="str">
+        <v>La pénétration de fumée par la peau</v>
+      </c>
+      <c r="H46" t="str">
+        <v>La pénétration de fumée par les voies respiratoires</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="6"/>
+        <v>Vous intervenez sur un feu d’armoire électrique, quelle précaution est utile ?|Vérifier que l’extincteur utilisé est à jet plein|Contacter préalablement le fournisseur d’électricité|Couper ou veiller à ce que l’électricité soit coupée|Mettre un appareil respiratoire isolant|Aucune des réponses précédentes</v>
+      </c>
+      <c r="D47" t="str" cm="1">
+        <f t="array" ref="D47:I47">_xlfn.TEXTSPLIT(C47,"|")</f>
+        <v>Vous intervenez sur un feu d’armoire électrique, quelle précaution est utile ?</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Vérifier que l’extincteur utilisé est à jet plein</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Contacter préalablement le fournisseur d’électricité</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Couper ou veiller à ce que l’électricité soit coupée</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Mettre un appareil respiratoire isolant</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Aucune des réponses précédentes</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="6"/>
+        <v>Quelle est la distance d’attaque préconisée d’un extincteur à poudre ?|Environ 1 mètre|De 2 à 3 mètres|De 3 à 4 mètres|De 6 à 7 mètres|Aucune des autres réponses</v>
+      </c>
+      <c r="D48" t="str" cm="1">
+        <f t="array" ref="D48:I48">_xlfn.TEXTSPLIT(C48,"|")</f>
+        <v>Quelle est la distance d’attaque préconisée d’un extincteur à poudre ?</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Environ 1 mètre</v>
+      </c>
+      <c r="F48" t="str">
+        <v>De 2 à 3 mètres</v>
+      </c>
+      <c r="G48" t="str">
+        <v>De 3 à 4 mètres</v>
+      </c>
+      <c r="H48" t="str">
+        <v>De 6 à 7 mètres</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="6"/>
+        <v>Vous êtes en poste dans un laboratoire. Vous constatez un déclenchement d’incendie. Dans le local se trouvent un extincteur rouge et un extincteur vert, lequel allez-vous utiliser pour éteindre le feu ?|Rouge|Vert|Le rouge ou le vert, les 2 sont adaptés|Aucun des deux|Aucune des autres réponses</v>
+      </c>
+      <c r="D49" t="str" cm="1">
+        <f t="array" ref="D49:I49">_xlfn.TEXTSPLIT(C49,"|")</f>
+        <v>Vous êtes en poste dans un laboratoire. Vous constatez un déclenchement d’incendie. Dans le local se trouvent un extincteur rouge et un extincteur vert, lequel allez-vous utiliser pour éteindre le feu ?</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Rouge</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Vert</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Le rouge ou le vert, les 2 sont adaptés</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Aucun des deux</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="6"/>
+        <v>Vous êtes en poste, les pompiers arrivent sur le site sinistré. Vous êtes informé que la voie d’accès principale est bloquée par un camion stationné. Que faites-vous en priorité ?|J’appelle les personnels de l’usine, au point de rassemblement, pour déplacer le véhicule|J’appelle la fourrière|Je propose aux pompiers d’emprunter un autre accès qui est libre|J’autorise les pompiers à pousser le camion, ils en ont l’obligation|Aucune des réponses précédentes</v>
+      </c>
+      <c r="D50" t="str" cm="1">
+        <f t="array" ref="D50:I50">_xlfn.TEXTSPLIT(C50,"|")</f>
+        <v>Vous êtes en poste, les pompiers arrivent sur le site sinistré. Vous êtes informé que la voie d’accès principale est bloquée par un camion stationné. Que faites-vous en priorité ?</v>
+      </c>
+      <c r="E50" t="str">
+        <v>J’appelle les personnels de l’usine, au point de rassemblement, pour déplacer le véhicule</v>
+      </c>
+      <c r="F50" t="str">
+        <v>J’appelle la fourrière</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Je propose aux pompiers d’emprunter un autre accès qui est libre</v>
+      </c>
+      <c r="H50" t="str">
+        <v>J’autorise les pompiers à pousser le camion, ils en ont l’obligation</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Aucune des réponses précédentes</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="6"/>
+        <v>Dans quel cas doit-on redouter un permis de feu ?|Lors de l’utilisation d’un véhicule muni d’un moteur|À l’occasion de travaux par points chauds|À la mise en place d’une zone fumeur|Lors de la mise en fonctionnement du groupe électrogène|Aucune des réponses précédentes</v>
+      </c>
+      <c r="D51" t="str" cm="1">
+        <f t="array" ref="D51:I51">_xlfn.TEXTSPLIT(C51,"|")</f>
+        <v>Dans quel cas doit-on redouter un permis de feu ?</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Lors de l’utilisation d’un véhicule muni d’un moteur</v>
+      </c>
+      <c r="F51" t="str">
+        <v>À l’occasion de travaux par points chauds</v>
+      </c>
+      <c r="G51" t="str">
+        <v>À la mise en place d’une zone fumeur</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Lors de la mise en fonctionnement du groupe électrogène</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Aucune des réponses précédentes</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="6"/>
+        <v>Sur votre centrale incendie, un voyant rouge allumé signifie :|Un dérangement ou une anomalie|Que la centrale incendie est bien sous tension|Une alarme incendie|Que tout va bien dans l’établissement|Aucune des réponses précédentes</v>
+      </c>
+      <c r="D52" t="str" cm="1">
+        <f t="array" ref="D52:I52">_xlfn.TEXTSPLIT(C52,"|")</f>
+        <v>Sur votre centrale incendie, un voyant rouge allumé signifie :</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Un dérangement ou une anomalie</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Que la centrale incendie est bien sous tension</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Une alarme incendie</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Que tout va bien dans l’établissement</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Aucune des réponses précédentes</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="6"/>
+        <v>Comment agit un extincteur à eau sur le feu ?|Par étouffement|Par soufflement|Par refroidissement|Par inhibition|Aucune des réponses précédentes</v>
+      </c>
+      <c r="D53" t="str" cm="1">
+        <f t="array" ref="D53:I53">_xlfn.TEXTSPLIT(C53,"|")</f>
+        <v>Comment agit un extincteur à eau sur le feu ?</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Par étouffement</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Par soufflement</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Par refroidissement</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Par inhibition</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Aucune des réponses précédentes</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="6"/>
+        <v>Vous intervenez sur un feu d’armoire électrique. Quel extincteur utilisez-vous de préférence ?|Un extincteur à poudre|Un extincteur au CO₂|Un extincteur à eau|Une douche portative|Aucune des réponses précédentes</v>
+      </c>
+      <c r="D54" t="str" cm="1">
+        <f t="array" ref="D54:I54">_xlfn.TEXTSPLIT(C54,"|")</f>
+        <v>Vous intervenez sur un feu d’armoire électrique. Quel extincteur utilisez-vous de préférence ?</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Un extincteur à poudre</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Un extincteur au CO₂</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Un extincteur à eau</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Une douche portative</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Aucune des réponses précédentes</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="6"/>
+        <v>Une des causes de départ de feu peut être ?|Les causes surnaturelles|Les causes humaines|Les causes législatives|Les causes perdues|Aucune des autres réponses</v>
+      </c>
+      <c r="D55" t="str" cm="1">
+        <f t="array" ref="D55:I55">_xlfn.TEXTSPLIT(C55,"|")</f>
+        <v>Une des causes de départ de feu peut être ?</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Les causes surnaturelles</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Les causes humaines</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Les causes législatives</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Les causes perdues</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="6"/>
+        <v>Quelle est la fonction de l’E.C.S. ?|De collecter les informations provenant des détecteurs volumétriques|De mettre en sécurité le bâtiment|De collecter les informations provenant des DAI et des DM|De fournir de l’Eau Conditionnée Suffisante|Aucune des autres réponses</v>
+      </c>
+      <c r="D56" t="str" cm="1">
+        <f t="array" ref="D56:I56">_xlfn.TEXTSPLIT(C56,"|")</f>
+        <v>Quelle est la fonction de l’E.C.S. ?</v>
+      </c>
+      <c r="E56" t="str">
+        <v>De collecter les informations provenant des détecteurs volumétriques</v>
+      </c>
+      <c r="F56" t="str">
+        <v>De mettre en sécurité le bâtiment</v>
+      </c>
+      <c r="G56" t="str">
+        <v>De collecter les informations provenant des DAI et des DM</v>
+      </c>
+      <c r="H56" t="str">
+        <v>De fournir de l’Eau Conditionnée Suffisante</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="6"/>
+        <v>Le feu d’origine électrique est un feu de classe :|A|B|C|Aucune des autres réponses|E</v>
+      </c>
+      <c r="D57" t="str" cm="1">
+        <f t="array" ref="D57:I57">_xlfn.TEXTSPLIT(C57,"|")</f>
+        <v>Le feu d’origine électrique est un feu de classe :</v>
+      </c>
+      <c r="E57" t="str">
+        <v>A</v>
+      </c>
+      <c r="F57" t="str">
+        <v>B</v>
+      </c>
+      <c r="G57" t="str">
+        <v>C</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+      <c r="I57" t="str">
+        <v>E</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="6"/>
+        <v>À quoi sert l’alarme générale sélective ?|À prévenir une catégorie de personnel|À informer le PC pour effectuer une levée de doute|À informer le directeur|À informer les pompiers|Aucune des autres réponses</v>
+      </c>
+      <c r="D58" t="str" cm="1">
+        <f t="array" ref="D58:I58">_xlfn.TEXTSPLIT(C58,"|")</f>
+        <v>À quoi sert l’alarme générale sélective ?</v>
+      </c>
+      <c r="E58" t="str">
+        <v>À prévenir une catégorie de personnel</v>
+      </c>
+      <c r="F58" t="str">
+        <v>À informer le PC pour effectuer une levée de doute</v>
+      </c>
+      <c r="G58" t="str">
+        <v>À informer le directeur</v>
+      </c>
+      <c r="H58" t="str">
+        <v>À informer les pompiers</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="6"/>
+        <v>Qu’est-ce qui caractérise un extincteur à CO₂ ?|Son manomètre|Sa couleur|Son tromblon|Sa forme ronde|Aucune des autres réponses</v>
+      </c>
+      <c r="D59" t="str" cm="1">
+        <f t="array" ref="D59:I59">_xlfn.TEXTSPLIT(C59,"|")</f>
+        <v>Qu’est-ce qui caractérise un extincteur à CO₂ ?</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Son manomètre</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Sa couleur</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Son tromblon</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Sa forme ronde</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="6"/>
+        <v>Un extincteur au CO₂ est-il un extincteur à pression permanente ?|Oui|Oui s’il est muni d’un densimètre|Non|Non il est rechargeable|Aucune des autres réponses</v>
+      </c>
+      <c r="D60" t="str" cm="1">
+        <f t="array" ref="D60:I60">_xlfn.TEXTSPLIT(C60,"|")</f>
+        <v>Un extincteur au CO₂ est-il un extincteur à pression permanente ?</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Oui</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Oui s’il est muni d’un densimètre</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Non</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Non il est rechargeable</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="6"/>
+        <v>Vous êtes en poste au PC sécurité et une Alarme Incendie retentit :|Vous arrêtez immédiatement le signal sonore et réarmez la zone. Ce n’est sûrement rien, comme d’habitude|Vous fixez ce que vous faisiez. Vous agissez toujours le temps d’envoyer le rondier à son retour de ronde|Vous contactez sur le champ votre collègue pour qu’il effectue immédiatement une levée de doute sur zone|Vous appuyez sur l’évacuation générale pour être sûr que tout le monde évacue|Aucune des réponses précédentes</v>
+      </c>
+      <c r="D61" t="str" cm="1">
+        <f t="array" ref="D61:I61">_xlfn.TEXTSPLIT(C61,"|")</f>
+        <v>Vous êtes en poste au PC sécurité et une Alarme Incendie retentit :</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Vous arrêtez immédiatement le signal sonore et réarmez la zone. Ce n’est sûrement rien, comme d’habitude</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Vous fixez ce que vous faisiez. Vous agissez toujours le temps d’envoyer le rondier à son retour de ronde</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Vous contactez sur le champ votre collègue pour qu’il effectue immédiatement une levée de doute sur zone</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Vous appuyez sur l’évacuation générale pour être sûr que tout le monde évacue</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Aucune des réponses précédentes</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="6"/>
+        <v>Quelle est la première action d’un APS lors d’un déclenchement d’une alarme incendie ?|Faire une levée de doute|Appeler les pompiers|Arrêter le signal sonore|Réarmer le SSI|Aucune des réponses précédentes</v>
+      </c>
+      <c r="D62" t="str" cm="1">
+        <f t="array" ref="D62:I62">_xlfn.TEXTSPLIT(C62,"|")</f>
+        <v>Quelle est la première action d’un APS lors d’un déclenchement d’une alarme incendie ?</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Faire une levée de doute</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Appeler les pompiers</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Arrêter le signal sonore</v>
+      </c>
+      <c r="H62" t="str">
+        <v>Réarmer le SSI</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Aucune des réponses précédentes</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="6"/>
+        <v>Combien de types de pressions différentes trouve-t-on sur un extincteur ?|Aucun|Une|Deux|Quatre|Aucune des autres réponses</v>
+      </c>
+      <c r="D63" t="str" cm="1">
+        <f t="array" ref="D63:I63">_xlfn.TEXTSPLIT(C63,"|")</f>
+        <v>Combien de types de pressions différentes trouve-t-on sur un extincteur ?</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Aucun</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Une</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Deux</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Quatre</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="6"/>
+        <v>En cas de départ de feu, quelle doit être l’attitude de l’agent de sécurité ?|Tenter l’extinction du départ de feu|Ouvrir les portes et les fenêtres avant d’évacuer|Récupérer toutes mes affaires avant d’évacuer|Attendre l’arrivée des pompiers pour évacuer|Aucune des autres réponses</v>
+      </c>
+      <c r="D64" t="str" cm="1">
+        <f t="array" ref="D64:I64">_xlfn.TEXTSPLIT(C64,"|")</f>
+        <v>En cas de départ de feu, quelle doit être l’attitude de l’agent de sécurité ?</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Tenter l’extinction du départ de feu</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Ouvrir les portes et les fenêtres avant d’évacuer</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Récupérer toutes mes affaires avant d’évacuer</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Attendre l’arrivée des pompiers pour évacuer</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="6"/>
+        <v>Quel cas utilise-t-on de préférence un extincteur à eau pulvérisé ?|Feu d’origine électrique|Feu de poubelles|Feu d’essence|Feu de métaux|Aucune des autres réponses</v>
+      </c>
+      <c r="D65" t="str" cm="1">
+        <f t="array" ref="D65:I65">_xlfn.TEXTSPLIT(C65,"|")</f>
+        <v>Quel cas utilise-t-on de préférence un extincteur à eau pulvérisé ?</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Feu d’origine électrique</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Feu de poubelles</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Feu d’essence</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Feu de métaux</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="6"/>
+        <v>Que désigne un E.R.P. ?|Établissement Recevant le Président|Établissement Recevant du Personnel|Établissement Recevant du Public|Établissement Recevant le Plus grand nombre|Aucune des autres réponses</v>
+      </c>
+      <c r="D66" t="str" cm="1">
+        <f t="array" ref="D66:I66">_xlfn.TEXTSPLIT(C66,"|")</f>
+        <v>Que désigne un E.R.P. ?</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Établissement Recevant le Président</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Établissement Recevant du Personnel</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Établissement Recevant du Public</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Établissement Recevant le Plus grand nombre</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="6"/>
+        <v>Un extincteur au CO₂ est-il un extincteur à pression auxiliaire ?|Oui|Oui s’il est muni d’un anémomètre|Non |Non s’il est rechargeable|Aucune des autres réponses</v>
+      </c>
+      <c r="D67" t="str" cm="1">
+        <f t="array" ref="D67:I67">_xlfn.TEXTSPLIT(C67,"|")</f>
+        <v>Un extincteur au CO₂ est-il un extincteur à pression auxiliaire ?</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Oui</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Oui s’il est muni d’un anémomètre</v>
+      </c>
+      <c r="G67" t="str">
+        <v xml:space="preserve">Non </v>
+      </c>
+      <c r="H67" t="str">
+        <v>Non s’il est rechargeable</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="6"/>
+        <v>Qu’est-ce qu’un I.G.H. ?|Immeuble de Groupement Habilité|Installation de Grande Hauteur|Installation Grandement Habilitée|Immeuble de Grande Hauteur|Aucune des autres réponses</v>
+      </c>
+      <c r="D68" t="str" cm="1">
+        <f t="array" ref="D68:I68">_xlfn.TEXTSPLIT(C68,"|")</f>
+        <v>Qu’est-ce qu’un I.G.H. ?</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Immeuble de Groupement Habilité</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Installation de Grande Hauteur</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Installation Grandement Habilitée</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Immeuble de Grande Hauteur</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="6"/>
+        <v>Un DAI à clé sollicité, comment se nomme l’alarme qui sonne au PCS ?|Alarme intrusion|Alarme restreinte|Alarme générale sélective|Alarme générale|Aucune des autres réponses</v>
+      </c>
+      <c r="D69" t="str" cm="1">
+        <f t="array" ref="D69:I69">_xlfn.TEXTSPLIT(C69,"|")</f>
+        <v>Un DAI à clé sollicité, comment se nomme l’alarme qui sonne au PCS ?</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Alarme intrusion</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Alarme restreinte</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Alarme générale sélective</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Alarme générale</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="6"/>
+        <v>Quel élément fait partie du triangle du feu ?|Le refroidissement|La combustion|La conduction|Le comburant|Aucune des autres réponses</v>
+      </c>
+      <c r="D70" t="str" cm="1">
+        <f t="array" ref="D70:I70">_xlfn.TEXTSPLIT(C70,"|")</f>
+        <v>Quel élément fait partie du triangle du feu ?</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Le refroidissement</v>
+      </c>
+      <c r="F70" t="str">
+        <v>La combustion</v>
+      </c>
+      <c r="G70" t="str">
+        <v>La conduction</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Le comburant</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="6"/>
+        <v>Combien y a-t-il de classes de feu ?|Une|Deux|Cinq|Six|Aucune des autres réponses</v>
+      </c>
+      <c r="D71" t="str" cm="1">
+        <f t="array" ref="D71:I71">_xlfn.TEXTSPLIT(C71,"|")</f>
+        <v>Combien y a-t-il de classes de feu ?</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Une</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Deux</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Cinq</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Six</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="6"/>
+        <v>Quelle est la distance d’attaque préconisée d’un extincteur à eau ?|Environ 1 mètre|De 2 à 3 mètres|De 3 à 4 mètres|De 6 à 7 mètres|Aucune des autres réponses</v>
+      </c>
+      <c r="D72" t="str" cm="1">
+        <f t="array" ref="D72:I72">_xlfn.TEXTSPLIT(C72,"|")</f>
+        <v>Quelle est la distance d’attaque préconisée d’un extincteur à eau ?</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Environ 1 mètre</v>
+      </c>
+      <c r="F72" t="str">
+        <v>De 2 à 3 mètres</v>
+      </c>
+      <c r="G72" t="str">
+        <v>De 3 à 4 mètres</v>
+      </c>
+      <c r="H72" t="str">
+        <v>De 6 à 7 mètres</v>
+      </c>
+      <c r="I72" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="6"/>
+        <v>Vous effectuez une ronde, un ouvrier d’une société extérieure réalise des travaux par points chauds. À priori, vous n’avez ni consignes, ni permis feu. Que faites-vous ?|Je contacte le PC sécurité pour demander la conduite à tenir|Je passe mon chemin pour laisser l’ouvrier faire son travail|Je contacte le PCS pour vérification et selon consigne je fais cesser les travaux|Je verbalise l’ouvrier contrevenant|Aucune des autres réponses</v>
+      </c>
+      <c r="D73" t="str" cm="1">
+        <f t="array" ref="D73:I73">_xlfn.TEXTSPLIT(C73,"|")</f>
+        <v>Vous effectuez une ronde, un ouvrier d’une société extérieure réalise des travaux par points chauds. À priori, vous n’avez ni consignes, ni permis feu. Que faites-vous ?</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Je contacte le PC sécurité pour demander la conduite à tenir</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Je passe mon chemin pour laisser l’ouvrier faire son travail</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Je contacte le PCS pour vérification et selon consigne je fais cesser les travaux</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Je verbalise l’ouvrier contrevenant</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="6"/>
+        <v>Lors de la mise en place d’un permis feu, quelles consignes sont importantes à confier à l’exécutant ?|Aveugler les ouvertures, interstices, fissures, …|Dégager largement la zone de travail de tout matériel combustible ou inflammable|Prendre toute disposition pour éviter le déclenchement du système de détection incendie|Surveiller les projections incandescentes et les points de chute pendant le travail|Toutes ces consignes sont à prendre en compte</v>
+      </c>
+      <c r="D74" t="str" cm="1">
+        <f t="array" ref="D74:I74">_xlfn.TEXTSPLIT(C74,"|")</f>
+        <v>Lors de la mise en place d’un permis feu, quelles consignes sont importantes à confier à l’exécutant ?</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Aveugler les ouvertures, interstices, fissures, …</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Dégager largement la zone de travail de tout matériel combustible ou inflammable</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Prendre toute disposition pour éviter le déclenchement du système de détection incendie</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Surveiller les projections incandescentes et les points de chute pendant le travail</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Toutes ces consignes sont à prendre en compte</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="6"/>
+        <v>Est-il possible qu’un feu s’éteigne en supprimant un des éléments du triangle du feu ?|Oui|Oui si les conditions météorologiques sont favorables|Non |Non, sans le savoir-faire d’un expert métier|Aucune des autres réponses</v>
+      </c>
+      <c r="D75" t="str" cm="1">
+        <f t="array" ref="D75:I75">_xlfn.TEXTSPLIT(C75,"|")</f>
+        <v>Est-il possible qu’un feu s’éteigne en supprimant un des éléments du triangle du feu ?</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Oui</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Oui si les conditions météorologiques sont favorables</v>
+      </c>
+      <c r="G75" t="str">
+        <v xml:space="preserve">Non </v>
+      </c>
+      <c r="H75" t="str">
+        <v>Non, sans le savoir-faire d’un expert métier</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="6"/>
+        <v>En cas de départ de feu, quelle doit être l’attitude des occupants ? |Fermer les portes et les fenêtres en évacuant|Ouvrir les portes et les fenêtres avant d’évacuer|Récupérer toutes mes affaires avant d’évacuer|Attendre l’arrivée des pompiers pour évacuer|Aucune des autres réponses</v>
+      </c>
+      <c r="D76" t="str" cm="1">
+        <f t="array" ref="D76:I76">_xlfn.TEXTSPLIT(C76,"|")</f>
+        <v xml:space="preserve">En cas de départ de feu, quelle doit être l’attitude des occupants ? </v>
+      </c>
+      <c r="E76" t="str">
+        <v>Fermer les portes et les fenêtres en évacuant</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Ouvrir les portes et les fenêtres avant d’évacuer</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Récupérer toutes mes affaires avant d’évacuer</v>
+      </c>
+      <c r="H76" t="str">
+        <v>Attendre l’arrivée des pompiers pour évacuer</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="6"/>
+        <v>Quels sont les éléments indispensables à la combustion ?|Une propagation, un carburant, un combustible|Du liquide, du vent, du carburant|Un combustible, un comburant, une énergie d’activation|Un vent, une étincelle, une matière inflammable|Aucune des autres réponses</v>
+      </c>
+      <c r="D77" t="str" cm="1">
+        <f t="array" ref="D77:I77">_xlfn.TEXTSPLIT(C77,"|")</f>
+        <v>Quels sont les éléments indispensables à la combustion ?</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Une propagation, un carburant, un combustible</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Du liquide, du vent, du carburant</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Un combustible, un comburant, une énergie d’activation</v>
+      </c>
+      <c r="H77" t="str">
+        <v>Un vent, une étincelle, une matière inflammable</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="6"/>
+        <v>Que signifie le terme R.I.A. ? |Robinet d’intervention alimenté|Robinet d’incident arrimé|Robinet d’incident armé|Robinet d’incendie armé|Aucune des autres réponses</v>
+      </c>
+      <c r="D78" t="str" cm="1">
+        <f t="array" ref="D78:I78">_xlfn.TEXTSPLIT(C78,"|")</f>
+        <v xml:space="preserve">Que signifie le terme R.I.A. ? </v>
+      </c>
+      <c r="E78" t="str">
+        <v>Robinet d’intervention alimenté</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Robinet d’incident arrimé</v>
+      </c>
+      <c r="G78" t="str">
+        <v>Robinet d’incident armé</v>
+      </c>
+      <c r="H78" t="str">
+        <v>Robinet d’incendie armé</v>
+      </c>
+      <c r="I78" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="6"/>
+        <v>L’air est composé environ à 21% :|D’azote|D’oxygène|De dioxyde de carbone|De gaz rares|Aucune des autres réponses</v>
+      </c>
+      <c r="D79" t="str" cm="1">
+        <f t="array" ref="D79:I79">_xlfn.TEXTSPLIT(C79,"|")</f>
+        <v>L’air est composé environ à 21% :</v>
+      </c>
+      <c r="E79" t="str">
+        <v>D’azote</v>
+      </c>
+      <c r="F79" t="str">
+        <v>D’oxygène</v>
+      </c>
+      <c r="G79" t="str">
+        <v>De dioxyde de carbone</v>
+      </c>
+      <c r="H79" t="str">
+        <v>De gaz rares</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="6"/>
+        <v>La classe de feu F concerne :|Les feux de forêts|Les feux de dépôt graisseux servant d’auxiliaires de cuisson|Les feux de liquides incombustibles|Rien car cette classe n’existe pas|Aucune des autres réponses</v>
+      </c>
+      <c r="D80" t="str" cm="1">
+        <f t="array" ref="D80:I80">_xlfn.TEXTSPLIT(C80,"|")</f>
+        <v>La classe de feu F concerne :</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Les feux de forêts</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Les feux de dépôt graisseux servant d’auxiliaires de cuisson</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Les feux de liquides incombustibles</v>
+      </c>
+      <c r="H80" t="str">
+        <v>Rien car cette classe n’existe pas</v>
+      </c>
+      <c r="I80" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="6"/>
+        <v>Vous effectuez une ronde, un ouvrier d’une société extérieure réalise des travaux par points chauds. Vous n’avez ni consigne, ni permis feu. Que faites-vous ?|Je contacte le PC sécurité pour demander la conduite à tenir|Je passe mon chemin pour laisser l’ouvrier faire son travail|Je fais cesser immédiatement les travaux avant de prendre des renseignements auprès du PC sécurité|Je verbalise l’ouvrier contrevenant|Aucune des autres réponses</v>
+      </c>
+      <c r="D81" t="str" cm="1">
+        <f t="array" ref="D81:I81">_xlfn.TEXTSPLIT(C81,"|")</f>
+        <v>Vous effectuez une ronde, un ouvrier d’une société extérieure réalise des travaux par points chauds. Vous n’avez ni consigne, ni permis feu. Que faites-vous ?</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Je contacte le PC sécurité pour demander la conduite à tenir</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Je passe mon chemin pour laisser l’ouvrier faire son travail</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Je fais cesser immédiatement les travaux avant de prendre des renseignements auprès du PC sécurité</v>
+      </c>
+      <c r="H81" t="str">
+        <v>Je verbalise l’ouvrier contrevenant</v>
+      </c>
+      <c r="I81" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="6"/>
+        <v>Les travaux par points chauds ont lieu dans votre établissement. Le service de sécurité quitte l’établissement qui n’est donc plus sous sa surveillance à partir de 21h. À quelle heure maximum les travaux doivent-ils cesser ?|17h|18h|19h|20h|21h</v>
+      </c>
+      <c r="D82" t="str" cm="1">
+        <f t="array" ref="D82:I82">_xlfn.TEXTSPLIT(C82,"|")</f>
+        <v>Les travaux par points chauds ont lieu dans votre établissement. Le service de sécurité quitte l’établissement qui n’est donc plus sous sa surveillance à partir de 21h. À quelle heure maximum les travaux doivent-ils cesser ?</v>
+      </c>
+      <c r="E82" t="str">
+        <v>17h</v>
+      </c>
+      <c r="F82" t="str">
+        <v>18h</v>
+      </c>
+      <c r="G82" t="str">
+        <v>19h</v>
+      </c>
+      <c r="H82" t="str">
+        <v>20h</v>
+      </c>
+      <c r="I82" t="str">
+        <v>21h</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TFP_APS_Questions_QCU_Reel_2025.xlsx
+++ b/TFP_APS_Questions_QCU_Reel_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/Questions_TFP_APS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E37D5177-6591-4A6E-B740-5D115A18AA15}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65D1A5F7-4F37-418C-82B4-8B678AAB5180}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="764">
   <si>
     <t>UV</t>
   </si>
@@ -2850,12 +2850,244 @@
   <si>
     <t>40</t>
   </si>
+  <si>
+    <r>
+      <t>1 – Quel est le seuil fixé par le Code de la Sécurité Intérieure, concernant l’obligation de palpation de sécurité des manifestations ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Pour l’accès aux enceintes dans lesquelles est organisée une manifestation, rassemblant moins de 300 spectateurs|Pour l’accès aux enceintes dans lesquelles sont organisées des manifestations rassemblant plus de 300 spectateurs|Pour l’accès aux enceintes dans lesquelles est organisée une manifestation rassemblant de 150 à 200 spectateurs|Pour l’accès aux enceintes dans lesquelles est organisée une manifestation rassemblant plus de 1500 spectateurs|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 – Quelles sont les méthodes pour les agents féminins pour effectuer des vérifications de sécurité sur des hommes qui sont au contrôle d’accès :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|La fouille à corps uniquement avec le consentement de la personne|La fouille au corps|L’utilisation du magnétomètre|Les palpations de sécurité|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 – Qu’est-ce qu’une palpation de sécurité ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Le fait d’appliquer les mains par-dessus les vêtements d’une personne afin de déceler tout objet interdit ou susceptible d’être dangereux pour autrui|Le fait de chercher dans les poches des vêtements d’un individu une arme ou tout objet dangereux|Le fait de vérifier sur les membres d’une victime l’absence de saignement|Le fait de mettre les mains dans un sac pour vérifier l’absence de tout objet interdit ou susceptible d’être dangereux pour autrui|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4 – D’après le Code de la Sécurité Intérieure, quelles conditions devez-vous respecter pour effectuer une palpation de sécurité lorsqu’un périmètre de protection a été institué ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Détenir l’agrément du préfet et effectuer la palpation sur une personne de même sexe avec son accord|Détenir l’agrément du préfet, l’habilitation de l’employeur et effectuer la palpation sur n’importe quelle personne|Détenir l’agrément du préfet|Être désigné par son employeur pour effectuer la palpation sur une personne de même sexe avec son accord et sous la responsabilité d’un OPJ|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5 – Suite à une appréhension en flagrant délit pour vol, je vois que l’individu possède un couteau dans sa poche de blouson. Que dois-je faire ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Je menotte l’individu pour qu’il ne puisse faire usage de son arme|Je peux saisir d’autorité l’arme par mesure de sécurité|Je ne peux pas saisir d’autorité l’arme car ce serait assimilé à une réquisition|Je demande à l’individu de bien vouloir poser délicatement et en sécurité le couteau au sol|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6 – Lors de palpations de sécurité en vue d’accéder aux manifestations, la formulation « sous le contrôle d’un OPJ » signifie :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Qu’un OPJ peut désigner un Agent de Police Judiciaire adjoint pour le représenter|Qu’un nombre d’OPJ proportionné au nombre d’agents doit être présent|Qu’un OPJ doit être obligatoirement présent sur les lieux de la manifestation|La désignation d’un OPJ par le Préfet et sa situation d’astreinte|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7 – Les consignes vous demandent d’effectuer des palpations lors d’une manifestation artistique réunissant plus de 20 000 personnes, que faites-vous ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Vous lui demandez s’il a une autorisation préfectorale|Vous lui demandez s’il dispose d’une autorisation du CNAPS en cas de circonstances exceptionnelles|Vous acceptez car votre employeur a engagé sa responsabilité et que ces palpations s’effectuent sous le contrôle d’un OPJ|Vous rappelez que vous n’avez pas d’agrément du CNAPS et que vous n’avez pas le droit de le faire|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8 – Pour procéder à des palpations de sécurité dans les enceintes de manifestations sportives, les employés des entreprises de surveillance et de gardiennage doivent :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Rien est nécessaire hormis être désigné par son employeur|Avoir été habilités par leur employeur puis agréés par le préfet du département|Avoir été habilités par leur employeur puis agréés par la C.L.A.C.|Avoir été agréés par la commission internationale suite à l’envoi d’un dossier par l’organisateur de la manifestation|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <t>Quel est le seuil fixé par le Code de la Sécurité Intérieure, concernant l’obligation de palpation de sécurité des manifestations ?</t>
+  </si>
+  <si>
+    <t>Pour l’accès aux enceintes dans lesquelles est organisée une manifestation, rassemblant moins de 300 spectateurs</t>
+  </si>
+  <si>
+    <t>Pour l’accès aux enceintes dans lesquelles sont organisées des manifestations rassemblant plus de 300 spectateurs</t>
+  </si>
+  <si>
+    <t>Pour l’accès aux enceintes dans lesquelles est organisée une manifestation rassemblant de 150 à 200 spectateurs</t>
+  </si>
+  <si>
+    <t>Pour l’accès aux enceintes dans lesquelles est organisée une manifestation rassemblant plus de 1500 spectateurs</t>
+  </si>
+  <si>
+    <t>Quelles sont les méthodes pour les agents féminins pour effectuer des vérifications de sécurité sur des hommes qui sont au contrôle d’accès :</t>
+  </si>
+  <si>
+    <t>La fouille à corps uniquement avec le consentement de la personne</t>
+  </si>
+  <si>
+    <t>La fouille au corps</t>
+  </si>
+  <si>
+    <t>L’utilisation du magnétomètre</t>
+  </si>
+  <si>
+    <t>Les palpations de sécurité</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’une palpation de sécurité ?</t>
+  </si>
+  <si>
+    <t>Le fait d’appliquer les mains par-dessus les vêtements d’une personne afin de déceler tout objet interdit ou susceptible d’être dangereux pour autrui</t>
+  </si>
+  <si>
+    <t>Le fait de chercher dans les poches des vêtements d’un individu une arme ou tout objet dangereux</t>
+  </si>
+  <si>
+    <t>Le fait de vérifier sur les membres d’une victime l’absence de saignement</t>
+  </si>
+  <si>
+    <t>Le fait de mettre les mains dans un sac pour vérifier l’absence de tout objet interdit ou susceptible d’être dangereux pour autrui</t>
+  </si>
+  <si>
+    <t>D’après le Code de la Sécurité Intérieure, quelles conditions devez-vous respecter pour effectuer une palpation de sécurité lorsqu’un périmètre de protection a été institué ?</t>
+  </si>
+  <si>
+    <t>Détenir l’agrément du préfet et effectuer la palpation sur une personne de même sexe avec son accord</t>
+  </si>
+  <si>
+    <t>Détenir l’agrément du préfet, l’habilitation de l’employeur et effectuer la palpation sur n’importe quelle personne</t>
+  </si>
+  <si>
+    <t>Détenir l’agrément du préfet</t>
+  </si>
+  <si>
+    <t>Être désigné par son employeur pour effectuer la palpation sur une personne de même sexe avec son accord et sous la responsabilité d’un OPJ</t>
+  </si>
+  <si>
+    <t>Suite à une appréhension en flagrant délit pour vol, je vois que l’individu possède un couteau dans sa poche de blouson. Que dois-je faire ?</t>
+  </si>
+  <si>
+    <t>Je menotte l’individu pour qu’il ne puisse faire usage de son arme</t>
+  </si>
+  <si>
+    <t>Je peux saisir d’autorité l’arme par mesure de sécurité</t>
+  </si>
+  <si>
+    <t>Je ne peux pas saisir d’autorité l’arme car ce serait assimilé à une réquisition</t>
+  </si>
+  <si>
+    <t>Je demande à l’individu de bien vouloir poser délicatement et en sécurité le couteau au sol</t>
+  </si>
+  <si>
+    <t>Lors de palpations de sécurité en vue d’accéder aux manifestations, la formulation « sous le contrôle d’un OPJ » signifie :</t>
+  </si>
+  <si>
+    <t>Qu’un OPJ peut désigner un Agent de Police Judiciaire adjoint pour le représenter</t>
+  </si>
+  <si>
+    <t>Qu’un nombre d’OPJ proportionné au nombre d’agents doit être présent</t>
+  </si>
+  <si>
+    <t>Qu’un OPJ doit être obligatoirement présent sur les lieux de la manifestation</t>
+  </si>
+  <si>
+    <t>La désignation d’un OPJ par le Préfet et sa situation d’astreinte</t>
+  </si>
+  <si>
+    <t>Les consignes vous demandent d’effectuer des palpations lors d’une manifestation artistique réunissant plus de 20 000 personnes, que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Vous lui demandez s’il a une autorisation préfectorale</t>
+  </si>
+  <si>
+    <t>Vous lui demandez s’il dispose d’une autorisation du CNAPS en cas de circonstances exceptionnelles</t>
+  </si>
+  <si>
+    <t>Vous acceptez car votre employeur a engagé sa responsabilité et que ces palpations s’effectuent sous le contrôle d’un OPJ</t>
+  </si>
+  <si>
+    <t>Vous rappelez que vous n’avez pas d’agrément du CNAPS et que vous n’avez pas le droit de le faire</t>
+  </si>
+  <si>
+    <t>Pour procéder à des palpations de sécurité dans les enceintes de manifestations sportives, les employés des entreprises de surveillance et de gardiennage doivent :</t>
+  </si>
+  <si>
+    <t>Rien est nécessaire hormis être désigné par son employeur</t>
+  </si>
+  <si>
+    <t>Avoir été habilités par leur employeur puis agréés par le préfet du département</t>
+  </si>
+  <si>
+    <t>Avoir été habilités par leur employeur puis agréés par la C.L.A.C.</t>
+  </si>
+  <si>
+    <t>Avoir été agréés par la commission internationale suite à l’envoi d’un dossier par l’organisateur de la manifestation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2927,6 +3159,13 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2982,7 +3221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3021,6 +3260,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3351,6 +3593,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228962</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>181008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A68794-9778-CD9C-B081-3E7E95DDD99E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15916275" y="22421850"/>
+          <a:ext cx="2591162" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3639,10 +3925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A116" sqref="A77:XFD116"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7125,6 +7411,238 @@
       </c>
       <c r="J116" s="10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8267,10 +8785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18582157-25E0-434E-AB6B-01FE38A60B37}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:I82"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9539,7 +10057,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" t="e">
-        <f t="shared" ref="B42:B82" si="5">FIND(" - ",A42)</f>
+        <f t="shared" ref="B42" si="5">FIND(" - ",A42)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C42" t="e">
@@ -10828,8 +11346,261 @@
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ref="B84:B91" si="8">FIND(" – ",A84)</f>
+        <v>2</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" ref="C84:C91" si="9">RIGHT(A84, LEN(A84)-(B84+2))</f>
+        <v>Quel est le seuil fixé par le Code de la Sécurité Intérieure, concernant l’obligation de palpation de sécurité des manifestations ?|Pour l’accès aux enceintes dans lesquelles est organisée une manifestation, rassemblant moins de 300 spectateurs|Pour l’accès aux enceintes dans lesquelles sont organisées des manifestations rassemblant plus de 300 spectateurs|Pour l’accès aux enceintes dans lesquelles est organisée une manifestation rassemblant de 150 à 200 spectateurs|Pour l’accès aux enceintes dans lesquelles est organisée une manifestation rassemblant plus de 1500 spectateurs|Aucune des autres réponses</v>
+      </c>
+      <c r="D84" t="str" cm="1">
+        <f t="array" ref="D84:I84">_xlfn.TEXTSPLIT(C84,"|")</f>
+        <v>Quel est le seuil fixé par le Code de la Sécurité Intérieure, concernant l’obligation de palpation de sécurité des manifestations ?</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Pour l’accès aux enceintes dans lesquelles est organisée une manifestation, rassemblant moins de 300 spectateurs</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Pour l’accès aux enceintes dans lesquelles sont organisées des manifestations rassemblant plus de 300 spectateurs</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Pour l’accès aux enceintes dans lesquelles est organisée une manifestation rassemblant de 150 à 200 spectateurs</v>
+      </c>
+      <c r="H84" t="str">
+        <v>Pour l’accès aux enceintes dans lesquelles est organisée une manifestation rassemblant plus de 1500 spectateurs</v>
+      </c>
+      <c r="I84" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="9"/>
+        <v>Quelles sont les méthodes pour les agents féminins pour effectuer des vérifications de sécurité sur des hommes qui sont au contrôle d’accès :|La fouille à corps uniquement avec le consentement de la personne|La fouille au corps|L’utilisation du magnétomètre|Les palpations de sécurité|Aucune des autres réponses</v>
+      </c>
+      <c r="D85" t="str" cm="1">
+        <f t="array" ref="D85:I85">_xlfn.TEXTSPLIT(C85,"|")</f>
+        <v>Quelles sont les méthodes pour les agents féminins pour effectuer des vérifications de sécurité sur des hommes qui sont au contrôle d’accès :</v>
+      </c>
+      <c r="E85" t="str">
+        <v>La fouille à corps uniquement avec le consentement de la personne</v>
+      </c>
+      <c r="F85" t="str">
+        <v>La fouille au corps</v>
+      </c>
+      <c r="G85" t="str">
+        <v>L’utilisation du magnétomètre</v>
+      </c>
+      <c r="H85" t="str">
+        <v>Les palpations de sécurité</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="9"/>
+        <v>Qu’est-ce qu’une palpation de sécurité ?|Le fait d’appliquer les mains par-dessus les vêtements d’une personne afin de déceler tout objet interdit ou susceptible d’être dangereux pour autrui|Le fait de chercher dans les poches des vêtements d’un individu une arme ou tout objet dangereux|Le fait de vérifier sur les membres d’une victime l’absence de saignement|Le fait de mettre les mains dans un sac pour vérifier l’absence de tout objet interdit ou susceptible d’être dangereux pour autrui|Aucune des autres réponses</v>
+      </c>
+      <c r="D86" t="str" cm="1">
+        <f t="array" ref="D86:I86">_xlfn.TEXTSPLIT(C86,"|")</f>
+        <v>Qu’est-ce qu’une palpation de sécurité ?</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Le fait d’appliquer les mains par-dessus les vêtements d’une personne afin de déceler tout objet interdit ou susceptible d’être dangereux pour autrui</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Le fait de chercher dans les poches des vêtements d’un individu une arme ou tout objet dangereux</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Le fait de vérifier sur les membres d’une victime l’absence de saignement</v>
+      </c>
+      <c r="H86" t="str">
+        <v>Le fait de mettre les mains dans un sac pour vérifier l’absence de tout objet interdit ou susceptible d’être dangereux pour autrui</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="9"/>
+        <v>D’après le Code de la Sécurité Intérieure, quelles conditions devez-vous respecter pour effectuer une palpation de sécurité lorsqu’un périmètre de protection a été institué ?|Détenir l’agrément du préfet et effectuer la palpation sur une personne de même sexe avec son accord|Détenir l’agrément du préfet, l’habilitation de l’employeur et effectuer la palpation sur n’importe quelle personne|Détenir l’agrément du préfet|Être désigné par son employeur pour effectuer la palpation sur une personne de même sexe avec son accord et sous la responsabilité d’un OPJ|Aucune des autres réponses</v>
+      </c>
+      <c r="D87" t="str" cm="1">
+        <f t="array" ref="D87:I87">_xlfn.TEXTSPLIT(C87,"|")</f>
+        <v>D’après le Code de la Sécurité Intérieure, quelles conditions devez-vous respecter pour effectuer une palpation de sécurité lorsqu’un périmètre de protection a été institué ?</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Détenir l’agrément du préfet et effectuer la palpation sur une personne de même sexe avec son accord</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Détenir l’agrément du préfet, l’habilitation de l’employeur et effectuer la palpation sur n’importe quelle personne</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Détenir l’agrément du préfet</v>
+      </c>
+      <c r="H87" t="str">
+        <v>Être désigné par son employeur pour effectuer la palpation sur une personne de même sexe avec son accord et sous la responsabilité d’un OPJ</v>
+      </c>
+      <c r="I87" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="9"/>
+        <v>Suite à une appréhension en flagrant délit pour vol, je vois que l’individu possède un couteau dans sa poche de blouson. Que dois-je faire ?|Je menotte l’individu pour qu’il ne puisse faire usage de son arme|Je peux saisir d’autorité l’arme par mesure de sécurité|Je ne peux pas saisir d’autorité l’arme car ce serait assimilé à une réquisition|Je demande à l’individu de bien vouloir poser délicatement et en sécurité le couteau au sol|Aucune des autres réponses</v>
+      </c>
+      <c r="D88" t="str" cm="1">
+        <f t="array" ref="D88:I88">_xlfn.TEXTSPLIT(C88,"|")</f>
+        <v>Suite à une appréhension en flagrant délit pour vol, je vois que l’individu possède un couteau dans sa poche de blouson. Que dois-je faire ?</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Je menotte l’individu pour qu’il ne puisse faire usage de son arme</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Je peux saisir d’autorité l’arme par mesure de sécurité</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Je ne peux pas saisir d’autorité l’arme car ce serait assimilé à une réquisition</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Je demande à l’individu de bien vouloir poser délicatement et en sécurité le couteau au sol</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="9"/>
+        <v>Lors de palpations de sécurité en vue d’accéder aux manifestations, la formulation « sous le contrôle d’un OPJ » signifie :|Qu’un OPJ peut désigner un Agent de Police Judiciaire adjoint pour le représenter|Qu’un nombre d’OPJ proportionné au nombre d’agents doit être présent|Qu’un OPJ doit être obligatoirement présent sur les lieux de la manifestation|La désignation d’un OPJ par le Préfet et sa situation d’astreinte|Aucune des autres réponses</v>
+      </c>
+      <c r="D89" t="str" cm="1">
+        <f t="array" ref="D89:I89">_xlfn.TEXTSPLIT(C89,"|")</f>
+        <v>Lors de palpations de sécurité en vue d’accéder aux manifestations, la formulation « sous le contrôle d’un OPJ » signifie :</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Qu’un OPJ peut désigner un Agent de Police Judiciaire adjoint pour le représenter</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Qu’un nombre d’OPJ proportionné au nombre d’agents doit être présent</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Qu’un OPJ doit être obligatoirement présent sur les lieux de la manifestation</v>
+      </c>
+      <c r="H89" t="str">
+        <v>La désignation d’un OPJ par le Préfet et sa situation d’astreinte</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="9"/>
+        <v>Les consignes vous demandent d’effectuer des palpations lors d’une manifestation artistique réunissant plus de 20 000 personnes, que faites-vous ?|Vous lui demandez s’il a une autorisation préfectorale|Vous lui demandez s’il dispose d’une autorisation du CNAPS en cas de circonstances exceptionnelles|Vous acceptez car votre employeur a engagé sa responsabilité et que ces palpations s’effectuent sous le contrôle d’un OPJ|Vous rappelez que vous n’avez pas d’agrément du CNAPS et que vous n’avez pas le droit de le faire|Aucune des autres réponses</v>
+      </c>
+      <c r="D90" t="str" cm="1">
+        <f t="array" ref="D90:I90">_xlfn.TEXTSPLIT(C90,"|")</f>
+        <v>Les consignes vous demandent d’effectuer des palpations lors d’une manifestation artistique réunissant plus de 20 000 personnes, que faites-vous ?</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Vous lui demandez s’il a une autorisation préfectorale</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Vous lui demandez s’il dispose d’une autorisation du CNAPS en cas de circonstances exceptionnelles</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Vous acceptez car votre employeur a engagé sa responsabilité et que ces palpations s’effectuent sous le contrôle d’un OPJ</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Vous rappelez que vous n’avez pas d’agrément du CNAPS et que vous n’avez pas le droit de le faire</v>
+      </c>
+      <c r="I90" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="9"/>
+        <v>Pour procéder à des palpations de sécurité dans les enceintes de manifestations sportives, les employés des entreprises de surveillance et de gardiennage doivent :|Rien est nécessaire hormis être désigné par son employeur|Avoir été habilités par leur employeur puis agréés par le préfet du département|Avoir été habilités par leur employeur puis agréés par la C.L.A.C.|Avoir été agréés par la commission internationale suite à l’envoi d’un dossier par l’organisateur de la manifestation|Aucune des autres réponses</v>
+      </c>
+      <c r="D91" t="str" cm="1">
+        <f t="array" ref="D91:I91">_xlfn.TEXTSPLIT(C91,"|")</f>
+        <v>Pour procéder à des palpations de sécurité dans les enceintes de manifestations sportives, les employés des entreprises de surveillance et de gardiennage doivent :</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Rien est nécessaire hormis être désigné par son employeur</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Avoir été habilités par leur employeur puis agréés par le préfet du département</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Avoir été habilités par leur employeur puis agréés par la C.L.A.C.</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Avoir été agréés par la commission internationale suite à l’envoi d’un dossier par l’organisateur de la manifestation</v>
+      </c>
+      <c r="I91" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TFP_APS_Questions_QCU_Reel_2025.xlsx
+++ b/TFP_APS_Questions_QCU_Reel_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/Questions_TFP_APS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65D1A5F7-4F37-418C-82B4-8B678AAB5180}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64111D0D-A7A9-477F-98F4-A7E7012D88FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_1x11d5k5io24" localSheetId="2">Feuil1!$A$26</definedName>
+    <definedName name="_25b71xk2i301" localSheetId="2">Feuil1!$A$109</definedName>
     <definedName name="_2k99lr79hl9i" localSheetId="2">Feuil1!$A$5</definedName>
     <definedName name="_2utln1nfnqsx" localSheetId="2">Feuil1!$A$2</definedName>
     <definedName name="_62p8mewzupdh" localSheetId="2">Feuil1!$A$9</definedName>
@@ -28,13 +29,17 @@
     <definedName name="_atn6jtpgu1zu" localSheetId="2">Feuil1!$A$6</definedName>
     <definedName name="_be1fc6ea00hk" localSheetId="2">Feuil1!$A$24</definedName>
     <definedName name="_e8p5frs5ytai" localSheetId="2">Feuil1!$A$3</definedName>
+    <definedName name="_eltq1ml39i8g" localSheetId="2">Feuil1!$A$110</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Liste_Questions!$A$1:$J$76</definedName>
     <definedName name="_g70xgby2qf4" localSheetId="2">Feuil1!$A$4</definedName>
     <definedName name="_g9qmie434sne" localSheetId="2">Feuil1!$A$10</definedName>
+    <definedName name="_hplm79wzz7gn" localSheetId="2">Feuil1!#REF!</definedName>
     <definedName name="_i84ik2pub0j3" localSheetId="2">Feuil1!$A$23</definedName>
     <definedName name="_nyqwx0jkl5qi" localSheetId="2">Feuil1!$A$33</definedName>
+    <definedName name="_p9wiu4shs9hc" localSheetId="2">Feuil1!$A$112</definedName>
     <definedName name="_tt764b9auzq8" localSheetId="2">Feuil1!$A$8</definedName>
     <definedName name="_u9haniwxsi9j" localSheetId="2">Feuil1!$A$16</definedName>
+    <definedName name="_vk618iff2ee1" localSheetId="2">Feuil1!$A$111</definedName>
     <definedName name="_wpn81467iw0b" localSheetId="2">Feuil1!$A$7</definedName>
     <definedName name="_xgrsy6hezdp9" localSheetId="2">Feuil1!$A$25</definedName>
     <definedName name="_yj4hh6ff2wx9" localSheetId="2">Feuil1!$A$28</definedName>
@@ -79,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="884">
   <si>
     <t>UV</t>
   </si>
@@ -2419,9 +2424,6 @@
     <t>J’autorise les pompiers à pousser le camion, ils en ont l’obligation</t>
   </si>
   <si>
-    <t>Dans quel cas doit-on redouter un permis de feu ?</t>
-  </si>
-  <si>
     <t>Lors de l’utilisation d’un véhicule muni d’un moteur</t>
   </si>
   <si>
@@ -3082,12 +3084,604 @@
   <si>
     <t>Avoir été agréés par la commission internationale suite à l’envoi d’un dossier par l’organisateur de la manifestation</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1 - La CNIL est :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|La Commission Nationale des Instances de Liberté|La Commission Nationale de l’Informatique et des Libertés|Le Conseil National sur l’Informatique et des Libertés|Le Comité National des Institutions pour les Libertés|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 - Quel est l’un des rôles de la CNIL ?|Autoriser le port d’armes numériques|Délivrer les cartes d’agrément vidéo protecteur|Lutter contre la Cyberdéfense|Protéger la vie privée et les libertés publiques|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 - Un agent rondier me demande de supprimer des images du système de télésurveillance correspondant à son arrivée en retard sur le site :|Étant un bon collègue de travail, sérieux et apprécié de tous, je le fais sans aucun problème|Aucun incident n’ayant été relevé à cet instant, je ne fais que libérer un peu de place sur le disque dur du serveur de stockage|Je le lui laisse faire, ne souhaitant pas être impliqué dans cette action|Je n’ai pas le droit de le faire, risquant des poursuites pénales et disciplinaires|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4 - Vous êtes agent au PCS et équipé d’un système de vidéoprotection :|Vous vérifiez à la prise de service le bon fonctionnement des caméras conformément aux consignes|Vous ne vous servirez des caméras qu’en cas d’intrusion, quelles que soient les consignes|Vous n’êtes pas habilité à vous servir de ce système n’ayant pas d’autorisation du CNAPS spécifique|Vous garderez chaque jour des copies d’images ou vidéos pour vous prémunir de tout reproche futur|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 - Quelle est la principale différence entre une caméra IP et une caméra analogique ?|La façon dont le signal est transmis|La durée de vie de la caméra|La taille de l’image et sa précision|La possibilité de distinguer le visage des personnes observées|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6 - Dans lequel de ces textes la vidéoprotection est-elle encadrée ?|Le guide APSAD des installations Electroniques|Le Décret 2014-007 du 20 février 2014|La partie Législative du livre VI du Code de la Sécurité Intérieure|La Convention Collective Nationale Prévention et Sécurité|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7 - Agent de vidéosurveillance sur un site en journée, vous repérez un individu au visage dissimulé dans un local sensible à accès réglementé, que faites-vous ?|Je déclenche l’alarme générale d’évacuation des bâtiments|J’effectue la levée de doute immédiatement pour appréhender l’individu|J’informe immédiatement le responsable sécurité du site conformément aux consignes|J’appelle les forces de l’ordre sans plus attendre|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8 - Rondier d’astreinte à votre domicile, le télésurveilleur vous contacte la nuit suite à un déclenchement d’alarme intrusion chez un client: que faites-vous ?|Je mets à jour l’outil de main courante électronique et attend les consignes|J’envoie les forces de l’ordre pour effectuer la levée de doute, n’étant pas habilité|Je pense qu’il s’agit d’un dysfonctionnement et économise une ronde inutile à mon entreprise, j’irai demain à la première heure de ma prise de fonction|Je donne mon mot de passe pour m’authentifier et me rends sur place pour effectuer la levée de doute|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9 - Quel équipement fait partie d’un système de vidéosurveillance|La caméra|L’appareil photo|Le caméscope|Le magnétophone|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 - Un système de vidéoprotection peut proposer plusieurs types de caméras :|Des caméras fixes|Des caméras à vision nocturne|Des caméras à 360°|Des caméras à lecture de plaques minéralogiques|Toutes les réponses précédentes sont exactes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11 - Quelle est la composition de la chaîne de télésécurité ?|Observation - Réglementation - Validation - Action|Détection - Transmission - Réception - Traitement - Intervention|Veille - Repérage - Preuve - Formalisation|Déclenchement - Levée de doute - Police - Main courante|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12 - Constitue une infraction d’atteinte aux systèmes de traitement automatisé des données, le fait : |D’introduire un virus informatique dans un système de données informatiques|De modifier des données informatiques|D’accéder frauduleusement à des données informatiques|De supprimer des données informatiques|Toutes les réponses précédentes sont exactes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13 - Toute personne intéressée peut-elle demander d’avoir accès aux enregistrements de vidéosurveillance qui la concerne et de demander sa destruction ?|Oui après avoir fait la demande auprès du Préfet|Oui, sauf si le refus est justifié par les conditions fixées par la loi|Non, car les enregistrements doivent rester toujours confidentiels|Non, car seuls les opérateurs publics peuvent visionner des images privées|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>14 - Le responsable logistique du site vous demande de visionner des images de vidéosurveillance enregistrées relatives à un salarié de sa société, que faites-vous ?|Je n’ai pas le droit de le faire mais donne le fichier vidéo au responsable du site client|Je refuse de le faire mais informe mon responsable de cette de demande|J’accepte de le faire si les faits sont graves et avérés|Je refuse de le faire sans l’accord au moins oral du CNAPS|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15 - Le fait d’accéder frauduleusement à des données informatiques issues d’images de vidéosurveillance constitue l’infraction de :|Vol de données informatiques|Atteintes aux systèmes de traitement automatisé de données|Entrave à la libre circulation de biens et des données|Dégradation ou détérioration d’uns système de traitement de données informatiques|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16 - Un agent SSIAP vient au PC de vidéosurveillance vous demander de lui montrer des images d’un bâtiment pour contrôler la présence des extincteurs trop éloignés, que faites-vous ?|J’accepte car il s’agit de risque d’incendie|J’accepte car le site est calme et si aucun risque potentiel n’est prévisible à cet instant|Je refuse, le système n’est pas fait pour cela|Je refuse sans avoir un document écrit du client|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17 - Quels sont les faits autorisés et donc non passibles de poursuites en matière d'utilisation d’images de vidéoprotection ?|Le fait de falsifier des enregistrements|Le fait de permettre leur accès à des personnes non habilitées|Le fait de ne conserver que les images que pendant un mois au maximum sauf procédure judiciaire en cours|Le fait d’utiliser des images à d’autres fins que celles autorisées|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18 - Toute personne peut-elle demander d’avoir accès aux enregistrements de vidéosurveillance qui la concerne ?|Oui car cet accès est de droit, sous certaines conditions|Oui après en avoir fait la demande auprès du Préfet|Selon le bon-vouloir du responsable de l’installation de vidéosurveillance car il n’est pas obligé de le faire|Non car les enregistrements restent toujours confidentiels|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19 - Le contrôle d’accès électronique est :|Un système de sécurité permettant de détecter les personnes au comportement suspect|Un système de sécurité permettant de ne faire que des identifications|Un système de sécurité empêchant l’accès à des personnes autorisées|Un système de sécurité permettant d’autoriser des personnes déterminées|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20 - Le schéma d’installation de la vidéoprotection permet :|De capter, de transmettre, de stocker, de visionner les images|D’installer, de maintenir et de mettre à disposition des prestataires des images|De compléter le système de surveillance incendie|De garantir aux forces de l’ordre la bonne réalisation de la mission de sûreté|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <t>Dans quel cas doit-on rédiger un permis de feu ?</t>
+  </si>
+  <si>
+    <t>La CNIL est :</t>
+  </si>
+  <si>
+    <t>La Commission Nationale des Instances de Liberté</t>
+  </si>
+  <si>
+    <t>La Commission Nationale de l’Informatique et des Libertés</t>
+  </si>
+  <si>
+    <t>Le Conseil National sur l’Informatique et des Libertés</t>
+  </si>
+  <si>
+    <t>Le Comité National des Institutions pour les Libertés</t>
+  </si>
+  <si>
+    <t>Quel est l’un des rôles de la CNIL ?</t>
+  </si>
+  <si>
+    <t>Autoriser le port d’armes numériques</t>
+  </si>
+  <si>
+    <t>Délivrer les cartes d’agrément vidéo protecteur</t>
+  </si>
+  <si>
+    <t>Lutter contre la Cyberdéfense</t>
+  </si>
+  <si>
+    <t>Protéger la vie privée et les libertés publiques</t>
+  </si>
+  <si>
+    <t>Un agent rondier me demande de supprimer des images du système de télésurveillance correspondant à son arrivée en retard sur le site :</t>
+  </si>
+  <si>
+    <t>Étant un bon collègue de travail, sérieux et apprécié de tous, je le fais sans aucun problème</t>
+  </si>
+  <si>
+    <t>Aucun incident n’ayant été relevé à cet instant, je ne fais que libérer un peu de place sur le disque dur du serveur de stockage</t>
+  </si>
+  <si>
+    <t>Je le lui laisse faire, ne souhaitant pas être impliqué dans cette action</t>
+  </si>
+  <si>
+    <t>Je n’ai pas le droit de le faire, risquant des poursuites pénales et disciplinaires</t>
+  </si>
+  <si>
+    <t>Vous êtes agent au PCS et équipé d’un système de vidéoprotection :</t>
+  </si>
+  <si>
+    <t>Vous vérifiez à la prise de service le bon fonctionnement des caméras conformément aux consignes</t>
+  </si>
+  <si>
+    <t>Vous ne vous servirez des caméras qu’en cas d’intrusion, quelles que soient les consignes</t>
+  </si>
+  <si>
+    <t>Vous n’êtes pas habilité à vous servir de ce système n’ayant pas d’autorisation du CNAPS spécifique</t>
+  </si>
+  <si>
+    <t>Vous garderez chaque jour des copies d’images ou vidéos pour vous prémunir de tout reproche futur</t>
+  </si>
+  <si>
+    <t>Quelle est la principale différence entre une caméra IP et une caméra analogique ?</t>
+  </si>
+  <si>
+    <t>La façon dont le signal est transmis</t>
+  </si>
+  <si>
+    <t>La durée de vie de la caméra</t>
+  </si>
+  <si>
+    <t>La taille de l’image et sa précision</t>
+  </si>
+  <si>
+    <t>La possibilité de distinguer le visage des personnes observées</t>
+  </si>
+  <si>
+    <t>Dans lequel de ces textes la vidéoprotection est-elle encadrée ?</t>
+  </si>
+  <si>
+    <t>Le guide APSAD des installations Electroniques</t>
+  </si>
+  <si>
+    <t>Le Décret 2014-007 du 20 février 2014</t>
+  </si>
+  <si>
+    <t>La partie Législative du livre VI du Code de la Sécurité Intérieure</t>
+  </si>
+  <si>
+    <t>La Convention Collective Nationale Prévention et Sécurité</t>
+  </si>
+  <si>
+    <t>Agent de vidéosurveillance sur un site en journée, vous repérez un individu au visage dissimulé dans un local sensible à accès réglementé, que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Je déclenche l’alarme générale d’évacuation des bâtiments</t>
+  </si>
+  <si>
+    <t>J’effectue la levée de doute immédiatement pour appréhender l’individu</t>
+  </si>
+  <si>
+    <t>J’informe immédiatement le responsable sécurité du site conformément aux consignes</t>
+  </si>
+  <si>
+    <t>J’appelle les forces de l’ordre sans plus attendre</t>
+  </si>
+  <si>
+    <t>Rondier d’astreinte à votre domicile, le télésurveilleur vous contacte la nuit suite à un déclenchement d’alarme intrusion chez un client: que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Je mets à jour l’outil de main courante électronique et attend les consignes</t>
+  </si>
+  <si>
+    <t>J’envoie les forces de l’ordre pour effectuer la levée de doute, n’étant pas habilité</t>
+  </si>
+  <si>
+    <t>Je pense qu’il s’agit d’un dysfonctionnement et économise une ronde inutile à mon entreprise, j’irai demain à la première heure de ma prise de fonction</t>
+  </si>
+  <si>
+    <t>Je donne mon mot de passe pour m’authentifier et me rends sur place pour effectuer la levée de doute</t>
+  </si>
+  <si>
+    <t>Quel équipement fait partie d’un système de vidéosurveillance</t>
+  </si>
+  <si>
+    <t>La caméra</t>
+  </si>
+  <si>
+    <t>L’appareil photo</t>
+  </si>
+  <si>
+    <t>Le caméscope</t>
+  </si>
+  <si>
+    <t>Le magnétophone</t>
+  </si>
+  <si>
+    <t>Un système de vidéoprotection peut proposer plusieurs types de caméras :</t>
+  </si>
+  <si>
+    <t>Des caméras fixes</t>
+  </si>
+  <si>
+    <t>Des caméras à vision nocturne</t>
+  </si>
+  <si>
+    <t>Des caméras à 360°</t>
+  </si>
+  <si>
+    <t>Des caméras à lecture de plaques minéralogiques</t>
+  </si>
+  <si>
+    <t>Quelle est la composition de la chaîne de télésécurité ?</t>
+  </si>
+  <si>
+    <t>Observation - Réglementation - Validation - Action</t>
+  </si>
+  <si>
+    <t>Détection - Transmission - Réception - Traitement - Intervention</t>
+  </si>
+  <si>
+    <t>Veille - Repérage - Preuve - Formalisation</t>
+  </si>
+  <si>
+    <t>Déclenchement - Levée de doute - Police - Main courante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constitue une infraction d’atteinte aux systèmes de traitement automatisé des données, le fait : </t>
+  </si>
+  <si>
+    <t>D’introduire un virus informatique dans un système de données informatiques</t>
+  </si>
+  <si>
+    <t>De modifier des données informatiques</t>
+  </si>
+  <si>
+    <t>D’accéder frauduleusement à des données informatiques</t>
+  </si>
+  <si>
+    <t>De supprimer des données informatiques</t>
+  </si>
+  <si>
+    <t>Toute personne intéressée peut-elle demander d’avoir accès aux enregistrements de vidéosurveillance qui la concerne et de demander sa destruction ?</t>
+  </si>
+  <si>
+    <t>Oui après avoir fait la demande auprès du Préfet</t>
+  </si>
+  <si>
+    <t>Oui, sauf si le refus est justifié par les conditions fixées par la loi</t>
+  </si>
+  <si>
+    <t>Non, car les enregistrements doivent rester toujours confidentiels</t>
+  </si>
+  <si>
+    <t>Non, car seuls les opérateurs publics peuvent visionner des images privées</t>
+  </si>
+  <si>
+    <t>Le responsable logistique du site vous demande de visionner des images de vidéosurveillance enregistrées relatives à un salarié de sa société, que faites-vous ?</t>
+  </si>
+  <si>
+    <t>Je n’ai pas le droit de le faire mais donne le fichier vidéo au responsable du site client</t>
+  </si>
+  <si>
+    <t>Je refuse de le faire mais informe mon responsable de cette de demande</t>
+  </si>
+  <si>
+    <t>J’accepte de le faire si les faits sont graves et avérés</t>
+  </si>
+  <si>
+    <t>Je refuse de le faire sans l’accord au moins oral du CNAPS</t>
+  </si>
+  <si>
+    <t>Le fait d’accéder frauduleusement à des données informatiques issues d’images de vidéosurveillance constitue l’infraction de :</t>
+  </si>
+  <si>
+    <t>Vol de données informatiques</t>
+  </si>
+  <si>
+    <t>Atteintes aux systèmes de traitement automatisé de données</t>
+  </si>
+  <si>
+    <t>Entrave à la libre circulation de biens et des données</t>
+  </si>
+  <si>
+    <t>Dégradation ou détérioration d’uns système de traitement de données informatiques</t>
+  </si>
+  <si>
+    <t>Un agent SSIAP vient au PC de vidéosurveillance vous demander de lui montrer des images d’un bâtiment pour contrôler la présence des extincteurs trop éloignés, que faites-vous ?</t>
+  </si>
+  <si>
+    <t>J’accepte car il s’agit de risque d’incendie</t>
+  </si>
+  <si>
+    <t>J’accepte car le site est calme et si aucun risque potentiel n’est prévisible à cet instant</t>
+  </si>
+  <si>
+    <t>Je refuse, le système n’est pas fait pour cela</t>
+  </si>
+  <si>
+    <t>Je refuse sans avoir un document écrit du client</t>
+  </si>
+  <si>
+    <t>Quels sont les faits autorisés et donc non passibles de poursuites en matière d'utilisation d’images de vidéoprotection ?</t>
+  </si>
+  <si>
+    <t>Le fait de falsifier des enregistrements</t>
+  </si>
+  <si>
+    <t>Le fait de permettre leur accès à des personnes non habilitées</t>
+  </si>
+  <si>
+    <t>Le fait de ne conserver que les images que pendant un mois au maximum sauf procédure judiciaire en cours</t>
+  </si>
+  <si>
+    <t>Le fait d’utiliser des images à d’autres fins que celles autorisées</t>
+  </si>
+  <si>
+    <t>Toute personne peut-elle demander d’avoir accès aux enregistrements de vidéosurveillance qui la concerne ?</t>
+  </si>
+  <si>
+    <t>Oui car cet accès est de droit, sous certaines conditions</t>
+  </si>
+  <si>
+    <t>Oui après en avoir fait la demande auprès du Préfet</t>
+  </si>
+  <si>
+    <t>Selon le bon-vouloir du responsable de l’installation de vidéosurveillance car il n’est pas obligé de le faire</t>
+  </si>
+  <si>
+    <t>Non car les enregistrements restent toujours confidentiels</t>
+  </si>
+  <si>
+    <t>Le contrôle d’accès électronique est :</t>
+  </si>
+  <si>
+    <t>Un système de sécurité permettant de détecter les personnes au comportement suspect</t>
+  </si>
+  <si>
+    <t>Un système de sécurité permettant de ne faire que des identifications</t>
+  </si>
+  <si>
+    <t>Un système de sécurité empêchant l’accès à des personnes autorisées</t>
+  </si>
+  <si>
+    <t>Un système de sécurité permettant d’autoriser des personnes déterminées</t>
+  </si>
+  <si>
+    <t>Le schéma d’installation de la vidéoprotection permet :</t>
+  </si>
+  <si>
+    <t>De capter, de transmettre, de stocker, de visionner les images</t>
+  </si>
+  <si>
+    <t>D’installer, de maintenir et de mettre à disposition des prestataires des images</t>
+  </si>
+  <si>
+    <t>De compléter le système de surveillance incendie</t>
+  </si>
+  <si>
+    <t>De garantir aux forces de l’ordre la bonne réalisation de la mission de sûreté</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3166,6 +3760,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3221,7 +3822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3265,6 +3866,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3637,6 +4239,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581840</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>171518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C4E047-8BEE-210B-D616-E4C1704DCAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16068675" y="24450675"/>
+          <a:ext cx="5839640" cy="485843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3925,10 +4571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6493,19 +7139,19 @@
         <v>24</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>541</v>
@@ -6522,19 +7168,19 @@
         <v>25</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>541</v>
@@ -6551,19 +7197,19 @@
         <v>26</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>541</v>
@@ -6580,19 +7226,19 @@
         <v>27</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>541</v>
@@ -6609,19 +7255,19 @@
         <v>28</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>90</v>
@@ -6638,19 +7284,19 @@
         <v>29</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>90</v>
@@ -6667,7 +7313,7 @@
         <v>30</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>14</v>
@@ -6696,19 +7342,19 @@
         <v>31</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>90</v>
@@ -6725,19 +7371,19 @@
         <v>32</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>90</v>
@@ -6754,19 +7400,19 @@
         <v>33</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>433</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>434</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>90</v>
@@ -6783,19 +7429,19 @@
         <v>34</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>541</v>
@@ -6812,19 +7458,19 @@
         <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>541</v>
@@ -6841,19 +7487,19 @@
         <v>36</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>90</v>
@@ -6870,19 +7516,19 @@
         <v>37</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>90</v>
@@ -6899,19 +7545,19 @@
         <v>38</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>90</v>
@@ -6928,19 +7574,19 @@
         <v>39</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>90</v>
@@ -6957,19 +7603,19 @@
         <v>40</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>433</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>90</v>
@@ -6986,19 +7632,19 @@
         <v>41</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>90</v>
@@ -7015,19 +7661,19 @@
         <v>42</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>90</v>
@@ -7044,19 +7690,19 @@
         <v>43</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>90</v>
@@ -7073,19 +7719,19 @@
         <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>90</v>
@@ -7102,7 +7748,7 @@
         <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>558</v>
@@ -7131,19 +7777,19 @@
         <v>46</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>90</v>
@@ -7160,22 +7806,22 @@
         <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>678</v>
-      </c>
       <c r="H108" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J108" s="10" t="s">
         <v>23</v>
@@ -7189,19 +7835,19 @@
         <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>433</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>90</v>
@@ -7218,19 +7864,19 @@
         <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>683</v>
-      </c>
       <c r="E110" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>90</v>
@@ -7247,19 +7893,19 @@
         <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>90</v>
@@ -7276,19 +7922,19 @@
         <v>56</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>90</v>
@@ -7305,19 +7951,19 @@
         <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>90</v>
@@ -7331,22 +7977,22 @@
         <v>248</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>90</v>
@@ -7360,22 +8006,22 @@
         <v>248</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>705</v>
-      </c>
       <c r="G115" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>90</v>
@@ -7389,25 +8035,25 @@
         <v>248</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>710</v>
-      </c>
       <c r="H116" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J116" s="10" t="s">
         <v>18</v>
@@ -7421,19 +8067,19 @@
         <v>11</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>90</v>
@@ -7450,19 +8096,19 @@
         <v>13</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>90</v>
@@ -7479,19 +8125,19 @@
         <v>15</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>90</v>
@@ -7508,19 +8154,19 @@
         <v>16</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>90</v>
@@ -7537,19 +8183,19 @@
         <v>17</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>90</v>
@@ -7566,19 +8212,19 @@
         <v>19</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>90</v>
@@ -7595,19 +8241,19 @@
         <v>20</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>90</v>
@@ -7624,24 +8270,604 @@
         <v>22</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J124" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J125" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J133" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J135" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J136" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J137" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J138" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J139" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J140" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J141" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J143" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J144" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8785,27 +10011,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18582157-25E0-434E-AB6B-01FE38A60B37}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84:I91"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93:J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="17"/>
+    <col min="3" max="3" width="33.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="17">
         <f t="shared" ref="B1:B10" si="0">FIND(" - ",A1)</f>
         <v>2</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="17" t="str">
         <f t="shared" ref="C1:C10" si="1">RIGHT(A1, LEN(A1)-(B1+2))</f>
         <v>Quels sont les 4 comportements pouvant être adoptés théoriquement lors d’un conflit ?|Fuite - Assertivité - Contrainte - Manipulation|Assertivité - Arrogance - Manipulation - Agressivité|Agressivité - Assertivité - Fuite - Manipulation|Agressivité - Fuite - Manipulation - Monologue|Aucune des autres réponses</v>
       </c>
@@ -8833,11 +10060,11 @@
       <c r="A2" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Quelles sont les précautions à prendre lorsqu’on aborde une personne susceptible de générer un conflit ?|Rester à une dizaine de mètres pour ne pas s’exposer|Garder une distance raisonnable de sécurité|Se munir d’un moyen de défense|S’approcher au plus près pour rassurer la personne|Aucune des autres réponses</v>
       </c>
@@ -8865,11 +10092,11 @@
       <c r="A3" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Quelles sont les méthodes de réaction aux attaques verbales, menaces et intimidation ?|Répondre sur le même ton - faire du Karaté|Ignorer la personne - Continuer de faire son travail|Répondre sur le même ton - Appeler la police|Garder son calme - Pratiquer le judo verbal pour retourner la situation|Aucune des autres réponses</v>
       </c>
@@ -8897,11 +10124,11 @@
       <c r="A4" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Quel type de personne peut être plus générateur de conflit ?|Une personne insatisfaite|Une personne timide|Une personne bavarde|Une personne ne parlant pas le français|Aucune des autres réponses</v>
       </c>
@@ -8929,11 +10156,11 @@
       <c r="A5" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="17" t="str">
         <f t="shared" si="1"/>
         <v>A l’entrée d’un centre commercial, un client vient se plaindre auprès de vous d’un article acheté, qu’il juge défectueux. Que faites-vous ?|Vous lui proposez de faire l’échange vous-même|Vous prenez le temps d’écouter et le dirigez vers le service après-vente|Vous refusez de le renseigner|Vous lui proposez vos services, après votre vacation, car vous connaissez bien les défauts de cet article|Aucune des autres réponses</v>
       </c>
@@ -8961,11 +10188,11 @@
       <c r="A6" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Je viens de fermer la porte d’entrée au supermarché avant sa fermeture totale. Un client veut rentrer malgré tout et frappe violemment sur la porte vitrée. Que faites-vous ?|Je lui explique que le magasin et les caisses sont fermés|J’ouvre les portes et le laisse rentrer exceptionnellement|Je lui ordonne de quitter les lieux immédiatement et le menace d’appeler les forces de l’ordre|Je l’ignore et continue ma ronde de fermeture|Aucune des autres réponses</v>
       </c>
@@ -8993,11 +10220,11 @@
       <c r="A7" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Lorsque l’agent observe des personnes en conflit dans son périmètre d’action, il doit ?|Uniquement observer ce qui se passe|Partir le plus vite possible|Se poser en médiateur|Prendre position avant de connaître l’origine du conflit|Aucune des autres réponses</v>
       </c>
@@ -9025,11 +10252,11 @@
       <c r="A8" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Dans la communication non verbale, que peut signifier le fait de pointer quelqu’un du doigt ?|Une attitude menaçante ou arrogante|Une attitude de séduction|Une attitude apaisante|Une attitude conciliante|Aucune des autres réponses</v>
       </c>
@@ -9057,11 +10284,11 @@
       <c r="A9" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Durant sa ronde un agent découvre une personne qui fume dans le local des archives, comment procède-t-il pour intervenir sans générer de conflit ?|Lui confisquer ses cigarettes|Retourner au PCS pour renseigner l’incident sur la main courante|Laisser la personne terminer sa cigarette et lui demander de ne pas recommencer|Se présenter, et rappeler la réglementation au contrevenant|Aucune des autres réponses</v>
       </c>
@@ -9089,11 +10316,11 @@
       <c r="A10" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Que doit faire le chef de poste lorsque vous êtes en conflit avec l’un de vos collègues APS ?|Attendre la dégradation de la situation pour offrir son aide|Contacter immédiatement la hiérarchie et demander des sanctions|Ne pas intervenir pour laisser la dispute s’estomper|Réunir les agents concernés pour résoudre le problème|Aucune des autres réponses</v>
       </c>
@@ -9118,11 +10345,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="e">
+      <c r="B11" s="17" t="e">
         <f t="shared" ref="B11:B41" si="2">FIND(" - ",A11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C11" t="e">
+      <c r="C11" s="17" t="e">
         <f t="shared" ref="C11:C28" si="3">RIGHT(A11, LEN(A11)-(B11+2))</f>
         <v>#VALUE!</v>
       </c>
@@ -9135,11 +10362,11 @@
       <c r="A12" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Une consigne qui vous explique la procédure pour pénétrer dans un local où des matières toxiques sont entreposées en permanence est :|Une consigne générale|Une consigne particulière|Une consigne ponctuelle|Une consigne spéciale</v>
       </c>
@@ -9164,11 +10391,11 @@
       <c r="A13" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Aucune des autres réponses</v>
       </c>
@@ -9181,11 +10408,11 @@
       <c r="A14" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Une consigne Client, qui vous prévient que demain un VIP viendra visiter l’établissement est :|Une consigne générale|Une consigne permanente|Une consigne ponctuelle|Un consigne spéciale|Aucune des autres réponses</v>
       </c>
@@ -9213,11 +10440,11 @@
       <c r="A15" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="17" t="str">
         <f t="shared" si="3"/>
         <v>La consigne affichée à proximité des sorties concernant l’évacuation est :|Une consigne permanente|Une consigne particulière|Une consigne ponctuelle|Un consigne spéciale|Aucune des autres réponses</v>
       </c>
@@ -9245,11 +10472,11 @@
       <c r="A16" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Quelle est la meilleure façon d’écrire une date sur la main courante papier ?|Le 17-10-30|Le 30/10/17|Le 30/10/2017|L’an 2017-10-30|Lundi 30 octobre 2017</v>
       </c>
@@ -9277,11 +10504,11 @@
       <c r="A17" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Le compte rendu oral ou écrit est un moyen de communication :|Simple et direct avec sa hiérarchie|Qui reste interne à votre entreprise sans conséquence pénale|Il est effectué uniquement à l’aide d’un émetteur/récepteur|Il évite dans tous les cas de rédiger un rapport complet qui serait trop contraignant|Aucune des autres réponses</v>
       </c>
@@ -9309,11 +10536,11 @@
       <c r="A18" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="17" t="str">
         <f t="shared" si="3"/>
         <v>De quelle couleur est-il préférable d’écrire les interventions liées à l’incendie sur une main courante ?|En noir|En bleu|En rouge|En vert|Aucune des autres réponses</v>
       </c>
@@ -9341,11 +10568,11 @@
       <c r="A19" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Une main courante doit-elle être ?|Chronologique|Datée|Factuelle|Informatisée ou manuscrite|Toutes les réponses précédentes sont exactes</v>
       </c>
@@ -9373,11 +10600,11 @@
       <c r="A20" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="17" t="str">
         <f t="shared" si="3"/>
         <v>La mise en place et l’utilisation d’une main courante est-elle soumise à une réglementation ?|Oui, c’est la loi du 12 juillet 1983 qui l’impose|Oui, c’est le CSI qui l’impose|Oui, c’est la convention collective qui l’impose|Non, mais elle permet de se protéger en cas de saisie par les autorités|Aucune des autres réponses</v>
       </c>
@@ -9405,11 +10632,11 @@
       <c r="A21" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Les consignes spéciales de votre société de sécurité doivent-elles avoir un numéro séquentiel de version ?|Oui, pour pouvoir les ranger dans les archives|Oui, pour savoir si c’est la bonne version en vigueur|Non, puisqu’elles sont permanentes|Non, cela ne sert à rien|Aucune des autres réponses</v>
       </c>
@@ -9437,11 +10664,11 @@
       <c r="A22" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="17">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Une main courante informatisée peut-elle être consultable à distance ?|Non, pour éviter tout piratage|Non, les informations doivent rester sur le site|Oui, le responsable pourra voir au fur et à mesure les événements|Oui, lorsque l’on veut la modifier en fin de journée|Aucune des autres réponses</v>
       </c>
@@ -9469,11 +10696,11 @@
       <c r="A23" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="17">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Vous disposez d’une main courante informatisée, devez-vous quand même disposer d’une main courante papier ?|Oui, et on doit remplir les deux|Oui, dans l’éventualité où la main courante informatisée soit hors service|Non, puisqu’on peut tout imprimer plus tard|Non, cela ne sert à rien|Aucune des autres réponses</v>
       </c>
@@ -9501,11 +10728,11 @@
       <c r="A24" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="17">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Une main courante a comme objectif :|De noter uniquement les interventions de la vacation|De noter uniquement les problèmes techniques|De transmettre uniquement des consignes|De relater tous les événements liés à la sécurité lors de la vacation|Aucune des autres réponses</v>
       </c>
@@ -9533,11 +10760,11 @@
       <c r="A25" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="17">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Le compte rendu écrit est un moyen :|Qui constitue une preuve irréfutable|De signaler un fait circonstancié urgent et important|De noter sur un document brouillon avant de le rédiger au propre|De contrôle du travail effectué par les agents|Aucune des autres réponses</v>
       </c>
@@ -9565,11 +10792,11 @@
       <c r="A26" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="17">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Concernant les rondes, que doit-on notifier sur la main courante ?|Le nom de l’agent effectuant la ronde|L’heure de retour de ronde|Les anomalies constatées|Les mesures prises en cas d’anomalie|Toutes les réponses sont bonnes</v>
       </c>
@@ -9597,11 +10824,11 @@
       <c r="A27" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="17">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="17" t="str">
         <f t="shared" si="3"/>
         <v>Un rapport circonstancié doit :|Indiquer l’ensemble des informations de l’incident|Uniquement indiquer les conséquences de l’incident|Uniquement indiquer les circonstances de l’incident|Proposer les solutions afin d’éviter que l’incident ne se reproduise|Aucune des autres réponses</v>
       </c>
@@ -9629,11 +10856,11 @@
       <c r="A28" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="17">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="17" t="str">
         <f t="shared" si="3"/>
         <v>De quelle couleur est-il préférable d’écrire les événements quotidiens sur une main courante ?|En noir|En jaune|En rouge|En vert|Aucune des autres réponses</v>
       </c>
@@ -9658,11 +10885,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="e">
+      <c r="B29" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C29" t="e">
+      <c r="C29" s="17" t="e">
         <f t="shared" ref="C29:C41" si="4">RIGHT(A29, LEN(A29)-(B29+2))</f>
         <v>#VALUE!</v>
       </c>
@@ -9675,11 +10902,11 @@
       <c r="A30" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="17">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="17" t="str">
         <f t="shared" si="4"/>
         <v>D’après vous, une bonne présentation est-elle nécessaire durant votre service ?|Oui|Non|Cela dépend du poste occupé|Uniquement au contact du public|Aucune des autres réponses</v>
       </c>
@@ -9707,11 +10934,11 @@
       <c r="A31" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="17">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Une zone de protection volumétrique concerne :|Un objet précis|Une vitrine|Un local|Une clôture|Aucune des autres réponses</v>
       </c>
@@ -9739,11 +10966,11 @@
       <c r="A32" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="17">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Dans quelle condition un APS peut-il être amené à appréhender un individu ?|L’individu paraît suspect en ressortant du site sans dire “au revoir”|L’individu comment un délit ou un crime sur le site|L’individu refuse d’ouvrir son bagage à l’entrée de l’établissement|L’individu est sur le site pendant les heures d’ouverture et ne respecte pas le règlement intérieur|Aucune des autres réponses</v>
       </c>
@@ -9771,11 +10998,11 @@
       <c r="A33" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="17">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Vous êtes agent pré-vol, vous constatez qu’un de vos amis dissimule une bouteille de rhum dans son blouson et quitte le magasin par la sortie sans achats. Quelle est votre réaction ?|Vous ne faites rien car c’est un ami|VOus lui demandez de remettre la bouteille en place discrètement|Vous ne réagissez pas mais en parlerez avec lui après votre travail|Vous prévenez vos collègues pour une appréhension en sortie sans achats|Aucune des autres réponses</v>
       </c>
@@ -9803,11 +11030,11 @@
       <c r="A34" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="17">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Les acteurs de la sécurité privée doivent en priorité :|Comptabiliser les vols en magasin|Ne pas intervenir sur les accidents et les incendies|Aider la justice et les services de police|Favoriser les délits et les crimes|Aucune des autres réponses</v>
       </c>
@@ -9835,11 +11062,11 @@
       <c r="A35" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="17">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Au cours d’une appréhension n arrière-caisse, un individu vous porte un violent coup de poing au visage, vous cassant le nez :|Il n’y a rien à faire, ce sont les risques du métier, vous ferez plus attention la prochaine fois|Vous allez vous faire examiner par un médecin qui vous délivrera un arrêt de travail|Vous lui rendez la pareille étant en état de légitime défense|Vous ne pouvez pas déposer plainte contre la personne, c’est du ressort du magasin pour lequel vous travaillez|Aucune des autres réponses</v>
       </c>
@@ -9867,11 +11094,11 @@
       <c r="A36" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="17">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Indiquez une mission entrant dans le cadre d’une ronde de fermeture :|Distribuer le courrier|Contrôler la fermeture des fenêtres|Mettre en action les extincteurs|Arroser les plantes de l’accueil|Aucune des autres réponses</v>
       </c>
@@ -9899,11 +11126,11 @@
       <c r="A37" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="17">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Indiquez ce que l’on doit inscrire sur la main courante ?|Les alarmes techniques|Mes impressions en fin de journée|Les noms des agents de sécurité de repos|Les messages personnels|Aucune des autres réponses</v>
       </c>
@@ -9931,11 +11158,11 @@
       <c r="A38" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="17">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="17" t="str">
         <f t="shared" si="4"/>
         <v>En ce qui concerne la ronde, un point dit sensible est :|Un point qui en cas d’atteinte pourrait handicaper le bon fonctionnement de l’entreprise|Un point qui a fait l’objet d’une non-conformité relevée lors d’un contrôle du CNAPS|Un point comportant un danger permanent|Un point convoité par les voleurs|Aucune des autres réponses</v>
       </c>
@@ -9963,11 +11190,11 @@
       <c r="A39" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="17">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Vous êtes agent en arrière caisse dans un magasin, pouvez-vous procéder à l’inspection visuelle des sacs d’achat de personnes déjà passées en caisse ?|Seulement en présence des forces de l’ordre|Oui, si vos consignes le précisent|Oui, comme bon vous semble|Uniquement si le plan Vigipirate est déclenché|Aucune des autres réponses</v>
       </c>
@@ -9995,11 +11222,11 @@
       <c r="A40" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="17">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Quels sont les différents moyens de communication mis à disposition d’un agent de sécurité ?|Les moyens de liaison|Les moyens d'alarme|Les moyens de protection|Les moyens télépathiques|Aucune des autres réponses</v>
       </c>
@@ -10027,11 +11254,11 @@
       <c r="A41" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="17">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="17" t="str">
         <f t="shared" si="4"/>
         <v>Face à une réquisition légale ?|On peut refuser de l’exécuter s’il n’y a pas la présence d’un sceau du service de police ou de gendarmerie|On peut refuser de l’exécuter si on n’est pas en fonction d’agent de sécurité|On peut refuser de l’exécuter sans motif légitime|On ne peut sans motif légitime refuser de l’exécuter sous peine d’être poursuivi|Aucune des autres réponses</v>
       </c>
@@ -10056,11 +11283,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="e">
+      <c r="B42" s="17" t="e">
         <f t="shared" ref="B42" si="5">FIND(" - ",A42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C42" t="e">
+      <c r="C42" s="17" t="e">
         <f t="shared" ref="C42:C82" si="6">RIGHT(A42, LEN(A42)-(B42+2))</f>
         <v>#VALUE!</v>
       </c>
@@ -10073,11 +11300,11 @@
       <c r="A43" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="17">
         <f>FIND(" – ",A43)</f>
         <v>2</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Le triangle du feu regroupe trois paramètres :|Le carburant, le combustible, l’inhibition|Le comburant, le combustible, l’énergie d’activation|Le refroidissement, le comburant, le carburant|Aucune des réponses n’est correcte</v>
       </c>
@@ -10102,11 +11329,11 @@
       <c r="A44" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="17">
         <f t="shared" ref="B44:B82" si="7">FIND(" – ",A44)</f>
         <v>2</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Quel est le danger des fumées ?|Leur forte teneur en oxygène|Leur opacité, leur toxicité et la chaleur|Leur couleur|Aucune des réponses précédentes</v>
       </c>
@@ -10131,11 +11358,11 @@
       <c r="A45" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="17">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Quelle est la meilleure façon d’éteindre un feu sur une fuite de gaz ?|Fermer la vanne de barrage|Utiliser un linge humide|Utiliser un RIA|Utiliser un extincteur|Aucune des autres réponses</v>
       </c>
@@ -10163,11 +11390,11 @@
       <c r="A46" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="17">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Lors d’un incendie, quel effet est le plus dangereux pour l’homme ?|La pénétration de fumée par les vêtements|La pénétration de fumée par la conduction|La pénétration de fumée par la peau|La pénétration de fumée par les voies respiratoires|Aucune des autres réponses</v>
       </c>
@@ -10195,11 +11422,11 @@
       <c r="A47" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="17">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Vous intervenez sur un feu d’armoire électrique, quelle précaution est utile ?|Vérifier que l’extincteur utilisé est à jet plein|Contacter préalablement le fournisseur d’électricité|Couper ou veiller à ce que l’électricité soit coupée|Mettre un appareil respiratoire isolant|Aucune des réponses précédentes</v>
       </c>
@@ -10227,11 +11454,11 @@
       <c r="A48" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="17">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Quelle est la distance d’attaque préconisée d’un extincteur à poudre ?|Environ 1 mètre|De 2 à 3 mètres|De 3 à 4 mètres|De 6 à 7 mètres|Aucune des autres réponses</v>
       </c>
@@ -10259,11 +11486,11 @@
       <c r="A49" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="17">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Vous êtes en poste dans un laboratoire. Vous constatez un déclenchement d’incendie. Dans le local se trouvent un extincteur rouge et un extincteur vert, lequel allez-vous utiliser pour éteindre le feu ?|Rouge|Vert|Le rouge ou le vert, les 2 sont adaptés|Aucun des deux|Aucune des autres réponses</v>
       </c>
@@ -10291,11 +11518,11 @@
       <c r="A50" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="17">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Vous êtes en poste, les pompiers arrivent sur le site sinistré. Vous êtes informé que la voie d’accès principale est bloquée par un camion stationné. Que faites-vous en priorité ?|J’appelle les personnels de l’usine, au point de rassemblement, pour déplacer le véhicule|J’appelle la fourrière|Je propose aux pompiers d’emprunter un autre accès qui est libre|J’autorise les pompiers à pousser le camion, ils en ont l’obligation|Aucune des réponses précédentes</v>
       </c>
@@ -10323,11 +11550,11 @@
       <c r="A51" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="17">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Dans quel cas doit-on redouter un permis de feu ?|Lors de l’utilisation d’un véhicule muni d’un moteur|À l’occasion de travaux par points chauds|À la mise en place d’une zone fumeur|Lors de la mise en fonctionnement du groupe électrogène|Aucune des réponses précédentes</v>
       </c>
@@ -10355,11 +11582,11 @@
       <c r="A52" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Sur votre centrale incendie, un voyant rouge allumé signifie :|Un dérangement ou une anomalie|Que la centrale incendie est bien sous tension|Une alarme incendie|Que tout va bien dans l’établissement|Aucune des réponses précédentes</v>
       </c>
@@ -10387,11 +11614,11 @@
       <c r="A53" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Comment agit un extincteur à eau sur le feu ?|Par étouffement|Par soufflement|Par refroidissement|Par inhibition|Aucune des réponses précédentes</v>
       </c>
@@ -10419,11 +11646,11 @@
       <c r="A54" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Vous intervenez sur un feu d’armoire électrique. Quel extincteur utilisez-vous de préférence ?|Un extincteur à poudre|Un extincteur au CO₂|Un extincteur à eau|Une douche portative|Aucune des réponses précédentes</v>
       </c>
@@ -10451,11 +11678,11 @@
       <c r="A55" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Une des causes de départ de feu peut être ?|Les causes surnaturelles|Les causes humaines|Les causes législatives|Les causes perdues|Aucune des autres réponses</v>
       </c>
@@ -10483,11 +11710,11 @@
       <c r="A56" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C56" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Quelle est la fonction de l’E.C.S. ?|De collecter les informations provenant des détecteurs volumétriques|De mettre en sécurité le bâtiment|De collecter les informations provenant des DAI et des DM|De fournir de l’Eau Conditionnée Suffisante|Aucune des autres réponses</v>
       </c>
@@ -10515,11 +11742,11 @@
       <c r="A57" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C57" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Le feu d’origine électrique est un feu de classe :|A|B|C|Aucune des autres réponses|E</v>
       </c>
@@ -10547,11 +11774,11 @@
       <c r="A58" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58" s="17" t="str">
         <f t="shared" si="6"/>
         <v>À quoi sert l’alarme générale sélective ?|À prévenir une catégorie de personnel|À informer le PC pour effectuer une levée de doute|À informer le directeur|À informer les pompiers|Aucune des autres réponses</v>
       </c>
@@ -10579,11 +11806,11 @@
       <c r="A59" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C59" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Qu’est-ce qui caractérise un extincteur à CO₂ ?|Son manomètre|Sa couleur|Son tromblon|Sa forme ronde|Aucune des autres réponses</v>
       </c>
@@ -10611,11 +11838,11 @@
       <c r="A60" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C60" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Un extincteur au CO₂ est-il un extincteur à pression permanente ?|Oui|Oui s’il est muni d’un densimètre|Non|Non il est rechargeable|Aucune des autres réponses</v>
       </c>
@@ -10643,11 +11870,11 @@
       <c r="A61" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C61" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Vous êtes en poste au PC sécurité et une Alarme Incendie retentit :|Vous arrêtez immédiatement le signal sonore et réarmez la zone. Ce n’est sûrement rien, comme d’habitude|Vous fixez ce que vous faisiez. Vous agissez toujours le temps d’envoyer le rondier à son retour de ronde|Vous contactez sur le champ votre collègue pour qu’il effectue immédiatement une levée de doute sur zone|Vous appuyez sur l’évacuation générale pour être sûr que tout le monde évacue|Aucune des réponses précédentes</v>
       </c>
@@ -10675,11 +11902,11 @@
       <c r="A62" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C62" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Quelle est la première action d’un APS lors d’un déclenchement d’une alarme incendie ?|Faire une levée de doute|Appeler les pompiers|Arrêter le signal sonore|Réarmer le SSI|Aucune des réponses précédentes</v>
       </c>
@@ -10707,11 +11934,11 @@
       <c r="A63" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C63" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Combien de types de pressions différentes trouve-t-on sur un extincteur ?|Aucun|Une|Deux|Quatre|Aucune des autres réponses</v>
       </c>
@@ -10739,11 +11966,11 @@
       <c r="A64" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C64" s="17" t="str">
         <f t="shared" si="6"/>
         <v>En cas de départ de feu, quelle doit être l’attitude de l’agent de sécurité ?|Tenter l’extinction du départ de feu|Ouvrir les portes et les fenêtres avant d’évacuer|Récupérer toutes mes affaires avant d’évacuer|Attendre l’arrivée des pompiers pour évacuer|Aucune des autres réponses</v>
       </c>
@@ -10771,11 +11998,11 @@
       <c r="A65" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C65" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Quel cas utilise-t-on de préférence un extincteur à eau pulvérisé ?|Feu d’origine électrique|Feu de poubelles|Feu d’essence|Feu de métaux|Aucune des autres réponses</v>
       </c>
@@ -10803,11 +12030,11 @@
       <c r="A66" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C66" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Que désigne un E.R.P. ?|Établissement Recevant le Président|Établissement Recevant du Personnel|Établissement Recevant du Public|Établissement Recevant le Plus grand nombre|Aucune des autres réponses</v>
       </c>
@@ -10835,11 +12062,11 @@
       <c r="A67" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C67" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Un extincteur au CO₂ est-il un extincteur à pression auxiliaire ?|Oui|Oui s’il est muni d’un anémomètre|Non |Non s’il est rechargeable|Aucune des autres réponses</v>
       </c>
@@ -10867,11 +12094,11 @@
       <c r="A68" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C68" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Qu’est-ce qu’un I.G.H. ?|Immeuble de Groupement Habilité|Installation de Grande Hauteur|Installation Grandement Habilitée|Immeuble de Grande Hauteur|Aucune des autres réponses</v>
       </c>
@@ -10899,11 +12126,11 @@
       <c r="A69" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C69" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Un DAI à clé sollicité, comment se nomme l’alarme qui sonne au PCS ?|Alarme intrusion|Alarme restreinte|Alarme générale sélective|Alarme générale|Aucune des autres réponses</v>
       </c>
@@ -10931,11 +12158,11 @@
       <c r="A70" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C70" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Quel élément fait partie du triangle du feu ?|Le refroidissement|La combustion|La conduction|Le comburant|Aucune des autres réponses</v>
       </c>
@@ -10963,11 +12190,11 @@
       <c r="A71" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C71" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Combien y a-t-il de classes de feu ?|Une|Deux|Cinq|Six|Aucune des autres réponses</v>
       </c>
@@ -10995,11 +12222,11 @@
       <c r="A72" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C72" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Quelle est la distance d’attaque préconisée d’un extincteur à eau ?|Environ 1 mètre|De 2 à 3 mètres|De 3 à 4 mètres|De 6 à 7 mètres|Aucune des autres réponses</v>
       </c>
@@ -11027,11 +12254,11 @@
       <c r="A73" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C73" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Vous effectuez une ronde, un ouvrier d’une société extérieure réalise des travaux par points chauds. À priori, vous n’avez ni consignes, ni permis feu. Que faites-vous ?|Je contacte le PC sécurité pour demander la conduite à tenir|Je passe mon chemin pour laisser l’ouvrier faire son travail|Je contacte le PCS pour vérification et selon consigne je fais cesser les travaux|Je verbalise l’ouvrier contrevenant|Aucune des autres réponses</v>
       </c>
@@ -11059,11 +12286,11 @@
       <c r="A74" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C74" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Lors de la mise en place d’un permis feu, quelles consignes sont importantes à confier à l’exécutant ?|Aveugler les ouvertures, interstices, fissures, …|Dégager largement la zone de travail de tout matériel combustible ou inflammable|Prendre toute disposition pour éviter le déclenchement du système de détection incendie|Surveiller les projections incandescentes et les points de chute pendant le travail|Toutes ces consignes sont à prendre en compte</v>
       </c>
@@ -11091,11 +12318,11 @@
       <c r="A75" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C75" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Est-il possible qu’un feu s’éteigne en supprimant un des éléments du triangle du feu ?|Oui|Oui si les conditions météorologiques sont favorables|Non |Non, sans le savoir-faire d’un expert métier|Aucune des autres réponses</v>
       </c>
@@ -11123,11 +12350,11 @@
       <c r="A76" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C76" s="17" t="str">
         <f t="shared" si="6"/>
         <v>En cas de départ de feu, quelle doit être l’attitude des occupants ? |Fermer les portes et les fenêtres en évacuant|Ouvrir les portes et les fenêtres avant d’évacuer|Récupérer toutes mes affaires avant d’évacuer|Attendre l’arrivée des pompiers pour évacuer|Aucune des autres réponses</v>
       </c>
@@ -11155,11 +12382,11 @@
       <c r="A77" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C77" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Quels sont les éléments indispensables à la combustion ?|Une propagation, un carburant, un combustible|Du liquide, du vent, du carburant|Un combustible, un comburant, une énergie d’activation|Un vent, une étincelle, une matière inflammable|Aucune des autres réponses</v>
       </c>
@@ -11187,11 +12414,11 @@
       <c r="A78" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C78" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Que signifie le terme R.I.A. ? |Robinet d’intervention alimenté|Robinet d’incident arrimé|Robinet d’incident armé|Robinet d’incendie armé|Aucune des autres réponses</v>
       </c>
@@ -11219,11 +12446,11 @@
       <c r="A79" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C79" s="17" t="str">
         <f t="shared" si="6"/>
         <v>L’air est composé environ à 21% :|D’azote|D’oxygène|De dioxyde de carbone|De gaz rares|Aucune des autres réponses</v>
       </c>
@@ -11251,11 +12478,11 @@
       <c r="A80" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C80" s="17" t="str">
         <f t="shared" si="6"/>
         <v>La classe de feu F concerne :|Les feux de forêts|Les feux de dépôt graisseux servant d’auxiliaires de cuisson|Les feux de liquides incombustibles|Rien car cette classe n’existe pas|Aucune des autres réponses</v>
       </c>
@@ -11283,11 +12510,11 @@
       <c r="A81" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C81" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Vous effectuez une ronde, un ouvrier d’une société extérieure réalise des travaux par points chauds. Vous n’avez ni consigne, ni permis feu. Que faites-vous ?|Je contacte le PC sécurité pour demander la conduite à tenir|Je passe mon chemin pour laisser l’ouvrier faire son travail|Je fais cesser immédiatement les travaux avant de prendre des renseignements auprès du PC sécurité|Je verbalise l’ouvrier contrevenant|Aucune des autres réponses</v>
       </c>
@@ -11315,11 +12542,11 @@
       <c r="A82" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="17">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C82" s="17" t="str">
         <f t="shared" si="6"/>
         <v>Les travaux par points chauds ont lieu dans votre établissement. Le service de sécurité quitte l’établissement qui n’est donc plus sous sa surveillance à partir de 21h. À quelle heure maximum les travaux doivent-ils cesser ?|17h|18h|19h|20h|21h</v>
       </c>
@@ -11348,13 +12575,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="B84">
+        <v>715</v>
+      </c>
+      <c r="B84" s="17">
         <f t="shared" ref="B84:B91" si="8">FIND(" – ",A84)</f>
         <v>2</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C84" s="17" t="str">
         <f t="shared" ref="C84:C91" si="9">RIGHT(A84, LEN(A84)-(B84+2))</f>
         <v>Quel est le seuil fixé par le Code de la Sécurité Intérieure, concernant l’obligation de palpation de sécurité des manifestations ?|Pour l’accès aux enceintes dans lesquelles est organisée une manifestation, rassemblant moins de 300 spectateurs|Pour l’accès aux enceintes dans lesquelles sont organisées des manifestations rassemblant plus de 300 spectateurs|Pour l’accès aux enceintes dans lesquelles est organisée une manifestation rassemblant de 150 à 200 spectateurs|Pour l’accès aux enceintes dans lesquelles est organisée une manifestation rassemblant plus de 1500 spectateurs|Aucune des autres réponses</v>
       </c>
@@ -11380,13 +12607,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="B85">
+        <v>716</v>
+      </c>
+      <c r="B85" s="17">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C85" s="17" t="str">
         <f t="shared" si="9"/>
         <v>Quelles sont les méthodes pour les agents féminins pour effectuer des vérifications de sécurité sur des hommes qui sont au contrôle d’accès :|La fouille à corps uniquement avec le consentement de la personne|La fouille au corps|L’utilisation du magnétomètre|Les palpations de sécurité|Aucune des autres réponses</v>
       </c>
@@ -11412,13 +12639,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="B86">
+        <v>717</v>
+      </c>
+      <c r="B86" s="17">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C86" s="17" t="str">
         <f t="shared" si="9"/>
         <v>Qu’est-ce qu’une palpation de sécurité ?|Le fait d’appliquer les mains par-dessus les vêtements d’une personne afin de déceler tout objet interdit ou susceptible d’être dangereux pour autrui|Le fait de chercher dans les poches des vêtements d’un individu une arme ou tout objet dangereux|Le fait de vérifier sur les membres d’une victime l’absence de saignement|Le fait de mettre les mains dans un sac pour vérifier l’absence de tout objet interdit ou susceptible d’être dangereux pour autrui|Aucune des autres réponses</v>
       </c>
@@ -11444,13 +12671,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="B87">
+        <v>718</v>
+      </c>
+      <c r="B87" s="17">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C87" s="17" t="str">
         <f t="shared" si="9"/>
         <v>D’après le Code de la Sécurité Intérieure, quelles conditions devez-vous respecter pour effectuer une palpation de sécurité lorsqu’un périmètre de protection a été institué ?|Détenir l’agrément du préfet et effectuer la palpation sur une personne de même sexe avec son accord|Détenir l’agrément du préfet, l’habilitation de l’employeur et effectuer la palpation sur n’importe quelle personne|Détenir l’agrément du préfet|Être désigné par son employeur pour effectuer la palpation sur une personne de même sexe avec son accord et sous la responsabilité d’un OPJ|Aucune des autres réponses</v>
       </c>
@@ -11476,13 +12703,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="B88">
+        <v>719</v>
+      </c>
+      <c r="B88" s="17">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C88" s="17" t="str">
         <f t="shared" si="9"/>
         <v>Suite à une appréhension en flagrant délit pour vol, je vois que l’individu possède un couteau dans sa poche de blouson. Que dois-je faire ?|Je menotte l’individu pour qu’il ne puisse faire usage de son arme|Je peux saisir d’autorité l’arme par mesure de sécurité|Je ne peux pas saisir d’autorité l’arme car ce serait assimilé à une réquisition|Je demande à l’individu de bien vouloir poser délicatement et en sécurité le couteau au sol|Aucune des autres réponses</v>
       </c>
@@ -11508,13 +12735,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="B89">
+        <v>720</v>
+      </c>
+      <c r="B89" s="17">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C89" s="17" t="str">
         <f t="shared" si="9"/>
         <v>Lors de palpations de sécurité en vue d’accéder aux manifestations, la formulation « sous le contrôle d’un OPJ » signifie :|Qu’un OPJ peut désigner un Agent de Police Judiciaire adjoint pour le représenter|Qu’un nombre d’OPJ proportionné au nombre d’agents doit être présent|Qu’un OPJ doit être obligatoirement présent sur les lieux de la manifestation|La désignation d’un OPJ par le Préfet et sa situation d’astreinte|Aucune des autres réponses</v>
       </c>
@@ -11540,13 +12767,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="B90">
+        <v>721</v>
+      </c>
+      <c r="B90" s="17">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C90" s="17" t="str">
         <f t="shared" si="9"/>
         <v>Les consignes vous demandent d’effectuer des palpations lors d’une manifestation artistique réunissant plus de 20 000 personnes, que faites-vous ?|Vous lui demandez s’il a une autorisation préfectorale|Vous lui demandez s’il dispose d’une autorisation du CNAPS en cas de circonstances exceptionnelles|Vous acceptez car votre employeur a engagé sa responsabilité et que ces palpations s’effectuent sous le contrôle d’un OPJ|Vous rappelez que vous n’avez pas d’agrément du CNAPS et que vous n’avez pas le droit de le faire|Aucune des autres réponses</v>
       </c>
@@ -11572,13 +12799,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="B91">
+        <v>722</v>
+      </c>
+      <c r="B91" s="17">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C91" s="17" t="str">
         <f t="shared" si="9"/>
         <v>Pour procéder à des palpations de sécurité dans les enceintes de manifestations sportives, les employés des entreprises de surveillance et de gardiennage doivent :|Rien est nécessaire hormis être désigné par son employeur|Avoir été habilités par leur employeur puis agréés par le préfet du département|Avoir été habilités par leur employeur puis agréés par la C.L.A.C.|Avoir été agréés par la commission internationale suite à l’envoi d’un dossier par l’organisateur de la manifestation|Aucune des autres réponses</v>
       </c>
@@ -11599,6 +12826,646 @@
         <v>Avoir été agréés par la commission internationale suite à l’envoi d’un dossier par l’organisateur de la manifestation</v>
       </c>
       <c r="I91" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="B93" s="17">
+        <f t="shared" ref="B93:B106" si="10">FIND(" - ",A93)</f>
+        <v>10</v>
+      </c>
+      <c r="C93" s="17" t="str">
+        <f t="shared" ref="C93:C106" si="11">RIGHT(A93, LEN(A93)-(B93+2))</f>
+        <v>La CNIL est :|La Commission Nationale des Instances de Liberté|La Commission Nationale de l’Informatique et des Libertés|Le Conseil National sur l’Informatique et des Libertés|Le Comité National des Institutions pour les Libertés|Aucune des autres réponses</v>
+      </c>
+      <c r="D93" t="str" cm="1">
+        <f t="array" ref="D93:I93">_xlfn.TEXTSPLIT(C93,"|")</f>
+        <v>La CNIL est :</v>
+      </c>
+      <c r="E93" t="str">
+        <v>La Commission Nationale des Instances de Liberté</v>
+      </c>
+      <c r="F93" t="str">
+        <v>La Commission Nationale de l’Informatique et des Libertés</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Le Conseil National sur l’Informatique et des Libertés</v>
+      </c>
+      <c r="H93" t="str">
+        <v>Le Comité National des Institutions pour les Libertés</v>
+      </c>
+      <c r="I93" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B94" s="17">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C94" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Quel est l’un des rôles de la CNIL ?|Autoriser le port d’armes numériques|Délivrer les cartes d’agrément vidéo protecteur|Lutter contre la Cyberdéfense|Protéger la vie privée et les libertés publiques|Aucune des autres réponses</v>
+      </c>
+      <c r="D94" t="str" cm="1">
+        <f t="array" ref="D94:I94">_xlfn.TEXTSPLIT(C94,"|")</f>
+        <v>Quel est l’un des rôles de la CNIL ?</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Autoriser le port d’armes numériques</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Délivrer les cartes d’agrément vidéo protecteur</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Lutter contre la Cyberdéfense</v>
+      </c>
+      <c r="H94" t="str">
+        <v>Protéger la vie privée et les libertés publiques</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B95" s="17">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C95" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Un agent rondier me demande de supprimer des images du système de télésurveillance correspondant à son arrivée en retard sur le site :|Étant un bon collègue de travail, sérieux et apprécié de tous, je le fais sans aucun problème|Aucun incident n’ayant été relevé à cet instant, je ne fais que libérer un peu de place sur le disque dur du serveur de stockage|Je le lui laisse faire, ne souhaitant pas être impliqué dans cette action|Je n’ai pas le droit de le faire, risquant des poursuites pénales et disciplinaires|Aucune des autres réponses</v>
+      </c>
+      <c r="D95" t="str" cm="1">
+        <f t="array" ref="D95:I95">_xlfn.TEXTSPLIT(C95,"|")</f>
+        <v>Un agent rondier me demande de supprimer des images du système de télésurveillance correspondant à son arrivée en retard sur le site :</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Étant un bon collègue de travail, sérieux et apprécié de tous, je le fais sans aucun problème</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Aucun incident n’ayant été relevé à cet instant, je ne fais que libérer un peu de place sur le disque dur du serveur de stockage</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Je le lui laisse faire, ne souhaitant pas être impliqué dans cette action</v>
+      </c>
+      <c r="H95" t="str">
+        <v>Je n’ai pas le droit de le faire, risquant des poursuites pénales et disciplinaires</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B96" s="17">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C96" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Vous êtes agent au PCS et équipé d’un système de vidéoprotection :|Vous vérifiez à la prise de service le bon fonctionnement des caméras conformément aux consignes|Vous ne vous servirez des caméras qu’en cas d’intrusion, quelles que soient les consignes|Vous n’êtes pas habilité à vous servir de ce système n’ayant pas d’autorisation du CNAPS spécifique|Vous garderez chaque jour des copies d’images ou vidéos pour vous prémunir de tout reproche futur|Aucune des autres réponses</v>
+      </c>
+      <c r="D96" t="str" cm="1">
+        <f t="array" ref="D96:I96">_xlfn.TEXTSPLIT(C96,"|")</f>
+        <v>Vous êtes agent au PCS et équipé d’un système de vidéoprotection :</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Vous vérifiez à la prise de service le bon fonctionnement des caméras conformément aux consignes</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Vous ne vous servirez des caméras qu’en cas d’intrusion, quelles que soient les consignes</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Vous n’êtes pas habilité à vous servir de ce système n’ayant pas d’autorisation du CNAPS spécifique</v>
+      </c>
+      <c r="H96" t="str">
+        <v>Vous garderez chaque jour des copies d’images ou vidéos pour vous prémunir de tout reproche futur</v>
+      </c>
+      <c r="I96" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B97" s="17">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C97" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Quelle est la principale différence entre une caméra IP et une caméra analogique ?|La façon dont le signal est transmis|La durée de vie de la caméra|La taille de l’image et sa précision|La possibilité de distinguer le visage des personnes observées|Aucune des autres réponses</v>
+      </c>
+      <c r="D97" t="str" cm="1">
+        <f t="array" ref="D97:I97">_xlfn.TEXTSPLIT(C97,"|")</f>
+        <v>Quelle est la principale différence entre une caméra IP et une caméra analogique ?</v>
+      </c>
+      <c r="E97" t="str">
+        <v>La façon dont le signal est transmis</v>
+      </c>
+      <c r="F97" t="str">
+        <v>La durée de vie de la caméra</v>
+      </c>
+      <c r="G97" t="str">
+        <v>La taille de l’image et sa précision</v>
+      </c>
+      <c r="H97" t="str">
+        <v>La possibilité de distinguer le visage des personnes observées</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B98" s="17">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C98" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Dans lequel de ces textes la vidéoprotection est-elle encadrée ?|Le guide APSAD des installations Electroniques|Le Décret 2014-007 du 20 février 2014|La partie Législative du livre VI du Code de la Sécurité Intérieure|La Convention Collective Nationale Prévention et Sécurité|Aucune des autres réponses</v>
+      </c>
+      <c r="D98" t="str" cm="1">
+        <f t="array" ref="D98:I98">_xlfn.TEXTSPLIT(C98,"|")</f>
+        <v>Dans lequel de ces textes la vidéoprotection est-elle encadrée ?</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Le guide APSAD des installations Electroniques</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Le Décret 2014-007 du 20 février 2014</v>
+      </c>
+      <c r="G98" t="str">
+        <v>La partie Législative du livre VI du Code de la Sécurité Intérieure</v>
+      </c>
+      <c r="H98" t="str">
+        <v>La Convention Collective Nationale Prévention et Sécurité</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B99" s="17">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C99" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Agent de vidéosurveillance sur un site en journée, vous repérez un individu au visage dissimulé dans un local sensible à accès réglementé, que faites-vous ?|Je déclenche l’alarme générale d’évacuation des bâtiments|J’effectue la levée de doute immédiatement pour appréhender l’individu|J’informe immédiatement le responsable sécurité du site conformément aux consignes|J’appelle les forces de l’ordre sans plus attendre|Aucune des autres réponses</v>
+      </c>
+      <c r="D99" t="str" cm="1">
+        <f t="array" ref="D99:I99">_xlfn.TEXTSPLIT(C99,"|")</f>
+        <v>Agent de vidéosurveillance sur un site en journée, vous repérez un individu au visage dissimulé dans un local sensible à accès réglementé, que faites-vous ?</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Je déclenche l’alarme générale d’évacuation des bâtiments</v>
+      </c>
+      <c r="F99" t="str">
+        <v>J’effectue la levée de doute immédiatement pour appréhender l’individu</v>
+      </c>
+      <c r="G99" t="str">
+        <v>J’informe immédiatement le responsable sécurité du site conformément aux consignes</v>
+      </c>
+      <c r="H99" t="str">
+        <v>J’appelle les forces de l’ordre sans plus attendre</v>
+      </c>
+      <c r="I99" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B100" s="17">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C100" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Rondier d’astreinte à votre domicile, le télésurveilleur vous contacte la nuit suite à un déclenchement d’alarme intrusion chez un client: que faites-vous ?|Je mets à jour l’outil de main courante électronique et attend les consignes|J’envoie les forces de l’ordre pour effectuer la levée de doute, n’étant pas habilité|Je pense qu’il s’agit d’un dysfonctionnement et économise une ronde inutile à mon entreprise, j’irai demain à la première heure de ma prise de fonction|Je donne mon mot de passe pour m’authentifier et me rends sur place pour effectuer la levée de doute|Aucune des autres réponses</v>
+      </c>
+      <c r="D100" t="str" cm="1">
+        <f t="array" ref="D100:I100">_xlfn.TEXTSPLIT(C100,"|")</f>
+        <v>Rondier d’astreinte à votre domicile, le télésurveilleur vous contacte la nuit suite à un déclenchement d’alarme intrusion chez un client: que faites-vous ?</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Je mets à jour l’outil de main courante électronique et attend les consignes</v>
+      </c>
+      <c r="F100" t="str">
+        <v>J’envoie les forces de l’ordre pour effectuer la levée de doute, n’étant pas habilité</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Je pense qu’il s’agit d’un dysfonctionnement et économise une ronde inutile à mon entreprise, j’irai demain à la première heure de ma prise de fonction</v>
+      </c>
+      <c r="H100" t="str">
+        <v>Je donne mon mot de passe pour m’authentifier et me rends sur place pour effectuer la levée de doute</v>
+      </c>
+      <c r="I100" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B101" s="17">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C101" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Quel équipement fait partie d’un système de vidéosurveillance|La caméra|L’appareil photo|Le caméscope|Le magnétophone|Aucune des autres réponses</v>
+      </c>
+      <c r="D101" t="str" cm="1">
+        <f t="array" ref="D101:I101">_xlfn.TEXTSPLIT(C101,"|")</f>
+        <v>Quel équipement fait partie d’un système de vidéosurveillance</v>
+      </c>
+      <c r="E101" t="str">
+        <v>La caméra</v>
+      </c>
+      <c r="F101" t="str">
+        <v>L’appareil photo</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Le caméscope</v>
+      </c>
+      <c r="H101" t="str">
+        <v>Le magnétophone</v>
+      </c>
+      <c r="I101" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B102" s="17">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C102" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Un système de vidéoprotection peut proposer plusieurs types de caméras :|Des caméras fixes|Des caméras à vision nocturne|Des caméras à 360°|Des caméras à lecture de plaques minéralogiques|Toutes les réponses précédentes sont exactes</v>
+      </c>
+      <c r="D102" t="str" cm="1">
+        <f t="array" ref="D102:I102">_xlfn.TEXTSPLIT(C102,"|")</f>
+        <v>Un système de vidéoprotection peut proposer plusieurs types de caméras :</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Des caméras fixes</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Des caméras à vision nocturne</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Des caméras à 360°</v>
+      </c>
+      <c r="H102" t="str">
+        <v>Des caméras à lecture de plaques minéralogiques</v>
+      </c>
+      <c r="I102" t="str">
+        <v>Toutes les réponses précédentes sont exactes</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="B103" s="17">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C103" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Quelle est la composition de la chaîne de télésécurité ?|Observation - Réglementation - Validation - Action|Détection - Transmission - Réception - Traitement - Intervention|Veille - Repérage - Preuve - Formalisation|Déclenchement - Levée de doute - Police - Main courante|Aucune des autres réponses</v>
+      </c>
+      <c r="D103" t="str" cm="1">
+        <f t="array" ref="D103:I103">_xlfn.TEXTSPLIT(C103,"|")</f>
+        <v>Quelle est la composition de la chaîne de télésécurité ?</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Observation - Réglementation - Validation - Action</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Détection - Transmission - Réception - Traitement - Intervention</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Veille - Repérage - Preuve - Formalisation</v>
+      </c>
+      <c r="H103" t="str">
+        <v>Déclenchement - Levée de doute - Police - Main courante</v>
+      </c>
+      <c r="I103" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B104" s="17">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C104" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Constitue une infraction d’atteinte aux systèmes de traitement automatisé des données, le fait : |D’introduire un virus informatique dans un système de données informatiques|De modifier des données informatiques|D’accéder frauduleusement à des données informatiques|De supprimer des données informatiques|Toutes les réponses précédentes sont exactes</v>
+      </c>
+      <c r="D104" t="str" cm="1">
+        <f t="array" ref="D104:I104">_xlfn.TEXTSPLIT(C104,"|")</f>
+        <v xml:space="preserve">Constitue une infraction d’atteinte aux systèmes de traitement automatisé des données, le fait : </v>
+      </c>
+      <c r="E104" t="str">
+        <v>D’introduire un virus informatique dans un système de données informatiques</v>
+      </c>
+      <c r="F104" t="str">
+        <v>De modifier des données informatiques</v>
+      </c>
+      <c r="G104" t="str">
+        <v>D’accéder frauduleusement à des données informatiques</v>
+      </c>
+      <c r="H104" t="str">
+        <v>De supprimer des données informatiques</v>
+      </c>
+      <c r="I104" t="str">
+        <v>Toutes les réponses précédentes sont exactes</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B105" s="17">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C105" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Toute personne intéressée peut-elle demander d’avoir accès aux enregistrements de vidéosurveillance qui la concerne et de demander sa destruction ?|Oui après avoir fait la demande auprès du Préfet|Oui, sauf si le refus est justifié par les conditions fixées par la loi|Non, car les enregistrements doivent rester toujours confidentiels|Non, car seuls les opérateurs publics peuvent visionner des images privées|Aucune des autres réponses</v>
+      </c>
+      <c r="D105" t="str" cm="1">
+        <f t="array" ref="D105:I105">_xlfn.TEXTSPLIT(C105,"|")</f>
+        <v>Toute personne intéressée peut-elle demander d’avoir accès aux enregistrements de vidéosurveillance qui la concerne et de demander sa destruction ?</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Oui après avoir fait la demande auprès du Préfet</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Oui, sauf si le refus est justifié par les conditions fixées par la loi</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Non, car les enregistrements doivent rester toujours confidentiels</v>
+      </c>
+      <c r="H105" t="str">
+        <v>Non, car seuls les opérateurs publics peuvent visionner des images privées</v>
+      </c>
+      <c r="I105" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B106" s="17">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C106" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Le responsable logistique du site vous demande de visionner des images de vidéosurveillance enregistrées relatives à un salarié de sa société, que faites-vous ?|Je n’ai pas le droit de le faire mais donne le fichier vidéo au responsable du site client|Je refuse de le faire mais informe mon responsable de cette de demande|J’accepte de le faire si les faits sont graves et avérés|Je refuse de le faire sans l’accord au moins oral du CNAPS|Aucune des autres réponses</v>
+      </c>
+      <c r="D106" t="str" cm="1">
+        <f t="array" ref="D106:I106">_xlfn.TEXTSPLIT(C106,"|")</f>
+        <v>Le responsable logistique du site vous demande de visionner des images de vidéosurveillance enregistrées relatives à un salarié de sa société, que faites-vous ?</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Je n’ai pas le droit de le faire mais donne le fichier vidéo au responsable du site client</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Je refuse de le faire mais informe mon responsable de cette de demande</v>
+      </c>
+      <c r="G106" t="str">
+        <v>J’accepte de le faire si les faits sont graves et avérés</v>
+      </c>
+      <c r="H106" t="str">
+        <v>Je refuse de le faire sans l’accord au moins oral du CNAPS</v>
+      </c>
+      <c r="I106" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B107" s="17">
+        <f t="shared" ref="B107:B112" si="12">FIND(" - ",A107)</f>
+        <v>11</v>
+      </c>
+      <c r="C107" s="17" t="str">
+        <f t="shared" ref="C107:C112" si="13">RIGHT(A107, LEN(A107)-(B107+2))</f>
+        <v>Le fait d’accéder frauduleusement à des données informatiques issues d’images de vidéosurveillance constitue l’infraction de :|Vol de données informatiques|Atteintes aux systèmes de traitement automatisé de données|Entrave à la libre circulation de biens et des données|Dégradation ou détérioration d’uns système de traitement de données informatiques|Aucune des autres réponses</v>
+      </c>
+      <c r="D107" t="str" cm="1">
+        <f t="array" ref="D107:I107">_xlfn.TEXTSPLIT(C107,"|")</f>
+        <v>Le fait d’accéder frauduleusement à des données informatiques issues d’images de vidéosurveillance constitue l’infraction de :</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Vol de données informatiques</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Atteintes aux systèmes de traitement automatisé de données</v>
+      </c>
+      <c r="G107" t="str">
+        <v>Entrave à la libre circulation de biens et des données</v>
+      </c>
+      <c r="H107" t="str">
+        <v>Dégradation ou détérioration d’uns système de traitement de données informatiques</v>
+      </c>
+      <c r="I107" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B108" s="17">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="C108" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Un agent SSIAP vient au PC de vidéosurveillance vous demander de lui montrer des images d’un bâtiment pour contrôler la présence des extincteurs trop éloignés, que faites-vous ?|J’accepte car il s’agit de risque d’incendie|J’accepte car le site est calme et si aucun risque potentiel n’est prévisible à cet instant|Je refuse, le système n’est pas fait pour cela|Je refuse sans avoir un document écrit du client|Aucune des autres réponses</v>
+      </c>
+      <c r="D108" t="str" cm="1">
+        <f t="array" ref="D108:I108">_xlfn.TEXTSPLIT(C108,"|")</f>
+        <v>Un agent SSIAP vient au PC de vidéosurveillance vous demander de lui montrer des images d’un bâtiment pour contrôler la présence des extincteurs trop éloignés, que faites-vous ?</v>
+      </c>
+      <c r="E108" t="str">
+        <v>J’accepte car il s’agit de risque d’incendie</v>
+      </c>
+      <c r="F108" t="str">
+        <v>J’accepte car le site est calme et si aucun risque potentiel n’est prévisible à cet instant</v>
+      </c>
+      <c r="G108" t="str">
+        <v>Je refuse, le système n’est pas fait pour cela</v>
+      </c>
+      <c r="H108" t="str">
+        <v>Je refuse sans avoir un document écrit du client</v>
+      </c>
+      <c r="I108" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B109" s="17">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="C109" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Quels sont les faits autorisés et donc non passibles de poursuites en matière d'utilisation d’images de vidéoprotection ?|Le fait de falsifier des enregistrements|Le fait de permettre leur accès à des personnes non habilitées|Le fait de ne conserver que les images que pendant un mois au maximum sauf procédure judiciaire en cours|Le fait d’utiliser des images à d’autres fins que celles autorisées|Aucune des autres réponses</v>
+      </c>
+      <c r="D109" t="str" cm="1">
+        <f t="array" ref="D109:I109">_xlfn.TEXTSPLIT(C109,"|")</f>
+        <v>Quels sont les faits autorisés et donc non passibles de poursuites en matière d'utilisation d’images de vidéoprotection ?</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Le fait de falsifier des enregistrements</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Le fait de permettre leur accès à des personnes non habilitées</v>
+      </c>
+      <c r="G109" t="str">
+        <v>Le fait de ne conserver que les images que pendant un mois au maximum sauf procédure judiciaire en cours</v>
+      </c>
+      <c r="H109" t="str">
+        <v>Le fait d’utiliser des images à d’autres fins que celles autorisées</v>
+      </c>
+      <c r="I109" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B110" s="17">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="C110" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Toute personne peut-elle demander d’avoir accès aux enregistrements de vidéosurveillance qui la concerne ?|Oui car cet accès est de droit, sous certaines conditions|Oui après en avoir fait la demande auprès du Préfet|Selon le bon-vouloir du responsable de l’installation de vidéosurveillance car il n’est pas obligé de le faire|Non car les enregistrements restent toujours confidentiels|Aucune des autres réponses</v>
+      </c>
+      <c r="D110" t="str" cm="1">
+        <f t="array" ref="D110:I110">_xlfn.TEXTSPLIT(C110,"|")</f>
+        <v>Toute personne peut-elle demander d’avoir accès aux enregistrements de vidéosurveillance qui la concerne ?</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Oui car cet accès est de droit, sous certaines conditions</v>
+      </c>
+      <c r="F110" t="str">
+        <v>Oui après en avoir fait la demande auprès du Préfet</v>
+      </c>
+      <c r="G110" t="str">
+        <v>Selon le bon-vouloir du responsable de l’installation de vidéosurveillance car il n’est pas obligé de le faire</v>
+      </c>
+      <c r="H110" t="str">
+        <v>Non car les enregistrements restent toujours confidentiels</v>
+      </c>
+      <c r="I110" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="B111" s="17">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="C111" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Le contrôle d’accès électronique est :|Un système de sécurité permettant de détecter les personnes au comportement suspect|Un système de sécurité permettant de ne faire que des identifications|Un système de sécurité empêchant l’accès à des personnes autorisées|Un système de sécurité permettant d’autoriser des personnes déterminées|Aucune des autres réponses</v>
+      </c>
+      <c r="D111" t="str" cm="1">
+        <f t="array" ref="D111:I111">_xlfn.TEXTSPLIT(C111,"|")</f>
+        <v>Le contrôle d’accès électronique est :</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Un système de sécurité permettant de détecter les personnes au comportement suspect</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Un système de sécurité permettant de ne faire que des identifications</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Un système de sécurité empêchant l’accès à des personnes autorisées</v>
+      </c>
+      <c r="H111" t="str">
+        <v>Un système de sécurité permettant d’autoriser des personnes déterminées</v>
+      </c>
+      <c r="I111" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B112" s="17">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="C112" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Le schéma d’installation de la vidéoprotection permet :|De capter, de transmettre, de stocker, de visionner les images|D’installer, de maintenir et de mettre à disposition des prestataires des images|De compléter le système de surveillance incendie|De garantir aux forces de l’ordre la bonne réalisation de la mission de sûreté|Aucune des autres réponses</v>
+      </c>
+      <c r="D112" t="str" cm="1">
+        <f t="array" ref="D112:I112">_xlfn.TEXTSPLIT(C112,"|")</f>
+        <v>Le schéma d’installation de la vidéoprotection permet :</v>
+      </c>
+      <c r="E112" t="str">
+        <v>De capter, de transmettre, de stocker, de visionner les images</v>
+      </c>
+      <c r="F112" t="str">
+        <v>D’installer, de maintenir et de mettre à disposition des prestataires des images</v>
+      </c>
+      <c r="G112" t="str">
+        <v>De compléter le système de surveillance incendie</v>
+      </c>
+      <c r="H112" t="str">
+        <v>De garantir aux forces de l’ordre la bonne réalisation de la mission de sûreté</v>
+      </c>
+      <c r="I112" t="str">
         <v>Aucune des autres réponses</v>
       </c>
     </row>

--- a/TFP_APS_Questions_QCU_Reel_2025.xlsx
+++ b/TFP_APS_Questions_QCU_Reel_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://daher-my.sharepoint.com/personal/2104474_daher_com/Documents/Documents/WORK/PYTHON/apps/Questions_TFP_APS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64111D0D-A7A9-477F-98F4-A7E7012D88FA}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:1_{2ACE7C71-CCF8-48B7-AEC7-69C3CEDFEA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{378452D2-8AA1-4607-8A51-4D8610BE5293}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="944">
   <si>
     <t>UV</t>
   </si>
@@ -3675,6 +3675,296 @@
   </si>
   <si>
     <t>De garantir aux forces de l’ordre la bonne réalisation de la mission de sûreté</t>
+  </si>
+  <si>
+    <r>
+      <t>1 – Lorsque des véhicules sont susceptibles de pénétrer au sein du périmètre de protection (L226-1 du CSI), la loi peut également en subordonner l’accès à l’inspection visuelle du contenu du véhicule :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Avec le consentement de son conducteur, par un agent de prévention et de sécurité|Sans le consentement de son conducteur, par un agent de prévention et de sécurité|Avec le consentement de son conducteur, par un agent de prévention et de sécurité, placé sous l’autorité d’un OPJ|Sans le consentement de son conducteur, par un agent de prévention et de sécurité mais sous le contrôle d’un OPJ|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 – Lors de l’inspection d’un bagage, si une personne refuse de se dessaisir d’objets pouvant devenir des armes par destination (bouteille en verre, canette, casque, …) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|L’agent ne peut lui autoriser l’accès que si les objets sont enveloppés dans un sac plastique transparent « thermo-soudé »|L’agent doit lui refuser l’accès à la manifestation conformément aux consignes spécifiques du site|L’agent doit systématiquement faire intervenir un OPJ|L’agent doit contraindre par la force la personne à se dessaisir des objets|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 – Quel est le risque majeur de clôturer un site pour une manifestation culturelle ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Provoquer des attroupements à l’extérieur du site|Rendre l’évacuation plus difficile|Aucun, la clôture supprime tous les risques|Engorgement important à l’entrée du site|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4 – Quel est le risque principal lors d’un rassemblement sportif ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Ne pas disposer d’agents féminins pour pratiquer les palpations|Les tentatives d’introduction des VIP dans les zones privatives|La fraude aux faux billets|Les débordements des supporters|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5 – Parmi ces éléments, quels sont les facteurs aggravant du risque de gestion de l’événement ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Des billets pré-vendus en totalité longtemps à l’avance sans places réservées|Des billets pré-vendus en totalité longtemps à l’avance avec places réservées|Des billets vendus au dernier moment sans places réservées|Des billets vendus au dernier moment avec places réservées|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6 – Avant que ne commence une manifestation, les agents composant le service de sécurité d’un grand rassemblement ont principalement pour rôle de :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Orienter les spectateurs dans les bonnes directions|Prévenir les journalistes à l’arrivée des VIP|Faire un selfie avec les stars de l’événement|Procéder à l’inspection des installations ou de la salle|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7 – L’autorité de police peut imposer la présence d’un service d’ordre à l’organisateur d’une manifestation sportive ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Non si l’État d’urgence attentat n’est pas décrété|Non si la manifestation est inférieure à 1500 personnes|Oui, si elle estime insuffisantes les mesures envisagées par les organisateurs|Oui, pour les manifestations de plus de 5000 personnes|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8 – Dans une salle de concert, une personne ivre, qui a un comportement menaçant trouble la tranquillité des spectateurs :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Je dois faire appel à l’OPJ|Dès lors que la personne a franchi le Point d’Inspection Filtrage, c’est aux organisateurs de s’en occuper|Je ne peux pas appréhender la personne car elle n’a commis un délit puni d’une peine|Je l’emmène à l’écart par la force et l’enferme en situation de dégrisement|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9 – Quels peuvent être les acteurs autres que le public d’un événement qui nécessitent une attention particulière en matière de sûreté ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|Les journalistes de la presse|Les organisateurs|Les personnes accréditées (VIP)|Les artistes et personnels rattachés|Toutes les réponses sont exactes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10 – Les organisateurs de manifestations sportives, récréatives ou culturelles sont tenus (R211-22 du CSI) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|D’en faire la déclaration uniquement si elles sont sur la liste des événements exposés|D’en faire la déclaration aux maires ou aux Préfets de Police, si la manifestation peut atteindre plus de 1500 personnes|D’en faire la déclaration aux maires si la manifestation peut atteindre plus de 300 personnes et aux Préfets si elle dépasse 1500 personnes|D’en faire la déclaration au Préfet de région au moins un an avant|Aucune des autres réponses</t>
+    </r>
+  </si>
+  <si>
+    <t>Lorsque des véhicules sont susceptibles de pénétrer au sein du périmètre de protection (L226-1 du CSI), la loi peut également en subordonner l’accès à l’inspection visuelle du contenu du véhicule :</t>
+  </si>
+  <si>
+    <t>Avec le consentement de son conducteur, par un agent de prévention et de sécurité</t>
+  </si>
+  <si>
+    <t>Sans le consentement de son conducteur, par un agent de prévention et de sécurité</t>
+  </si>
+  <si>
+    <t>Avec le consentement de son conducteur, par un agent de prévention et de sécurité, placé sous l’autorité d’un OPJ</t>
+  </si>
+  <si>
+    <t>Sans le consentement de son conducteur, par un agent de prévention et de sécurité mais sous le contrôle d’un OPJ</t>
+  </si>
+  <si>
+    <t>Lors de l’inspection d’un bagage, si une personne refuse de se dessaisir d’objets pouvant devenir des armes par destination (bouteille en verre, canette, casque, …) :</t>
+  </si>
+  <si>
+    <t>L’agent ne peut lui autoriser l’accès que si les objets sont enveloppés dans un sac plastique transparent « thermo-soudé »</t>
+  </si>
+  <si>
+    <t>L’agent doit lui refuser l’accès à la manifestation conformément aux consignes spécifiques du site</t>
+  </si>
+  <si>
+    <t>L’agent doit systématiquement faire intervenir un OPJ</t>
+  </si>
+  <si>
+    <t>L’agent doit contraindre par la force la personne à se dessaisir des objets</t>
+  </si>
+  <si>
+    <t>Quel est le risque majeur de clôturer un site pour une manifestation culturelle ?</t>
+  </si>
+  <si>
+    <t>Provoquer des attroupements à l’extérieur du site</t>
+  </si>
+  <si>
+    <t>Rendre l’évacuation plus difficile</t>
+  </si>
+  <si>
+    <t>Aucun, la clôture supprime tous les risques</t>
+  </si>
+  <si>
+    <t>Engorgement important à l’entrée du site</t>
+  </si>
+  <si>
+    <t>Quel est le risque principal lors d’un rassemblement sportif ?</t>
+  </si>
+  <si>
+    <t>Ne pas disposer d’agents féminins pour pratiquer les palpations</t>
+  </si>
+  <si>
+    <t>Les tentatives d’introduction des VIP dans les zones privatives</t>
+  </si>
+  <si>
+    <t>La fraude aux faux billets</t>
+  </si>
+  <si>
+    <t>Les débordements des supporters</t>
+  </si>
+  <si>
+    <t>Parmi ces éléments, quels sont les facteurs aggravant du risque de gestion de l’événement ?</t>
+  </si>
+  <si>
+    <t>Des billets pré-vendus en totalité longtemps à l’avance sans places réservées</t>
+  </si>
+  <si>
+    <t>Des billets pré-vendus en totalité longtemps à l’avance avec places réservées</t>
+  </si>
+  <si>
+    <t>Des billets vendus au dernier moment sans places réservées</t>
+  </si>
+  <si>
+    <t>Des billets vendus au dernier moment avec places réservées</t>
+  </si>
+  <si>
+    <t>Avant que ne commence une manifestation, les agents composant le service de sécurité d’un grand rassemblement ont principalement pour rôle de :</t>
+  </si>
+  <si>
+    <t>Orienter les spectateurs dans les bonnes directions</t>
+  </si>
+  <si>
+    <t>Prévenir les journalistes à l’arrivée des VIP</t>
+  </si>
+  <si>
+    <t>Faire un selfie avec les stars de l’événement</t>
+  </si>
+  <si>
+    <t>Procéder à l’inspection des installations ou de la salle</t>
+  </si>
+  <si>
+    <t>L’autorité de police peut imposer la présence d’un service d’ordre à l’organisateur d’une manifestation sportive ?</t>
+  </si>
+  <si>
+    <t>Non si l’État d’urgence attentat n’est pas décrété</t>
+  </si>
+  <si>
+    <t>Non si la manifestation est inférieure à 1500 personnes</t>
+  </si>
+  <si>
+    <t>Oui, si elle estime insuffisantes les mesures envisagées par les organisateurs</t>
+  </si>
+  <si>
+    <t>Oui, pour les manifestations de plus de 5000 personnes</t>
+  </si>
+  <si>
+    <t>Dans une salle de concert, une personne ivre, qui a un comportement menaçant trouble la tranquillité des spectateurs :</t>
+  </si>
+  <si>
+    <t>Je dois faire appel à l’OPJ</t>
+  </si>
+  <si>
+    <t>Dès lors que la personne a franchi le Point d’Inspection Filtrage, c’est aux organisateurs de s’en occuper</t>
+  </si>
+  <si>
+    <t>Je ne peux pas appréhender la personne car elle n’a commis un délit puni d’une peine</t>
+  </si>
+  <si>
+    <t>Je l’emmène à l’écart par la force et l’enferme en situation de dégrisement</t>
+  </si>
+  <si>
+    <t>Quels peuvent être les acteurs autres que le public d’un événement qui nécessitent une attention particulière en matière de sûreté ?</t>
+  </si>
+  <si>
+    <t>Les journalistes de la presse</t>
+  </si>
+  <si>
+    <t>Les organisateurs</t>
+  </si>
+  <si>
+    <t>Les personnes accréditées (VIP)</t>
+  </si>
+  <si>
+    <t>Les artistes et personnels rattachés</t>
+  </si>
+  <si>
+    <t>Les organisateurs de manifestations sportives, récréatives ou culturelles sont tenus (R211-22 du CSI) :</t>
+  </si>
+  <si>
+    <t>D’en faire la déclaration uniquement si elles sont sur la liste des événements exposés</t>
+  </si>
+  <si>
+    <t>D’en faire la déclaration aux maires ou aux Préfets de Police, si la manifestation peut atteindre plus de 1500 personnes</t>
+  </si>
+  <si>
+    <t>D’en faire la déclaration aux maires si la manifestation peut atteindre plus de 300 personnes et aux Préfets si elle dépasse 1500 personnes</t>
+  </si>
+  <si>
+    <t>D’en faire la déclaration au Préfet de région au moins un an avant</t>
   </si>
 </sst>
 </file>
@@ -4283,6 +4573,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238570</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>181019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB803C3F-AEB8-E033-20B0-82769A3776A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15935325" y="27679650"/>
+          <a:ext cx="3191320" cy="314369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4571,10 +4905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8869,6 +9203,296 @@
       </c>
       <c r="J144" s="10" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J145" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J147" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J148" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J149" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J151" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J153" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -10011,10 +10635,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18582157-25E0-434E-AB6B-01FE38A60B37}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93:J112"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114:J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13469,6 +14093,329 @@
         <v>Aucune des autres réponses</v>
       </c>
     </row>
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="B114" s="17">
+        <f t="shared" ref="B114:B123" si="14">FIND(" – ",A114)</f>
+        <v>2</v>
+      </c>
+      <c r="C114" s="17" t="str">
+        <f t="shared" ref="C114:C123" si="15">RIGHT(A114, LEN(A114)-(B114+2))</f>
+        <v>Lorsque des véhicules sont susceptibles de pénétrer au sein du périmètre de protection (L226-1 du CSI), la loi peut également en subordonner l’accès à l’inspection visuelle du contenu du véhicule :|Avec le consentement de son conducteur, par un agent de prévention et de sécurité|Sans le consentement de son conducteur, par un agent de prévention et de sécurité|Avec le consentement de son conducteur, par un agent de prévention et de sécurité, placé sous l’autorité d’un OPJ|Sans le consentement de son conducteur, par un agent de prévention et de sécurité mais sous le contrôle d’un OPJ|Aucune des autres réponses</v>
+      </c>
+      <c r="D114" t="str" cm="1">
+        <f t="array" ref="D114:I114">_xlfn.TEXTSPLIT(C114,"|")</f>
+        <v>Lorsque des véhicules sont susceptibles de pénétrer au sein du périmètre de protection (L226-1 du CSI), la loi peut également en subordonner l’accès à l’inspection visuelle du contenu du véhicule :</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Avec le consentement de son conducteur, par un agent de prévention et de sécurité</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Sans le consentement de son conducteur, par un agent de prévention et de sécurité</v>
+      </c>
+      <c r="G114" t="str">
+        <v>Avec le consentement de son conducteur, par un agent de prévention et de sécurité, placé sous l’autorité d’un OPJ</v>
+      </c>
+      <c r="H114" t="str">
+        <v>Sans le consentement de son conducteur, par un agent de prévention et de sécurité mais sous le contrôle d’un OPJ</v>
+      </c>
+      <c r="I114" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="B115" s="17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C115" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Lors de l’inspection d’un bagage, si une personne refuse de se dessaisir d’objets pouvant devenir des armes par destination (bouteille en verre, canette, casque, …) :|L’agent ne peut lui autoriser l’accès que si les objets sont enveloppés dans un sac plastique transparent « thermo-soudé »|L’agent doit lui refuser l’accès à la manifestation conformément aux consignes spécifiques du site|L’agent doit systématiquement faire intervenir un OPJ|L’agent doit contraindre par la force la personne à se dessaisir des objets|Aucune des autres réponses</v>
+      </c>
+      <c r="D115" t="str" cm="1">
+        <f t="array" ref="D115:I115">_xlfn.TEXTSPLIT(C115,"|")</f>
+        <v>Lors de l’inspection d’un bagage, si une personne refuse de se dessaisir d’objets pouvant devenir des armes par destination (bouteille en verre, canette, casque, …) :</v>
+      </c>
+      <c r="E115" t="str">
+        <v>L’agent ne peut lui autoriser l’accès que si les objets sont enveloppés dans un sac plastique transparent « thermo-soudé »</v>
+      </c>
+      <c r="F115" t="str">
+        <v>L’agent doit lui refuser l’accès à la manifestation conformément aux consignes spécifiques du site</v>
+      </c>
+      <c r="G115" t="str">
+        <v>L’agent doit systématiquement faire intervenir un OPJ</v>
+      </c>
+      <c r="H115" t="str">
+        <v>L’agent doit contraindre par la force la personne à se dessaisir des objets</v>
+      </c>
+      <c r="I115" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="B116" s="17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C116" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Quel est le risque majeur de clôturer un site pour une manifestation culturelle ?|Provoquer des attroupements à l’extérieur du site|Rendre l’évacuation plus difficile|Aucun, la clôture supprime tous les risques|Engorgement important à l’entrée du site|Aucune des autres réponses</v>
+      </c>
+      <c r="D116" t="str" cm="1">
+        <f t="array" ref="D116:I116">_xlfn.TEXTSPLIT(C116,"|")</f>
+        <v>Quel est le risque majeur de clôturer un site pour une manifestation culturelle ?</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Provoquer des attroupements à l’extérieur du site</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Rendre l’évacuation plus difficile</v>
+      </c>
+      <c r="G116" t="str">
+        <v>Aucun, la clôture supprime tous les risques</v>
+      </c>
+      <c r="H116" t="str">
+        <v>Engorgement important à l’entrée du site</v>
+      </c>
+      <c r="I116" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="B117" s="17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C117" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Quel est le risque principal lors d’un rassemblement sportif ?|Ne pas disposer d’agents féminins pour pratiquer les palpations|Les tentatives d’introduction des VIP dans les zones privatives|La fraude aux faux billets|Les débordements des supporters|Aucune des autres réponses</v>
+      </c>
+      <c r="D117" t="str" cm="1">
+        <f t="array" ref="D117:I117">_xlfn.TEXTSPLIT(C117,"|")</f>
+        <v>Quel est le risque principal lors d’un rassemblement sportif ?</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Ne pas disposer d’agents féminins pour pratiquer les palpations</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Les tentatives d’introduction des VIP dans les zones privatives</v>
+      </c>
+      <c r="G117" t="str">
+        <v>La fraude aux faux billets</v>
+      </c>
+      <c r="H117" t="str">
+        <v>Les débordements des supporters</v>
+      </c>
+      <c r="I117" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="B118" s="17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C118" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Parmi ces éléments, quels sont les facteurs aggravant du risque de gestion de l’événement ?|Des billets pré-vendus en totalité longtemps à l’avance sans places réservées|Des billets pré-vendus en totalité longtemps à l’avance avec places réservées|Des billets vendus au dernier moment sans places réservées|Des billets vendus au dernier moment avec places réservées|Aucune des autres réponses</v>
+      </c>
+      <c r="D118" t="str" cm="1">
+        <f t="array" ref="D118:I118">_xlfn.TEXTSPLIT(C118,"|")</f>
+        <v>Parmi ces éléments, quels sont les facteurs aggravant du risque de gestion de l’événement ?</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Des billets pré-vendus en totalité longtemps à l’avance sans places réservées</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Des billets pré-vendus en totalité longtemps à l’avance avec places réservées</v>
+      </c>
+      <c r="G118" t="str">
+        <v>Des billets vendus au dernier moment sans places réservées</v>
+      </c>
+      <c r="H118" t="str">
+        <v>Des billets vendus au dernier moment avec places réservées</v>
+      </c>
+      <c r="I118" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="B119" s="17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C119" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Avant que ne commence une manifestation, les agents composant le service de sécurité d’un grand rassemblement ont principalement pour rôle de :|Orienter les spectateurs dans les bonnes directions|Prévenir les journalistes à l’arrivée des VIP|Faire un selfie avec les stars de l’événement|Procéder à l’inspection des installations ou de la salle|Aucune des autres réponses</v>
+      </c>
+      <c r="D119" t="str" cm="1">
+        <f t="array" ref="D119:I119">_xlfn.TEXTSPLIT(C119,"|")</f>
+        <v>Avant que ne commence une manifestation, les agents composant le service de sécurité d’un grand rassemblement ont principalement pour rôle de :</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Orienter les spectateurs dans les bonnes directions</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Prévenir les journalistes à l’arrivée des VIP</v>
+      </c>
+      <c r="G119" t="str">
+        <v>Faire un selfie avec les stars de l’événement</v>
+      </c>
+      <c r="H119" t="str">
+        <v>Procéder à l’inspection des installations ou de la salle</v>
+      </c>
+      <c r="I119" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="B120" s="17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C120" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>L’autorité de police peut imposer la présence d’un service d’ordre à l’organisateur d’une manifestation sportive ?|Non si l’État d’urgence attentat n’est pas décrété|Non si la manifestation est inférieure à 1500 personnes|Oui, si elle estime insuffisantes les mesures envisagées par les organisateurs|Oui, pour les manifestations de plus de 5000 personnes|Aucune des autres réponses</v>
+      </c>
+      <c r="D120" t="str" cm="1">
+        <f t="array" ref="D120:I120">_xlfn.TEXTSPLIT(C120,"|")</f>
+        <v>L’autorité de police peut imposer la présence d’un service d’ordre à l’organisateur d’une manifestation sportive ?</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Non si l’État d’urgence attentat n’est pas décrété</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Non si la manifestation est inférieure à 1500 personnes</v>
+      </c>
+      <c r="G120" t="str">
+        <v>Oui, si elle estime insuffisantes les mesures envisagées par les organisateurs</v>
+      </c>
+      <c r="H120" t="str">
+        <v>Oui, pour les manifestations de plus de 5000 personnes</v>
+      </c>
+      <c r="I120" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="B121" s="17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C121" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Dans une salle de concert, une personne ivre, qui a un comportement menaçant trouble la tranquillité des spectateurs :|Je dois faire appel à l’OPJ|Dès lors que la personne a franchi le Point d’Inspection Filtrage, c’est aux organisateurs de s’en occuper|Je ne peux pas appréhender la personne car elle n’a commis un délit puni d’une peine|Je l’emmène à l’écart par la force et l’enferme en situation de dégrisement|Aucune des autres réponses</v>
+      </c>
+      <c r="D121" t="str" cm="1">
+        <f t="array" ref="D121:I121">_xlfn.TEXTSPLIT(C121,"|")</f>
+        <v>Dans une salle de concert, une personne ivre, qui a un comportement menaçant trouble la tranquillité des spectateurs :</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Je dois faire appel à l’OPJ</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Dès lors que la personne a franchi le Point d’Inspection Filtrage, c’est aux organisateurs de s’en occuper</v>
+      </c>
+      <c r="G121" t="str">
+        <v>Je ne peux pas appréhender la personne car elle n’a commis un délit puni d’une peine</v>
+      </c>
+      <c r="H121" t="str">
+        <v>Je l’emmène à l’écart par la force et l’enferme en situation de dégrisement</v>
+      </c>
+      <c r="I121" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="B122" s="17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C122" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Quels peuvent être les acteurs autres que le public d’un événement qui nécessitent une attention particulière en matière de sûreté ?|Les journalistes de la presse|Les organisateurs|Les personnes accréditées (VIP)|Les artistes et personnels rattachés|Toutes les réponses sont exactes</v>
+      </c>
+      <c r="D122" t="str" cm="1">
+        <f t="array" ref="D122:I122">_xlfn.TEXTSPLIT(C122,"|")</f>
+        <v>Quels peuvent être les acteurs autres que le public d’un événement qui nécessitent une attention particulière en matière de sûreté ?</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Les journalistes de la presse</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Les organisateurs</v>
+      </c>
+      <c r="G122" t="str">
+        <v>Les personnes accréditées (VIP)</v>
+      </c>
+      <c r="H122" t="str">
+        <v>Les artistes et personnels rattachés</v>
+      </c>
+      <c r="I122" t="str">
+        <v>Toutes les réponses sont exactes</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="B123" s="17">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C123" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Les organisateurs de manifestations sportives, récréatives ou culturelles sont tenus (R211-22 du CSI) :|D’en faire la déclaration uniquement si elles sont sur la liste des événements exposés|D’en faire la déclaration aux maires ou aux Préfets de Police, si la manifestation peut atteindre plus de 1500 personnes|D’en faire la déclaration aux maires si la manifestation peut atteindre plus de 300 personnes et aux Préfets si elle dépasse 1500 personnes|D’en faire la déclaration au Préfet de région au moins un an avant|Aucune des autres réponses</v>
+      </c>
+      <c r="D123" t="str" cm="1">
+        <f t="array" ref="D123:I123">_xlfn.TEXTSPLIT(C123,"|")</f>
+        <v>Les organisateurs de manifestations sportives, récréatives ou culturelles sont tenus (R211-22 du CSI) :</v>
+      </c>
+      <c r="E123" t="str">
+        <v>D’en faire la déclaration uniquement si elles sont sur la liste des événements exposés</v>
+      </c>
+      <c r="F123" t="str">
+        <v>D’en faire la déclaration aux maires ou aux Préfets de Police, si la manifestation peut atteindre plus de 1500 personnes</v>
+      </c>
+      <c r="G123" t="str">
+        <v>D’en faire la déclaration aux maires si la manifestation peut atteindre plus de 300 personnes et aux Préfets si elle dépasse 1500 personnes</v>
+      </c>
+      <c r="H123" t="str">
+        <v>D’en faire la déclaration au Préfet de région au moins un an avant</v>
+      </c>
+      <c r="I123" t="str">
+        <v>Aucune des autres réponses</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
